--- a/游戏人生.xlsx
+++ b/游戏人生.xlsx
@@ -30,351 +30,37 @@
     <t>备注</t>
   </si>
   <si>
-    <t>红色警戒</t>
-  </si>
-  <si>
-    <t>RTS</t>
-  </si>
-  <si>
-    <t>+1；偶尔翻出来过一遍战役，依然很好玩；本子</t>
-  </si>
-  <si>
-    <t>梦幻之星4</t>
+    <t>总评人数</t>
+  </si>
+  <si>
+    <t>好评人数</t>
+  </si>
+  <si>
+    <t>三角战略</t>
+  </si>
+  <si>
+    <t>SRPG</t>
+  </si>
+  <si>
+    <t>艾尔登法环</t>
+  </si>
+  <si>
+    <t>ARPG / 类魂</t>
+  </si>
+  <si>
+    <t>宝可梦传说：阿尔宙斯</t>
+  </si>
+  <si>
+    <t>宝可梦</t>
+  </si>
+  <si>
+    <t>精灵宝可梦 晶灿钻石 / 闪亮珍珠</t>
+  </si>
+  <si>
+    <t>真女神转生5</t>
   </si>
   <si>
     <t>JRPG</t>
-  </si>
-  <si>
-    <t>+1；小时候第一个玩哭的游戏，对小屁孩时代的我造成了冲击性的情感体验，以至于我后续对游戏的口味也不可避免地陷入了剧情偏好上；xgs</t>
-  </si>
-  <si>
-    <t>三国志3</t>
-  </si>
-  <si>
-    <t>4X</t>
-  </si>
-  <si>
-    <t>+1；小时候第一次感受到什么叫废寝忘食。慢慢地蚕食拓张土地，培养武将，让我体验到了4x游戏最原始的快乐；xgs</t>
-  </si>
-  <si>
-    <t>长评目录</t>
-  </si>
-  <si>
-    <t>赛博朋克2077</t>
-  </si>
-  <si>
-    <t>xxd；xgs；emiya</t>
-  </si>
-  <si>
-    <t>异度之刃1&amp;2</t>
-  </si>
-  <si>
-    <t>17；ie</t>
-  </si>
-  <si>
-    <t>仁王2</t>
-  </si>
-  <si>
-    <t>bjzx</t>
-  </si>
-  <si>
-    <t>极乐迪斯科</t>
-  </si>
-  <si>
-    <t>emiya</t>
-  </si>
-  <si>
-    <t>只狼：影逝二度</t>
-  </si>
-  <si>
-    <t>ie</t>
-  </si>
-  <si>
-    <t>战场女武神4</t>
-  </si>
-  <si>
-    <t>xgs</t>
-  </si>
-  <si>
-    <t>仁王</t>
-  </si>
-  <si>
-    <t>看门狗：自由军团</t>
-  </si>
-  <si>
-    <t>db；xxd</t>
-  </si>
-  <si>
-    <t>最终幻想VII</t>
-  </si>
-  <si>
-    <t>bjzx；ie</t>
-  </si>
-  <si>
-    <t>女神异闻录5 皇家版</t>
-  </si>
-  <si>
-    <t>莱莎的炼金工房 ～常暗女王与秘密藏身处～</t>
-  </si>
-  <si>
-    <t>17；db</t>
-  </si>
-  <si>
-    <t>皇牌空战7：未知空域</t>
-  </si>
-  <si>
-    <t>xxd；17</t>
-  </si>
-  <si>
-    <t>绝地求生：大逃杀</t>
-  </si>
-  <si>
-    <t>泰坦天降2</t>
-  </si>
-  <si>
-    <t>xxd</t>
-  </si>
-  <si>
-    <t>对马岛之魂</t>
-  </si>
-  <si>
-    <t>bjzx；xxd</t>
-  </si>
-  <si>
-    <t>十三机兵防卫圈</t>
-  </si>
-  <si>
-    <t>幻影异闻录♯FE Encore</t>
-  </si>
-  <si>
-    <t>控制</t>
-  </si>
-  <si>
-    <t>战神</t>
-  </si>
-  <si>
-    <t>塞尔达传说：旷野之息</t>
-  </si>
-  <si>
-    <t>17；ie；xgs</t>
-  </si>
-  <si>
-    <t>黑暗之魂2：原罪学者</t>
-  </si>
-  <si>
-    <t>dash</t>
-  </si>
-  <si>
-    <t>血源诅咒</t>
-  </si>
-  <si>
-    <t>龙之信条：黑暗觉者</t>
-  </si>
-  <si>
-    <t>黑暗之魂</t>
-  </si>
-  <si>
-    <t>贼罗比</t>
-  </si>
-  <si>
-    <t>kk</t>
-  </si>
-  <si>
-    <t>最终幻想XV</t>
-  </si>
-  <si>
-    <t>db</t>
-  </si>
-  <si>
-    <t>诺斯</t>
-  </si>
-  <si>
-    <t>db；xxd；zzr</t>
-  </si>
-  <si>
-    <t>龙</t>
-  </si>
-  <si>
-    <t>糖豆人：终极淘汰赛</t>
-  </si>
-  <si>
-    <t>集合啦！动物森友会</t>
-  </si>
-  <si>
-    <t>宝可梦：剑 / 盾</t>
-  </si>
-  <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>不错的购物体验，女朋友很喜欢.jpg</t>
-  </si>
-  <si>
-    <t>鲷鱼</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>这就是个手游</t>
-  </si>
-  <si>
-    <t>bp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  近三年内最让人失望的宝可梦作品；不同于日月在宣传期内就昭告天下“我是个一般货色”，剑盾用历代最佳级别的人设和音乐，以及精心剪辑的宣传片将玩家的期待拉起，再用灾难一样的项目管理与完成度甩你一个大耳光，告诉你我gf还是那个gf。
-  日月是一部低开低走的作品，而剑盾可以说是低开屎走，八个道馆有四个勉强可以说是release版本，剩下的里面两个是beta版本，最后两个道馆开始到二周目结束的完成度仿佛回到了2017年E3时候石原说出“我们在做了”这句话的时候；游戏富力克的外包大概是跟剑盾策划和PM的马一起绝种了才能在2019年掏出这么一个图鉴太监，道馆一本道，城镇无人深空，过场ppt制作，剧情致敬国家队的电子垃圾。
-  刨开以上缺点，剑盾在收集-交换-培育-对战的系统层面做得差强人意，但是阉割的图鉴与临时工对战塔使整体效果上又打了一个折扣；新增的旷野地带算是一个设计上的闪光点，虽然在具体呈现的可玩性方面仍有很大不足，并且带来了层出不穷的bug，但是仍旧是这世代唯一真正向前迈进的一步。</t>
-  </si>
-  <si>
-    <t>能不能制裁一下这个鲷鱼</t>
-  </si>
-  <si>
-    <t>锤</t>
-  </si>
-  <si>
-    <t>bp说得对</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>前面说手游的懂个p的手游</t>
-  </si>
-  <si>
-    <t>我喜欢这个游戏，很喜欢，很喜欢岛民每天和我打招呼，很喜欢和群友一起卖萝卜，很喜欢在联机的时候打字骂群友，所以我要辱骂任天堂，为什么把交互和联机做的如此垃圾，但凡考虑一下用户体验，都做不出这种上岛逻辑，一天到晚黑屏真的不是什么好设计。前面说什么手游，手游都没这么垃圾。</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>有人帮我打一下一心吗？</t>
-  </si>
-  <si>
-    <t>nnxj</t>
-  </si>
-  <si>
-    <t>无主之地3</t>
-  </si>
-  <si>
-    <t>如果你唱seaside vacation我们就是朋友.jpg</t>
-  </si>
-  <si>
-    <t>唯一的缺点就是队友经常放鸽子（</t>
-  </si>
-  <si>
-    <t>茶杯头</t>
-  </si>
-  <si>
-    <t>崩坏篇2-10这关seaside vacation响起那一刻，我脑中浮现了阿姆罗推卫星、煌大和的苍天之剑和五彩大炮，这一刻我是阿尔法，也是欧米伽。bb在发售前因为我不接受这价格骂我，在这里说声对不起：这游戏再加一百我都会买。</t>
-  </si>
-  <si>
-    <t>唯一的缺点就是队友经常放鸽子+1</t>
-  </si>
-  <si>
-    <t>跟朋友一起玩可能会更好玩一些</t>
-  </si>
-  <si>
-    <t>swz</t>
-  </si>
-  <si>
-    <t>原本我有朋友的，一起玩了之后没朋友了，现在我一个人玩</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>健身环大冒险</t>
-  </si>
-  <si>
-    <t>怪物猎人：世界</t>
-  </si>
-  <si>
-    <t>理财游戏，赚了</t>
-  </si>
-  <si>
-    <t>gero</t>
-  </si>
-  <si>
-    <t>女神异闻录5：星夜热舞</t>
-  </si>
-  <si>
-    <t>年轻人的第一款怪猎，是兄弟就看我空超解</t>
-  </si>
-  <si>
-    <t>我好了，什么这是个音游</t>
-  </si>
-  <si>
-    <t>学姐可以再表演一次那个吗</t>
-  </si>
-  <si>
-    <t>地狱之刃：塞娜的献祭</t>
-  </si>
-  <si>
-    <t>这解谜真的很好么？我整个人都阴间了</t>
-  </si>
-  <si>
-    <t>初音未来：歌姬计划 Future Tone</t>
-  </si>
-  <si>
-    <t>女神异闻录5</t>
-  </si>
-  <si>
-    <t>不要听学姐的话，他是个胆小鬼，玩不来恐怖游戏的</t>
-  </si>
-  <si>
-    <t>我真的是来玩音游的</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>云过一遍知道结局的情况下，自己度过的那两个学期，仍然成为了我自己的不可替代的回忆。游戏就是替你过过不了的生活，P5难道不是完美诠释了这一点吗？</t>
-  </si>
-  <si>
-    <t>我也是来打音游的，年轻人的第一款音游，真的</t>
-  </si>
-  <si>
-    <t>巫师3：狂猎</t>
-  </si>
-  <si>
-    <t>我是来看老婆的</t>
-  </si>
-  <si>
-    <t>sword</t>
-  </si>
-  <si>
-    <t>crone正在昆特牌中搏杀！</t>
-  </si>
-  <si>
-    <t>总评人数</t>
-  </si>
-  <si>
-    <t>好评人数</t>
-  </si>
-  <si>
-    <t>三角战略</t>
-  </si>
-  <si>
-    <t>SRPG</t>
-  </si>
-  <si>
-    <t>艾尔登法环</t>
-  </si>
-  <si>
-    <t>ARPG / 类魂</t>
-  </si>
-  <si>
-    <t>宝可梦传说：阿尔宙斯</t>
-  </si>
-  <si>
-    <t>宝可梦</t>
-  </si>
-  <si>
-    <t>精灵宝可梦 晶灿钻石 / 闪亮珍珠</t>
-  </si>
-  <si>
-    <t>真女神转生5</t>
   </si>
   <si>
     <t>极限竞速：地平线5</t>
@@ -533,6 +219,9 @@
   </si>
   <si>
     <t>Humankind</t>
+  </si>
+  <si>
+    <t>4X</t>
   </si>
   <si>
     <t>-1；4X界2077；17</t>
@@ -774,6 +463,9 @@
 配乐很有电影味，过场动画也是，最后一关火车关，我一边杀人一边脑补电影画面，感觉很suang哦；xxd</t>
   </si>
   <si>
+    <t>赛博朋克2077</t>
+  </si>
+  <si>
     <t>RPG / 赛博朋克</t>
   </si>
   <si>
@@ -967,6 +659,9 @@
     <t>+1；剧情很神秘，但是还是让人忍不住打下去。但是重制得很垃圾，过场动画都是原汁原味比例4：3还糊得不行，魔人战设计属实迷惑，强制要求刷级；swz</t>
   </si>
   <si>
+    <t>看门狗：自由军团</t>
+  </si>
+  <si>
     <t>赛博朋克 / 潜行 / 开放世界</t>
   </si>
   <si>
@@ -1150,6 +845,9 @@
     <t>+1；完成度极高的像素解谜游戏，在创意，谜题，内涵上都有上佳表现，缺点给米亚说了就不重复了，中间有一章讽刺氪金手游的关卡十分精妙，值得一试；贼罗比</t>
   </si>
   <si>
+    <t>糖豆人：终极淘汰赛</t>
+  </si>
+  <si>
     <t>休闲</t>
   </si>
   <si>
@@ -1166,6 +864,9 @@
   </si>
   <si>
     <t>+1；吃瓜游戏，一段时间专教众乐乐源泉。事实证明云有云的乐趣；三水</t>
+  </si>
+  <si>
+    <t>对马岛之魂</t>
   </si>
   <si>
     <t>ARPG / 育碧式开放世界 / 独特美术</t>
@@ -1464,6 +1165,9 @@
     <t>+1；战斗体验爽快而不无脑，设计了较低的血量、护甲和弹药，鼓励玩家去用各种道具回血、回甲和回弹药，使得资源管理也成了战斗中的乐趣。相比优秀的战斗体验，解谜要素可能比较遗憾，初见解谜难度真有点高了，战斗的时候很紧张刺激，解谜让我很烦躁，整体关卡节奏就很怪了。总体上还是goodgame锕；xxd</t>
   </si>
   <si>
+    <t>集合啦！动物森友会</t>
+  </si>
+  <si>
     <t>养成</t>
   </si>
   <si>
@@ -1498,6 +1202,9 @@
   </si>
   <si>
     <t>-1；我喜欢这个游戏，很喜欢，很喜欢岛民每天和我打招呼，很喜欢和群友一起卖萝卜，很喜欢在联机的时候打字骂群友，所以我要辱骂任天堂，为什么把交互和联机做的如此垃圾，但凡考虑一下用户体验，都做不出这种上岛逻辑，一天到晚黑屏真的不是什么好设计。前面说什么手游，手游都没这么垃圾；emiya</t>
+  </si>
+  <si>
+    <t>十三机兵防卫圈</t>
   </si>
   <si>
     <t>文字冒险 / 策略</t>
@@ -1558,6 +1265,9 @@
   </si>
   <si>
     <t>+1；年轻人的第一款文字avg；ygg</t>
+  </si>
+  <si>
+    <t>仁王2</t>
   </si>
   <si>
     <t>+1；原有的99武器变身系统更改为妖鬼化变身系统、一代99武器是按自身所用的兵器来进行不同的攻击方式，而仁王2的妖鬼化状态是根据凭附的守护灵属性区分的，分为猛迅幻三种。
@@ -1597,6 +1307,9 @@
     <t>+1；其实在玩ori2之前，我还蛮害怕是不是要买个手柄，毕竟银之树再来一次我肯定不用键盘跳，事实是我想多了，这作的ori就和开上了高达一样，二段跳爬墙弹射样样精通。也正是这个原因，这作也就没有银之树那么让人印象深刻的关卡。不过美术风格和音乐等等要素，也不知道是不是因为彻底傍上了微软，比起一代更加精致，场景也加入了景深，动态等等要素。至于战斗系统说是空洞的复制品，我只想说加大力度，可惜build啊，手感啊这些细节还是有待加强；emiya</t>
   </si>
   <si>
+    <t>女神异闻录5 皇家版</t>
+  </si>
+  <si>
     <t>+1；冷饭新吃，炒的尚可，新角略路人；bjzx</t>
   </si>
   <si>
@@ -1650,6 +1363,9 @@
   </si>
   <si>
     <t>+1；业界最强三渲二，你值得拥有；贼罗比</t>
+  </si>
+  <si>
+    <t>幻影异闻录♯FE Encore</t>
   </si>
   <si>
     <t>-1；垃圾游戏，所有的主线剧情都不及格，俗套且毫无亮点,整体人物对话突兀又着急，节奏差到无法描述 ，剧情演出=0，全员站桩嘴炮。
@@ -1722,6 +1438,9 @@
     <t>+1；星战粉狂欢，可惜我不是星战粉；剧情本质公路片，内容不多，还要走回头路，shorter than Yoda；在卢卡斯写死的主线上机智地做了拓展，卡尔非常讨人喜欢，再次证明了主线是星战最菜的部分；地图和关卡很有趣，不愧是《战神》制作者操刀；战斗学只狼，但是比只狼差很远，原力花样倒是挺多，可惜boss就三个半；结尾能跟爵爷过两招就值了，爵爷都没血条啊卧槽；本子</t>
   </si>
   <si>
+    <t>宝可梦：剑 / 盾</t>
+  </si>
+  <si>
     <t>+1；非常合格的宝可梦入坑作，玩过前作才知道剑盾培育宝可梦有多舒服。对战系统极具深度而且表现力相当强，但平衡性不够好，冷门宝可梦要上场对队伍构筑和操作要求相当高。剧情聊胜于无，能不能删掉别妨碍我收服宝可梦 ；db</t>
   </si>
   <si>
@@ -1806,6 +1525,9 @@
     <t>-1；游戏的枪感是无敌的，开枪的音效和晃动都是同时期无法被比拟的巅峰；但是我不允许IW打着现代战争的旗号，把这个著名IP的剧情故事讲成了一坨shi，它不仅zz上令人反感，而且剧情上蠢出了新高度；把这个军队大场面+特种兵小场面的经典系列做成了一坨；ygg</t>
   </si>
   <si>
+    <t>健身环大冒险</t>
+  </si>
+  <si>
     <t>体感 / RPG</t>
   </si>
   <si>
@@ -1824,6 +1546,9 @@
     <t>+1；有意思的是，越是老游戏玩家，我觉得锻炼效果会越好。因为你会贪那些收集品，然后就莫名其妙锻炼到了。很傻但很有趣；ie</t>
   </si>
   <si>
+    <t>极乐迪斯科</t>
+  </si>
+  <si>
     <t>CRPG / 文字解谜</t>
   </si>
   <si>
@@ -1852,6 +1577,9 @@
   </si>
   <si>
     <t>-1；关卡充满了魂的既视感，虽然做到了循序渐进，可惜镜头控制和角色操作的设计水平没有跟上它自己的地图水平。走完白血教堂不得不感慨十年过去了依旧没有超越魂1关卡的游戏出现；17</t>
+  </si>
+  <si>
+    <t>莱莎的炼金工房 ～常暗女王与秘密藏身处～</t>
   </si>
   <si>
     <t>+1；人人都能感受到炼金快乐的一代，推荐萌豚都玩一下，炼金真的很快乐；老王</t>
@@ -1916,6 +1644,9 @@
     <t>-1；NS版本游戏体验只能打负分，剧情与叙事我只能认为是中上水平，某些故事线的悬念与诡计受到很突兀的偶像舞蹈冲击，节奏在我看来相当奇怪；17</t>
   </si>
   <si>
+    <t>无主之地3</t>
+  </si>
+  <si>
     <t>动作射击 / Looting</t>
   </si>
   <si>
@@ -1974,6 +1705,9 @@
   </si>
   <si>
     <t>+1；如果说这是二次元动作游戏的小品作，那这真的是标杆型的一作；ygg</t>
+  </si>
+  <si>
+    <t>控制</t>
   </si>
   <si>
     <t>RPG / 独特美术 / 怪奇</t>
@@ -2102,6 +1836,9 @@
   </si>
   <si>
     <t>+1；入门之后才意识到这游戏太牛逼了。航运、贸易、生产、战斗相当紧密地联系在一起。继承了anno一贯的“生产线恰好足够”风格，在好几张图里精细地调整产业分布和物流运输相当有深度——如果不用邪道的话。可惜系统真的很庞大，不对着wiki估算的供需数据公司可能7小时就倒闭了吧；17</t>
+  </si>
+  <si>
+    <t>只狼：影逝二度</t>
   </si>
   <si>
     <t>ACT / RPG</t>
@@ -2376,6 +2113,9 @@
     <t>+1；虽然看不懂剧情，但是有二次元，而且好玩；bjzx</t>
   </si>
   <si>
+    <t>皇牌空战7：未知空域</t>
+  </si>
+  <si>
     <t>空战射击</t>
   </si>
   <si>
@@ -2610,6 +2350,9 @@
   </si>
   <si>
     <t>+1；非常有意思的设定，虚拟现实双线叙事很有趣，再加上一点轮回要素，战斗系统抛开数值设定也还有些新意，这可能是我玩过地雷社最好的游戏了；老王</t>
+  </si>
+  <si>
+    <t>女神异闻录5：星夜热舞</t>
   </si>
   <si>
     <t>音游 / IP衍生</t>
@@ -2663,6 +2406,9 @@
 我想媒介都是以 storyteller 的形式存在的，媒介的更新只不过意味着我们有了更加先进的讲故事方式了。人在选择媒介的同时，媒介也在选择人。显然，文学作品对读者的要求最高，而游戏相对而言则是较低了。文学的发展数千年，电影的发展百来年，而游戏发展不过几十年，它只是个新人。诚然，《底特律》的剧情老套，对政治、社会的描写失实，但这仍然抹杀不了它出色的沉浸感体验。仿生人会梦见电子羊吗？这是 P.K.D. 在上个世纪探讨共情时的发问。而云玩家会梦见电子羊吗？我不清楚。但我能说的就是，一款值得去深入体验的游戏，云游是可惜的；龙</t>
   </si>
   <si>
+    <t>战神</t>
+  </si>
+  <si>
     <t>+1；除了一镜到底的执念在载入阶段造成繁琐的体验，整体流程良好，打败大表哥2是有点出乎意料，但是我喜欢；17</t>
   </si>
   <si>
@@ -2721,6 +2467,9 @@
   </si>
   <si>
     <t>-1；这个游戏最大的优点就是，乡村风格的音乐真好听；ygg</t>
+  </si>
+  <si>
+    <t>战场女武神4</t>
   </si>
   <si>
     <t>-1；我很想给个好评。我原本抱了非常大的期待，知道要出PC版我既没买PS4版也没看任何剧透一直忍着假装他还没发售，但是我终于还是被恶心到了，这就是一个垃圾游戏，无慈悲。
@@ -2787,6 +2536,9 @@
     <t>+1；独自一人高举宝剑策马向着光柱指向的远方飞驰时，我明白了什么是冒险；独寻者</t>
   </si>
   <si>
+    <t>怪物猎人：世界</t>
+  </si>
+  <si>
     <t>ACT / 多人联机</t>
   </si>
   <si>
@@ -2830,6 +2582,9 @@
   </si>
   <si>
     <t>+1；说得大一点，让我重拾对平台跳跃整个门类游戏兴趣和信心的游戏。关卡、音乐、手感、剧情，融合起来就是极强的代入感，再辅以极低的死亡惩罚，它在告诉你，努力下去，你会看到山顶的风景的；ie</t>
+  </si>
+  <si>
+    <t>绝地求生：大逃杀</t>
   </si>
   <si>
     <t>射击 / BR</t>
@@ -2911,6 +2666,9 @@
 我觉得我并不喜欢平台跳跃类的游戏，甚至有点讨厌。但这个游戏确实和马里奥一样，使我感觉“在里面跑跑跳跳已经很有趣了”，主线都没怎么推，就开始在第一张地图里面跳来跳去做收集，真的很快乐。Steam 很多评测将之比作 PC 平台的奥德赛，可见其实力；xgs</t>
   </si>
   <si>
+    <t>茶杯头</t>
+  </si>
+  <si>
     <t>平台动作 / 射击</t>
   </si>
   <si>
@@ -2962,6 +2720,9 @@
     <t>+1；除了风景稍微单调了点（因为只在一个地方），属于神海这个系列中没有缺点的一作了；ie</t>
   </si>
   <si>
+    <t>地狱之刃：塞娜的献祭</t>
+  </si>
+  <si>
     <t>-1；这解谜真的很好么？我整个人都阴间了；17</t>
   </si>
   <si>
@@ -3070,6 +2831,9 @@
     <t>+1；重制得很用心，掌机上能刷很久，不过可能也正因如此削减了很多策略性；17</t>
   </si>
   <si>
+    <t>女神异闻录5</t>
+  </si>
+  <si>
     <t>中文版发售</t>
   </si>
   <si>
@@ -3116,6 +2880,9 @@
   </si>
   <si>
     <t>+1；排雷！！！如果你不喜欢这个故事，你就不会喜欢这个游戏。前面已经讲了太多优点，就不赘述了，但是如果关键的高中生在表里世界拯救世界故事打动不了你的话，这个游戏就不适合你了；kk</t>
+  </si>
+  <si>
+    <t>塞尔达传说：旷野之息</t>
   </si>
   <si>
     <t>开放世界 / 探索</t>
@@ -3253,6 +3020,9 @@
   </si>
   <si>
     <t>+1；在无意义中寻找意义的故事。尼尔再次问出了那个问题，无限的循环中能诞生些什么呢？那就不由得同样身为存在主义信徒的我对这个作品顶礼膜拜了。从感情上来说，用尽全力想要抓住些什么，却似乎永远抓不住的身影，永远能让我感动。Meta和元气弹同样是我很喜欢，甚至百尝不腻的花活。仔细想想可能确实没有哪个游戏有尼尔赚我的眼泪更多了；ie</t>
+  </si>
+  <si>
+    <t>仁王</t>
   </si>
   <si>
     <t>+1；如果你觉得魂血源有些呆滞，鬼泣又太快，那为什么不来试试仁王呢？最好的那一档的动作系统；swz</t>
@@ -3285,6 +3055,9 @@
 ；17</t>
   </si>
   <si>
+    <t>最终幻想XV</t>
+  </si>
+  <si>
     <t>-1 ； 对于FFXV这款游戏，我怀抱着非常复杂的情感。
 在通关一年多以后，我带着对系列世界观更深入的认识重新细细品味了这款游戏，但最后我还是不能给它一个正面的评价。在我看来，FFXV是代表着世界顶尖游戏工业水准却又掩不住一股日系游戏特有的小家子气的别扭的缝合物；是很多方面好坏参半但非要把自己的劣势无限放大给玩家的拙劣演出；是有着宏大规划，却眼高手低，搞到最后金玉（电影、动漫、小说等周边）其外，败絮（游戏本身）其中的笑话。
 我最初听到的关于FFXV的评价多半着眼于其风评并不好的剧情，我初次通关之后也觉得整个剧情比较莫名奇妙。后来我读了一些关于系列世界观的梳理，又在偶然中读了替代被砍掉的DLC出版的小说《未来黎明》之后，我对整个故事才有了个全新的认识。并不是整个的剧情不好，而是游戏本身呈现得无头无尾、信息杂乱、发展突兀。以至于有人戏称“游戏开局是什么？看电影；结局是什么？看小说”。在品味JRPG的剧情是，我通常会先全盘接受游戏世界观的一些基础设定，然后主动降智，不过于追究事情发生的合理性，而是更着眼于人物自身成长和人际关系发展；另外就是顺着剧情展开看我能不能与主角（团）产生共情、能不能被JRPG通常具有的中二气息感染，而难以自拔地想要迅速通关了解结局。而在FFXV这里，它有一个非常完备的世界观，深入了解会发现有不少值得深究的东西，但游戏里却很少提及，很多信息都散布在晦涩的收集品甚至DLC收集品里，以至于在通主线的时候没有一些相关了解会觉得莫名其妙。游戏里的人物也是都形象鲜明，主角、配角和反派的个人经历、相互之间的羁绊和纠葛都令人动容，很容易让人体会到其情感起伏，但游戏里不提这些，或把事件零碎地散布在游戏里。像是故事起源的亚丹身世在游戏本体就最后提了一句，更多的信息在亚丹DLC、小说里；露娜芙蕾雅作为女主角，仅在游戏中诺克提斯的幼年回忆中出现几分钟，更多的戏份在电影、小说里；诺克提斯游戏一开始就肩负着”天选之王“的职责，但只有载入画面的小提示提了这点，没有其他描述六神是什么时候、怎样把救世的使命托付给诺克提斯的；主角团的古拉迪奥拉斯、伊格尼斯和普隆普托都是王子挚友，但他们如何成为挚友的情节却在动漫里面，游戏里只有宿营时随机触发的几处事件来体现，而他们各自的高光时刻也都在个人的DLC里；其他诸如科尔将军、伊莉丝、阿拉尼娅这些配角的出场和相关事件也显得突兀或者牵强。系列的剧情其实本来还行，有一条“天选之王”（诺克提斯）驱逐“伪王”（亚丹）”拯救“世界的明线和一条天选之王（亚丹）和伪王（诺克提斯）放下仇恨、合力驱逐“伪神”（巴哈姆特）拯救世界的暗线，体现了人不畏强权反抗命运的精神。但游戏里只保留了明线，玩家只能看到诺克提斯国破家亡之后四处奔波，被巴哈姆特一番洗脑之后成为他的工具人，牺牲自己，履行所谓的“预言”。这样下来，游戏剧情不仅被删得短小单薄，立意上也逊色了一分。总的来说，FFXV尽管有着远超其他JRPG的宏大精美的CG演出，但游戏剧情设置上的硬伤不但不易让玩家产生共情、代入角色，反而在仓促的剧情发展中让玩家产生很多疑惑。
@@ -3372,6 +3145,9 @@
     <t>+1；如果要给《血与酒》打负分，那只可能是因为不能透女公爵；17</t>
   </si>
   <si>
+    <t>泰坦天降2</t>
+  </si>
+  <si>
     <t>+1；单人战役天花板，我在这游戏的一些关卡设计上感受到了马里奥1-1那种精妙感，尤其是时间腕带这玩意，只要玩了就懂这玩意多tm绝，腕表过通风管道那几秒钟是我16年最震撼的几秒钟。
 多人对战我个人非常非常喜欢，其他fps游戏想玩的好，最重要的就是枪法。而ttf2中，想成为高手，你可以靠枪法，也可以靠对跳跃系统的理解，对地图、角色技能的理解，以及对泰坦战的理解，玩家需要学习的技术内容很多，但是除了枪法以外的其他要素是很容易学习的，每一场战斗后我都能感受到自己游戏技术的成长，被大佬杀害后我通过看回放就能提升技术水平。而技术提升的反馈也是实打实的，在ttf2一个高手是完全可以carry一整局比赛的。尽管如此，对于大部分普通玩家来说，ttf2的pvp还是太劝退了，萌新面对大佬的体验和遇到外挂没什么两样，对新手很不友好。另外要夸一下这游戏的处决动作，真的酷毙了，谁不爱用浪人处决别的泰坦呢；xxd</t>
   </si>
@@ -3433,6 +3209,9 @@
     <t>-1；谜题模仿二代太严重，叙述性诡计太拉胯，3D建模真没必要，西格玛戴安娜贴贴；M</t>
   </si>
   <si>
+    <t>初音未来：歌姬计划 Future Tone</t>
+  </si>
+  <si>
     <t>但群友玩的都是此后发售的全曲包ftdx</t>
   </si>
   <si>
@@ -3565,6 +3344,9 @@
     <t>星际争霸2：虚空之遗</t>
   </si>
   <si>
+    <t>RTS</t>
+  </si>
+  <si>
     <t>+1；这个游戏承载了太多回忆，以至于难以概括，战役、对战、合作模式、游戏大厅……发生了多少难以忘怀的事。SC2是最好的RTS游戏，或许也是RTS的绝唱，这个类型总不乏后起之秀，可是万人喝彩的盛会终究一去不复返了。也许多年之后，技术再次飞跃，RTS会再度崛起，Koprulu的故事再次上演，就像终幕雷诺所言：“来吧，好戏开场了。”；本子</t>
   </si>
   <si>
@@ -3643,6 +3425,9 @@
     <t>+1；M说的对，还有陪审团看的我想打人，怎么会有这么蠢的人；sword</t>
   </si>
   <si>
+    <t>巫师3：狂猎</t>
+  </si>
+  <si>
     <t>+1；叙事很出彩，系统设计一般，战斗及格；xxd</t>
   </si>
   <si>
@@ -3686,6 +3471,9 @@
   </si>
   <si>
     <t>+1；宰人计划启动；三水</t>
+  </si>
+  <si>
+    <t>黑暗之魂2：原罪学者</t>
   </si>
   <si>
     <t>最终发行版本</t>
@@ -3706,6 +3494,9 @@
     <t>-1；堆怪、堆地图手感还难受，量是没话说，但体验真不行，坚持着通关后完全没有探索背后故事的欲望了；独寻者</t>
   </si>
   <si>
+    <t>血源诅咒</t>
+  </si>
+  <si>
     <t>ARPG / 恐怖氛围</t>
   </si>
   <si>
@@ -3751,6 +3542,240 @@
   </si>
   <si>
     <t>+1；动作系统与正统鬼泣差别很大，但依然有着完全不亚于正统作的爽快感与流畅性。下限更低（初始难度明显下降，极易上手），上限依旧十分鬼泣（多个可选高难度以及各种自虐游戏模式），地图和场景很有观赏性。天使恶魔风格使武器更换更加即时顺畅，故事上相比多部拼接的正传更加完整（虽然有褒有贬）。决定版相比原版改动了很多内容（包括手动锁定回归）同时直接自带维吉尔DLC——虽然鬼泣系列原版发售过段时间再出决定版/特别版是惯用冷饭操作了，但DmC决定版必定是鬼泣系列改动最良心的XX版，DLC的新剧情新地图也非常优秀。；诺斯</t>
+  </si>
+  <si>
+    <t>编辑规则</t>
+  </si>
+  <si>
+    <t>因为太多人格式不对了，所以请在去第二页工作簿编辑内容之前看一下规则说明</t>
+  </si>
+  <si>
+    <t>希望你给出的是感想而不是评价。这个游戏给你带来的爱恨体验，哪一个是让你最想表达的？你最喜欢的场景，印象最深的剧情，只留在自己的脑海中是很可惜的。
+文无第一，请在这里放下客观公正的执念。我希望那个不存在的零分表示的是庸作，而不是好坏参半。</t>
+  </si>
+  <si>
+    <t>高亮请使用填充颜色，绿色取从下往上数第三个绿色。</t>
+  </si>
+  <si>
+    <t>3. 请按：[评分]；[感想]；[id] 这样的格式写出感想</t>
+  </si>
+  <si>
+    <t>也许以后可以做个统计。请不要用英文分号！</t>
+  </si>
+  <si>
+    <t>4. 游戏列表并不全，你觉得有需要就自行添加</t>
+  </si>
+  <si>
+    <t>添加新游戏请按发售日加入，不要打乱原来的顺序。一般以首发平台的中文版作为发售日，如有例外请在备注注明。Early Access阶段的游戏在添加时请在备注中注明“EA”。</t>
+  </si>
+  <si>
+    <t>5. DLC条目按 [游戏名] - [DLC名] 命名，类型固定写作DLC</t>
+  </si>
+  <si>
+    <t>只有大型DLC才可以作为单独的条目，简而言之，得有充足的内容。如巫师的血与酒，怪猎的冰原。</t>
+  </si>
+  <si>
+    <t>6. TAG并不是指代游戏类型，而是游戏的特色</t>
+  </si>
+  <si>
+    <t>这一栏是游戏的标签，希望是用几个短语能概括这个游戏出众的地方，或者说，卖点。每个短语之间用 / 隔开，请注意空格。</t>
+  </si>
+  <si>
+    <t>7. 相关条目统一写作“重制”</t>
+  </si>
+  <si>
+    <t>Remaster，Remake等等，我知道他们有区别，但是请不要区分重制和重置。真正Remake的作品，知名度足够让它与remaster分开。</t>
+  </si>
+  <si>
+    <t>长评目录</t>
+  </si>
+  <si>
+    <t>xxd；xgs；emiya</t>
+  </si>
+  <si>
+    <t>异度之刃1&amp;2</t>
+  </si>
+  <si>
+    <t>17；ie</t>
+  </si>
+  <si>
+    <t>bjzx</t>
+  </si>
+  <si>
+    <t>emiya</t>
+  </si>
+  <si>
+    <t>ie</t>
+  </si>
+  <si>
+    <t>xgs</t>
+  </si>
+  <si>
+    <t>db；xxd</t>
+  </si>
+  <si>
+    <t>最终幻想VII</t>
+  </si>
+  <si>
+    <t>bjzx；ie</t>
+  </si>
+  <si>
+    <t>17；db</t>
+  </si>
+  <si>
+    <t>xxd；17</t>
+  </si>
+  <si>
+    <t>xxd</t>
+  </si>
+  <si>
+    <t>bjzx；xxd</t>
+  </si>
+  <si>
+    <t>17；ie；xgs</t>
+  </si>
+  <si>
+    <t>dash</t>
+  </si>
+  <si>
+    <t>龙之信条：黑暗觉者</t>
+  </si>
+  <si>
+    <t>黑暗之魂</t>
+  </si>
+  <si>
+    <t>贼罗比</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>诺斯</t>
+  </si>
+  <si>
+    <t>db；xxd；zzr</t>
+  </si>
+  <si>
+    <t>龙</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>不错的购物体验，女朋友很喜欢.jpg</t>
+  </si>
+  <si>
+    <t>鲷鱼</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>这就是个手游</t>
+  </si>
+  <si>
+    <t>bp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  近三年内最让人失望的宝可梦作品；不同于日月在宣传期内就昭告天下“我是个一般货色”，剑盾用历代最佳级别的人设和音乐，以及精心剪辑的宣传片将玩家的期待拉起，再用灾难一样的项目管理与完成度甩你一个大耳光，告诉你我gf还是那个gf。
+  日月是一部低开低走的作品，而剑盾可以说是低开屎走，八个道馆有四个勉强可以说是release版本，剩下的里面两个是beta版本，最后两个道馆开始到二周目结束的完成度仿佛回到了2017年E3时候石原说出“我们在做了”这句话的时候；游戏富力克的外包大概是跟剑盾策划和PM的马一起绝种了才能在2019年掏出这么一个图鉴太监，道馆一本道，城镇无人深空，过场ppt制作，剧情致敬国家队的电子垃圾。
+  刨开以上缺点，剑盾在收集-交换-培育-对战的系统层面做得差强人意，但是阉割的图鉴与临时工对战塔使整体效果上又打了一个折扣；新增的旷野地带算是一个设计上的闪光点，虽然在具体呈现的可玩性方面仍有很大不足，并且带来了层出不穷的bug，但是仍旧是这世代唯一真正向前迈进的一步。</t>
+  </si>
+  <si>
+    <t>能不能制裁一下这个鲷鱼</t>
+  </si>
+  <si>
+    <t>锤</t>
+  </si>
+  <si>
+    <t>bp说得对</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>前面说手游的懂个p的手游</t>
+  </si>
+  <si>
+    <t>我喜欢这个游戏，很喜欢，很喜欢岛民每天和我打招呼，很喜欢和群友一起卖萝卜，很喜欢在联机的时候打字骂群友，所以我要辱骂任天堂，为什么把交互和联机做的如此垃圾，但凡考虑一下用户体验，都做不出这种上岛逻辑，一天到晚黑屏真的不是什么好设计。前面说什么手游，手游都没这么垃圾。</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>有人帮我打一下一心吗？</t>
+  </si>
+  <si>
+    <t>nnxj</t>
+  </si>
+  <si>
+    <t>如果你唱seaside vacation我们就是朋友.jpg</t>
+  </si>
+  <si>
+    <t>唯一的缺点就是队友经常放鸽子（</t>
+  </si>
+  <si>
+    <t>崩坏篇2-10这关seaside vacation响起那一刻，我脑中浮现了阿姆罗推卫星、煌大和的苍天之剑和五彩大炮，这一刻我是阿尔法，也是欧米伽。bb在发售前因为我不接受这价格骂我，在这里说声对不起：这游戏再加一百我都会买。</t>
+  </si>
+  <si>
+    <t>唯一的缺点就是队友经常放鸽子+1</t>
+  </si>
+  <si>
+    <t>跟朋友一起玩可能会更好玩一些</t>
+  </si>
+  <si>
+    <t>swz</t>
+  </si>
+  <si>
+    <t>原本我有朋友的，一起玩了之后没朋友了，现在我一个人玩</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>理财游戏，赚了</t>
+  </si>
+  <si>
+    <t>gero</t>
+  </si>
+  <si>
+    <t>年轻人的第一款怪猎，是兄弟就看我空超解</t>
+  </si>
+  <si>
+    <t>我好了，什么这是个音游</t>
+  </si>
+  <si>
+    <t>学姐可以再表演一次那个吗</t>
+  </si>
+  <si>
+    <t>这解谜真的很好么？我整个人都阴间了</t>
+  </si>
+  <si>
+    <t>不要听学姐的话，他是个胆小鬼，玩不来恐怖游戏的</t>
+  </si>
+  <si>
+    <t>我真的是来玩音游的</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>云过一遍知道结局的情况下，自己度过的那两个学期，仍然成为了我自己的不可替代的回忆。游戏就是替你过过不了的生活，P5难道不是完美诠释了这一点吗？</t>
+  </si>
+  <si>
+    <t>我也是来打音游的，年轻人的第一款音游，真的</t>
+  </si>
+  <si>
+    <t>我是来看老婆的</t>
+  </si>
+  <si>
+    <t>sword</t>
+  </si>
+  <si>
+    <t>crone正在昆特牌中搏杀！</t>
   </si>
   <si>
     <t>CHAOS；CHILD</t>
@@ -4107,47 +4132,22 @@
     <t>+1；玩的第一个FPS游戏，九年前在同学家通完了流程。以现在的眼光看，地图的重复和贴图质量似乎构成一个问题，但作为系列的开端，恢弘的世界设定和丰富的射击体验（初见洪魔）不负为传奇；三水</t>
   </si>
   <si>
-    <t>编辑规则</t>
-  </si>
-  <si>
-    <t>因为太多人格式不对了，所以请在去第二页工作簿编辑内容之前看一下规则说明</t>
-  </si>
-  <si>
-    <t>希望你给出的是感想而不是评价。这个游戏给你带来的爱恨体验，哪一个是让你最想表达的？你最喜欢的场景，印象最深的剧情，只留在自己的脑海中是很可惜的。
-文无第一，请在这里放下客观公正的执念。我希望那个不存在的零分表示的是庸作，而不是好坏参半。</t>
-  </si>
-  <si>
-    <t>高亮请使用填充颜色，绿色取从下往上数第三个绿色。</t>
-  </si>
-  <si>
-    <t>3. 请按：[评分]；[感想]；[id] 这样的格式写出感想</t>
-  </si>
-  <si>
-    <t>也许以后可以做个统计。请不要用英文分号！</t>
-  </si>
-  <si>
-    <t>4. 游戏列表并不全，你觉得有需要就自行添加</t>
-  </si>
-  <si>
-    <t>添加新游戏请按发售日加入，不要打乱原来的顺序。一般以首发平台的中文版作为发售日，如有例外请在备注注明。Early Access阶段的游戏在添加时请在备注中注明“EA”。</t>
-  </si>
-  <si>
-    <t>5. DLC条目按 [游戏名] - [DLC名] 命名，类型固定写作DLC</t>
-  </si>
-  <si>
-    <t>只有大型DLC才可以作为单独的条目，简而言之，得有充足的内容。如巫师的血与酒，怪猎的冰原。</t>
-  </si>
-  <si>
-    <t>6. TAG并不是指代游戏类型，而是游戏的特色</t>
-  </si>
-  <si>
-    <t>这一栏是游戏的标签，希望是用几个短语能概括这个游戏出众的地方，或者说，卖点。每个短语之间用 / 隔开，请注意空格。</t>
-  </si>
-  <si>
-    <t>7. 相关条目统一写作“重制”</t>
-  </si>
-  <si>
-    <t>Remaster，Remake等等，我知道他们有区别，但是请不要区分重制和重置。真正Remake的作品，知名度足够让它与remaster分开。</t>
+    <t>红色警戒</t>
+  </si>
+  <si>
+    <t>+1；偶尔翻出来过一遍战役，依然很好玩；本子</t>
+  </si>
+  <si>
+    <t>梦幻之星4</t>
+  </si>
+  <si>
+    <t>+1；小时候第一个玩哭的游戏，对小屁孩时代的我造成了冲击性的情感体验，以至于我后续对游戏的口味也不可避免地陷入了剧情偏好上；xgs</t>
+  </si>
+  <si>
+    <t>三国志3</t>
+  </si>
+  <si>
+    <t>+1；小时候第一次感受到什么叫废寝忘食。慢慢地蚕食拓张土地，培养武将，让我体验到了4x游戏最原始的快乐；xgs</t>
   </si>
   <si>
     <r>
@@ -5297,14 +5297,14 @@
     <row r="2" ht="51.0" customHeight="true">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>1293</v>
+        <v>1113</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" ht="25.5" customHeight="true">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>1294</v>
+        <v>1114</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -5314,7 +5314,7 @@
         <v>1307</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1295</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="5" ht="39.75" customHeight="true">
@@ -5323,52 +5323,52 @@
         <v>1308</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1296</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="6" ht="39.75" customHeight="true">
       <c r="A6" s="7"/>
       <c r="B6" s="10" t="s">
-        <v>1297</v>
+        <v>1117</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1298</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="7" ht="39.75" customHeight="true">
       <c r="A7" s="7"/>
       <c r="B7" s="10" t="s">
-        <v>1299</v>
+        <v>1119</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1300</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" ht="39.75" customHeight="true">
       <c r="A8" s="7"/>
       <c r="B8" s="10" t="s">
-        <v>1301</v>
+        <v>1121</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1302</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="9" ht="39.75" customHeight="true">
       <c r="A9" s="7"/>
       <c r="B9" s="10" t="s">
-        <v>1303</v>
+        <v>1123</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1304</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="10" ht="39.75" customHeight="true">
       <c r="A10" s="7"/>
       <c r="B10" s="10" t="s">
-        <v>1305</v>
+        <v>1125</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1306</v>
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
@@ -5433,51 +5433,51 @@
     <row r="2" ht="52.5" customHeight="true">
       <c r="A2" s="12"/>
       <c r="B2" s="13" t="s">
-        <v>13</v>
+        <v>1127</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>15</v>
+        <v>1128</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>16</v>
+        <v>1129</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>17</v>
+        <v>1130</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>18</v>
+        <v>384</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="16" t="s">
-        <v>19</v>
+        <v>1131</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>20</v>
+        <v>472</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>21</v>
+        <v>1132</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>22</v>
+        <v>568</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>23</v>
+        <v>1133</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="14" t="s">
-        <v>24</v>
+        <v>772</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>25</v>
+        <v>1134</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>26</v>
+        <v>945</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>23</v>
+        <v>1133</v>
       </c>
       <c r="S2" s="12"/>
     </row>
@@ -5485,48 +5485,48 @@
       <c r="A3" s="12"/>
       <c r="B3" s="19"/>
       <c r="C3" s="14" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>28</v>
+        <v>1135</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>29</v>
+        <v>1136</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>30</v>
+        <v>1137</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>31</v>
+        <v>396</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="15" t="s">
-        <v>21</v>
+        <v>1132</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>32</v>
+        <v>483</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>33</v>
+        <v>1138</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>34</v>
+        <v>657</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>35</v>
+        <v>1139</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="14" t="s">
-        <v>36</v>
+        <v>804</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>19</v>
+        <v>1131</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>37</v>
+        <v>982</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>38</v>
+        <v>1140</v>
       </c>
       <c r="S3" s="12"/>
     </row>
@@ -5534,48 +5534,48 @@
       <c r="A4" s="12"/>
       <c r="B4" s="19"/>
       <c r="C4" s="14" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>40</v>
+        <v>1141</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>41</v>
+        <v>364</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>17</v>
+        <v>1130</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>42</v>
+        <v>415</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="15" t="s">
-        <v>21</v>
+        <v>1132</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>43</v>
+        <v>525</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>23</v>
+        <v>1133</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>44</v>
+        <v>752</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>23</v>
+        <v>1133</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="14" t="s">
-        <v>45</v>
+        <v>900</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>46</v>
+        <v>1142</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>47</v>
+        <v>1091</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>48</v>
+        <v>1143</v>
       </c>
       <c r="S4" s="12"/>
     </row>
@@ -5583,35 +5583,35 @@
       <c r="A5" s="12"/>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
-        <v>49</v>
+        <v>1097</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>23</v>
+        <v>1133</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>50</v>
+        <v>1144</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>48</v>
+        <v>1143</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>51</v>
+        <v>1145</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="24" t="s">
-        <v>23</v>
+        <v>1133</v>
       </c>
       <c r="J5" s="25" t="s">
         <v>1309</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>52</v>
+        <v>1146</v>
       </c>
       <c r="L5" s="25" t="s">
         <v>1310</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>53</v>
+        <v>1147</v>
       </c>
       <c r="N5" s="27"/>
       <c r="O5" s="25" t="s">
@@ -5621,10 +5621,10 @@
         <v>17.0</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>54</v>
+        <v>954</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>55</v>
+        <v>1148</v>
       </c>
       <c r="S5" s="12"/>
     </row>
@@ -5635,13 +5635,13 @@
         <v>1312</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>56</v>
+        <v>1149</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>1313</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>38</v>
+        <v>1140</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>1314</v>
@@ -5660,20 +5660,20 @@
         <v>1316</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>57</v>
+        <v>1150</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="25" t="s">
         <v>1317</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>55</v>
+        <v>1148</v>
       </c>
       <c r="Q6" s="25" t="s">
         <v>1318</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>58</v>
+        <v>1151</v>
       </c>
       <c r="S6" s="12"/>
     </row>
@@ -5722,7 +5722,7 @@
     <row r="9" ht="52.5" customHeight="true">
       <c r="A9" s="2"/>
       <c r="B9" s="34" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -5730,7 +5730,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="35"/>
       <c r="H9" s="34" t="s">
-        <v>60</v>
+        <v>351</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -5738,7 +5738,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="35"/>
       <c r="N9" s="36" t="s">
-        <v>61</v>
+        <v>438</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -5749,66 +5749,66 @@
     <row r="10" ht="52.5" customHeight="true">
       <c r="A10" s="2"/>
       <c r="B10" s="37" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>63</v>
+        <v>1153</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="38" t="s">
-        <v>64</v>
+        <v>1154</v>
       </c>
       <c r="G10" s="35"/>
       <c r="H10" s="37" t="s">
-        <v>65</v>
+        <v>1155</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>66</v>
+        <v>1156</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="38" t="s">
-        <v>67</v>
+        <v>1157</v>
       </c>
       <c r="M10" s="35"/>
       <c r="N10" s="40" t="s">
-        <v>65</v>
+        <v>1155</v>
       </c>
       <c r="O10" s="41" t="s">
-        <v>68</v>
+        <v>1158</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="42" t="s">
-        <v>52</v>
+        <v>1146</v>
       </c>
       <c r="S10" s="43"/>
     </row>
     <row r="11" ht="52.5" customHeight="true">
       <c r="A11" s="2"/>
       <c r="B11" s="38" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>69</v>
+        <v>1159</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="38" t="s">
-        <v>70</v>
+        <v>1160</v>
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="37" t="s">
-        <v>65</v>
+        <v>1155</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>71</v>
+        <v>1161</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="38" t="s">
-        <v>72</v>
+        <v>1162</v>
       </c>
       <c r="M11" s="35"/>
       <c r="N11" s="44"/>
@@ -5827,15 +5827,15 @@
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="37" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>73</v>
+        <v>1163</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="38" t="s">
-        <v>52</v>
+        <v>1146</v>
       </c>
       <c r="M12" s="35"/>
       <c r="N12" s="44"/>
@@ -5848,7 +5848,7 @@
     <row r="13" ht="52.5" customHeight="true">
       <c r="A13" s="2"/>
       <c r="B13" s="34" t="s">
-        <v>22</v>
+        <v>568</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -5856,15 +5856,15 @@
       <c r="F13" s="4"/>
       <c r="G13" s="35"/>
       <c r="H13" s="37" t="s">
-        <v>65</v>
+        <v>1155</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>74</v>
+        <v>1164</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="38" t="s">
-        <v>21</v>
+        <v>1132</v>
       </c>
       <c r="M13" s="35"/>
       <c r="N13" s="44"/>
@@ -5877,15 +5877,15 @@
     <row r="14" ht="52.5" customHeight="true">
       <c r="A14" s="2"/>
       <c r="B14" s="37" t="s">
-        <v>75</v>
+        <v>1165</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>76</v>
+        <v>1166</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="27"/>
       <c r="F14" s="37" t="s">
-        <v>77</v>
+        <v>1167</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="4"/>
@@ -5925,7 +5925,7 @@
     <row r="16" ht="52.5" customHeight="true">
       <c r="A16" s="2"/>
       <c r="B16" s="50" t="s">
-        <v>41</v>
+        <v>364</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
@@ -5933,7 +5933,7 @@
       <c r="F16" s="27"/>
       <c r="G16" s="35"/>
       <c r="H16" s="34" t="s">
-        <v>78</v>
+        <v>504</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5950,31 +5950,31 @@
     <row r="17" ht="52.5" customHeight="true">
       <c r="A17" s="2"/>
       <c r="B17" s="37" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>79</v>
+        <v>1168</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="37" t="s">
-        <v>70</v>
+        <v>1160</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="37" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>80</v>
+        <v>1169</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="37" t="s">
-        <v>70</v>
+        <v>1160</v>
       </c>
       <c r="M17" s="35"/>
       <c r="N17" s="36" t="s">
-        <v>81</v>
+        <v>828</v>
       </c>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
@@ -5985,10 +5985,10 @@
     <row r="18" ht="52.5" customHeight="true">
       <c r="A18" s="2"/>
       <c r="B18" s="37" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>82</v>
+        <v>1170</v>
       </c>
       <c r="D18" s="52"/>
       <c r="E18" s="53"/>
@@ -5997,27 +5997,27 @@
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="37" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>83</v>
+        <v>1171</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="37" t="s">
-        <v>48</v>
+        <v>1143</v>
       </c>
       <c r="M18" s="35"/>
       <c r="N18" s="40" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="O18" s="37" t="s">
-        <v>84</v>
+        <v>1172</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="54" t="s">
-        <v>85</v>
+        <v>1173</v>
       </c>
       <c r="S18" s="43"/>
     </row>
@@ -6036,15 +6036,15 @@
       <c r="L19" s="48"/>
       <c r="M19" s="35"/>
       <c r="N19" s="37" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="O19" s="57" t="s">
-        <v>86</v>
+        <v>1174</v>
       </c>
       <c r="P19" s="56"/>
       <c r="Q19" s="49"/>
       <c r="R19" s="37" t="s">
-        <v>87</v>
+        <v>1175</v>
       </c>
       <c r="S19" s="43"/>
     </row>
@@ -6057,7 +6057,7 @@
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="50" t="s">
-        <v>88</v>
+        <v>465</v>
       </c>
       <c r="I20" s="47"/>
       <c r="J20" s="47"/>
@@ -6074,7 +6074,7 @@
     <row r="21" ht="52.5" customHeight="true">
       <c r="A21" s="2"/>
       <c r="B21" s="58" t="s">
-        <v>89</v>
+        <v>788</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -6082,19 +6082,19 @@
       <c r="F21" s="4"/>
       <c r="G21" s="35"/>
       <c r="H21" s="37" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>90</v>
+        <v>1176</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="37" t="s">
-        <v>91</v>
+        <v>1177</v>
       </c>
       <c r="M21" s="35"/>
       <c r="N21" s="58" t="s">
-        <v>92</v>
+        <v>736</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -6105,10 +6105,10 @@
     <row r="22" ht="52.5" customHeight="true">
       <c r="A22" s="2"/>
       <c r="B22" s="37" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>93</v>
+        <v>1178</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -6123,34 +6123,34 @@
       <c r="L22" s="35"/>
       <c r="M22" s="35"/>
       <c r="N22" s="37" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="O22" s="40" t="s">
-        <v>94</v>
+        <v>1179</v>
       </c>
       <c r="P22" s="47"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="37" t="s">
-        <v>70</v>
+        <v>1160</v>
       </c>
       <c r="S22" s="43"/>
     </row>
     <row r="23" ht="52.5" customHeight="true">
       <c r="A23" s="2"/>
       <c r="B23" s="37" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>95</v>
+        <v>1180</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="37" t="s">
-        <v>70</v>
+        <v>1160</v>
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="50" t="s">
-        <v>96</v>
+        <v>846</v>
       </c>
       <c r="I23" s="47"/>
       <c r="J23" s="47"/>
@@ -6173,10 +6173,10 @@
       <c r="F24" s="48"/>
       <c r="G24" s="35"/>
       <c r="H24" s="37" t="s">
-        <v>65</v>
+        <v>1155</v>
       </c>
       <c r="I24" s="59" t="s">
-        <v>97</v>
+        <v>1181</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="M24" s="35"/>
       <c r="N24" s="36" t="s">
-        <v>98</v>
+        <v>1003</v>
       </c>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
@@ -6196,7 +6196,7 @@
     <row r="25" ht="52.5" customHeight="true">
       <c r="A25" s="2"/>
       <c r="B25" s="58" t="s">
-        <v>99</v>
+        <v>883</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -6204,42 +6204,42 @@
       <c r="F25" s="4"/>
       <c r="G25" s="35"/>
       <c r="H25" s="40" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>100</v>
+        <v>1182</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="54" t="s">
-        <v>23</v>
+        <v>1133</v>
       </c>
       <c r="M25" s="35"/>
       <c r="N25" s="37" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="O25" s="40" t="s">
-        <v>101</v>
+        <v>1183</v>
       </c>
       <c r="P25" s="47"/>
       <c r="Q25" s="27"/>
       <c r="R25" s="37" t="s">
-        <v>102</v>
+        <v>1184</v>
       </c>
       <c r="S25" s="43"/>
     </row>
     <row r="26" ht="52.5" customHeight="true">
       <c r="A26" s="2"/>
       <c r="B26" s="37" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>103</v>
+        <v>1185</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="37" t="s">
-        <v>23</v>
+        <v>1133</v>
       </c>
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
@@ -6249,15 +6249,15 @@
       <c r="L26" s="35"/>
       <c r="M26" s="35"/>
       <c r="N26" s="37" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="O26" s="40" t="s">
-        <v>104</v>
+        <v>1186</v>
       </c>
       <c r="P26" s="47"/>
       <c r="Q26" s="27"/>
       <c r="R26" s="37" t="s">
-        <v>72</v>
+        <v>1162</v>
       </c>
       <c r="S26" s="43"/>
     </row>
@@ -6270,7 +6270,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="35"/>
       <c r="H27" s="50" t="s">
-        <v>105</v>
+        <v>1075</v>
       </c>
       <c r="I27" s="47"/>
       <c r="J27" s="47"/>
@@ -6278,15 +6278,15 @@
       <c r="L27" s="27"/>
       <c r="M27" s="35"/>
       <c r="N27" s="37" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="O27" s="40" t="s">
-        <v>106</v>
+        <v>1187</v>
       </c>
       <c r="P27" s="47"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="37" t="s">
-        <v>107</v>
+        <v>1188</v>
       </c>
       <c r="S27" s="43"/>
     </row>
@@ -6299,15 +6299,15 @@
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
       <c r="H28" s="37" t="s">
-        <v>62</v>
+        <v>1152</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>108</v>
+        <v>1189</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="37" t="s">
-        <v>70</v>
+        <v>1160</v>
       </c>
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
@@ -6461,10 +6461,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="G1" s="63"/>
       <c r="H1" s="4"/>
@@ -6489,10 +6489,10 @@
     </row>
     <row r="2" ht="52.5" customHeight="true">
       <c r="A2" s="64" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C2" s="66" t="n">
         <v>44624.0</v>
@@ -6529,10 +6529,10 @@
     </row>
     <row r="3" ht="52.5" customHeight="true">
       <c r="A3" s="64" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="C3" s="66" t="n">
         <v>44617.0</v>
@@ -6569,10 +6569,10 @@
     </row>
     <row r="4" ht="52.5" customHeight="true">
       <c r="A4" s="64" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="C4" s="66" t="n">
         <v>44589.0</v>
@@ -6609,10 +6609,10 @@
     </row>
     <row r="5" ht="52.5" customHeight="true">
       <c r="A5" s="71" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="C5" s="66" t="n">
         <v>44519.0</v>
@@ -6649,10 +6649,10 @@
     </row>
     <row r="6" ht="52.5" customHeight="true">
       <c r="A6" s="71" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" s="66" t="n">
         <v>44511.0</v>
@@ -6689,10 +6689,10 @@
     </row>
     <row r="7" ht="52.5" customHeight="true">
       <c r="A7" s="71" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="C7" s="66" t="n">
         <v>44510.0</v>
@@ -6729,10 +6729,10 @@
     </row>
     <row r="8" ht="52.5" customHeight="true">
       <c r="A8" s="71" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="C8" s="66" t="n">
         <v>44484.0</v>
@@ -6747,7 +6747,7 @@
         <v>0.0</v>
       </c>
       <c r="G8" s="72" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H8" s="70"/>
       <c r="I8" s="70"/>
@@ -6771,10 +6771,10 @@
     </row>
     <row r="9" ht="52.5" customHeight="true">
       <c r="A9" s="71" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="C9" s="73" t="n">
         <v>44483.0</v>
@@ -6789,7 +6789,7 @@
         <v>0.0</v>
       </c>
       <c r="G9" s="70" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="H9" s="70"/>
       <c r="I9" s="70"/>
@@ -6813,10 +6813,10 @@
     </row>
     <row r="10" ht="52.5" customHeight="true">
       <c r="A10" s="71" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="C10" s="73" t="n">
         <v>44477.0</v>
@@ -6829,10 +6829,10 @@
         <v>1.0</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="H10" s="70" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="I10" s="70"/>
       <c r="J10" s="70"/>
@@ -6855,10 +6855,10 @@
     </row>
     <row r="11" ht="52.5" customHeight="true">
       <c r="A11" s="71" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="C11" s="73" t="n">
         <v>44476.0</v>
@@ -6873,7 +6873,7 @@
         <v>0.0</v>
       </c>
       <c r="G11" s="70" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="H11" s="70"/>
       <c r="I11" s="70"/>
@@ -6897,10 +6897,10 @@
     </row>
     <row r="12" ht="52.5" customHeight="true">
       <c r="A12" s="75" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="C12" s="76" t="n">
         <v>44463.0</v>
@@ -6915,7 +6915,7 @@
         <v>0.0</v>
       </c>
       <c r="G12" s="72" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="70"/>
@@ -6939,16 +6939,16 @@
     </row>
     <row r="13" ht="52.5" customHeight="true">
       <c r="A13" s="78" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="C13" s="73" t="n">
         <v>44455.0</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="E13" s="77" t="n">
         <f>COUNTA(G13:Z13)</f>
@@ -6959,7 +6959,7 @@
         <v>0.0</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="H13" s="72"/>
       <c r="I13" s="70"/>
@@ -6983,10 +6983,10 @@
     </row>
     <row r="14" ht="52.5" customHeight="true">
       <c r="A14" s="71" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="C14" s="73" t="n">
         <v>44455.0</v>
@@ -7001,10 +7001,10 @@
         <v>0.0</v>
       </c>
       <c r="G14" s="80" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="I14" s="70"/>
       <c r="J14" s="70"/>
@@ -7027,16 +7027,16 @@
     </row>
     <row r="15" ht="52.5" customHeight="true">
       <c r="A15" s="71" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="C15" s="73" t="n">
         <v>44453.0</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="E15" s="68" t="n">
         <f>COUNTA(G15:Z15)</f>
@@ -7047,7 +7047,7 @@
         <v>0.0</v>
       </c>
       <c r="G15" s="80" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="H15" s="70"/>
       <c r="I15" s="70"/>
@@ -7071,10 +7071,10 @@
     </row>
     <row r="16" ht="52.5" customHeight="true">
       <c r="A16" s="71" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="C16" s="73" t="n">
         <v>44448.0</v>
@@ -7089,28 +7089,28 @@
         <v>0.0</v>
       </c>
       <c r="G16" s="80" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="I16" s="70" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="J16" s="80" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="K16" s="70" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="L16" s="70" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="M16" s="81" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="N16" s="81" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O16" s="70"/>
       <c r="P16" s="70"/>
@@ -7127,10 +7127,10 @@
     </row>
     <row r="17" ht="52.5" customHeight="true">
       <c r="A17" s="71" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="C17" s="73" t="n">
         <v>44446.0</v>
@@ -7145,7 +7145,7 @@
         <v>0.0</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
@@ -7169,10 +7169,10 @@
     </row>
     <row r="18" ht="52.5" customHeight="true">
       <c r="A18" s="71" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="C18" s="73" t="n">
         <v>44427.0</v>
@@ -7187,10 +7187,10 @@
         <v>0.0</v>
       </c>
       <c r="G18" s="80" t="s">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="H18" s="70" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="I18" s="70"/>
       <c r="J18" s="70"/>
@@ -7213,10 +7213,10 @@
     </row>
     <row r="19" ht="52.5" customHeight="true">
       <c r="A19" s="71" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C19" s="73" t="n">
         <v>44426.0</v>
@@ -7231,7 +7231,7 @@
         <v>0.0</v>
       </c>
       <c r="G19" s="82" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="70"/>
@@ -7255,10 +7255,10 @@
     </row>
     <row r="20" ht="52.5" customHeight="true">
       <c r="A20" s="71" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="C20" s="73" t="n">
         <v>44393.0</v>
@@ -7273,10 +7273,10 @@
         <v>0.0</v>
       </c>
       <c r="G20" s="72" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="H20" s="82" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="I20" s="70"/>
       <c r="J20" s="70"/>
@@ -7299,10 +7299,10 @@
     </row>
     <row r="21" ht="52.5" customHeight="true">
       <c r="A21" s="71" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="C21" s="73" t="n">
         <v>44386.0</v>
@@ -7317,10 +7317,10 @@
         <v>0.0</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="H21" s="70" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="I21" s="70"/>
       <c r="J21" s="70"/>
@@ -7343,10 +7343,10 @@
     </row>
     <row r="22" ht="52.5" customHeight="true">
       <c r="A22" s="71" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="C22" s="66" t="n">
         <v>44371.0</v>
@@ -7361,25 +7361,25 @@
         <v>0.0</v>
       </c>
       <c r="G22" s="72" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="H22" s="70" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="I22" s="70" t="s">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="J22" s="72" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="K22" s="72" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="L22" s="70" t="s">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="M22" s="72" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="N22" s="70"/>
       <c r="O22" s="70"/>
@@ -7397,10 +7397,10 @@
     </row>
     <row r="23" ht="52.5" customHeight="true">
       <c r="A23" s="71" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="C23" s="66" t="n">
         <v>44358.0</v>
@@ -7415,10 +7415,10 @@
         <v>0.0</v>
       </c>
       <c r="G23" s="72" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="H23" s="72" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="I23" s="70"/>
       <c r="J23" s="70"/>
@@ -7441,10 +7441,10 @@
     </row>
     <row r="24" ht="52.5" customHeight="true">
       <c r="A24" s="71" t="s">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="C24" s="66" t="n">
         <v>44357.0</v>
@@ -7459,7 +7459,7 @@
         <v>0.0</v>
       </c>
       <c r="G24" s="70" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="H24" s="70"/>
       <c r="I24" s="70"/>
@@ -7483,10 +7483,10 @@
     </row>
     <row r="25" ht="52.5" customHeight="true">
       <c r="A25" s="71" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="C25" s="66" t="n">
         <v>44350.0</v>
@@ -7501,7 +7501,7 @@
         <v>0.0</v>
       </c>
       <c r="G25" s="70" t="s">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="H25" s="70"/>
       <c r="I25" s="70"/>
@@ -7525,10 +7525,10 @@
     </row>
     <row r="26" ht="52.5" customHeight="true">
       <c r="A26" s="71" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="C26" s="66" t="n">
         <v>44323.0</v>
@@ -7543,10 +7543,10 @@
         <v>0.0</v>
       </c>
       <c r="G26" s="70" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="H26" s="70" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="I26" s="70"/>
       <c r="J26" s="70"/>
@@ -7569,16 +7569,16 @@
     </row>
     <row r="27" ht="52.5" customHeight="true">
       <c r="A27" s="71" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="C27" s="66" t="n">
         <v>44310.0</v>
       </c>
       <c r="D27" s="74" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="E27" s="68" t="n">
         <f>COUNTA(G27:Z27)</f>
@@ -7589,10 +7589,10 @@
         <v>0.0</v>
       </c>
       <c r="G27" s="72" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="H27" s="70" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="I27" s="70"/>
       <c r="J27" s="70"/>
@@ -7615,10 +7615,10 @@
     </row>
     <row r="28" ht="52.5" customHeight="true">
       <c r="A28" s="71" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="C28" s="66" t="n">
         <v>44281.0</v>
@@ -7633,28 +7633,28 @@
         <v>0.0</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="H28" s="70" t="s">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="I28" s="70" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="J28" s="80" t="s">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="K28" s="70" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="L28" s="70" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="M28" s="70" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="N28" s="70" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="O28" s="70"/>
       <c r="P28" s="70"/>
@@ -7671,10 +7671,10 @@
     </row>
     <row r="29" ht="52.5" customHeight="true">
       <c r="A29" s="71" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="C29" s="66" t="n">
         <v>44281.0</v>
@@ -7689,13 +7689,13 @@
         <v>0.0</v>
       </c>
       <c r="G29" s="70" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="H29" s="70" t="s">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="I29" s="70" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="J29" s="70"/>
       <c r="K29" s="70"/>
@@ -7717,16 +7717,16 @@
     </row>
     <row r="30" ht="52.5" customHeight="true">
       <c r="A30" s="71" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="C30" s="66" t="n">
         <v>44253.0</v>
       </c>
       <c r="D30" s="67" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="E30" s="68" t="n">
         <f>COUNTA(G30:Z30)</f>
@@ -7737,10 +7737,10 @@
         <v>0.0</v>
       </c>
       <c r="G30" s="70" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="H30" s="70" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="I30" s="70"/>
       <c r="J30" s="70"/>
@@ -7763,10 +7763,10 @@
     </row>
     <row r="31" ht="52.5" customHeight="true">
       <c r="A31" s="71" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C31" s="66" t="n">
         <v>44253.0</v>
@@ -7781,10 +7781,10 @@
         <v>0.0</v>
       </c>
       <c r="G31" s="72" t="s">
-        <v>223</v>
+        <v>120</v>
       </c>
       <c r="H31" s="72" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="I31" s="70"/>
       <c r="J31" s="70"/>
@@ -7807,16 +7807,16 @@
     </row>
     <row r="32" ht="52.5" customHeight="true">
       <c r="A32" s="71" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="B32" s="65" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="C32" s="66" t="n">
         <v>44217.0</v>
       </c>
       <c r="D32" s="67" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="E32" s="68" t="n">
         <f>COUNTA(G32:Z32)</f>
@@ -7827,10 +7827,10 @@
         <v>0.0</v>
       </c>
       <c r="G32" s="70" t="s">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="H32" s="70" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="I32" s="70"/>
       <c r="J32" s="70"/>
@@ -7853,10 +7853,10 @@
     </row>
     <row r="33" ht="52.5" customHeight="true">
       <c r="A33" s="71" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="B33" s="65" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="C33" s="66" t="n">
         <v>44216.0</v>
@@ -7871,7 +7871,7 @@
         <v>0.0</v>
       </c>
       <c r="G33" s="70" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="H33" s="72"/>
       <c r="I33" s="70"/>
@@ -7895,10 +7895,10 @@
     </row>
     <row r="34" ht="52.5" customHeight="true">
       <c r="A34" s="64" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c r="C34" s="66" t="n">
         <v>44175.0</v>
@@ -7913,37 +7913,37 @@
         <v>0.0</v>
       </c>
       <c r="G34" s="72" t="s">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="H34" s="72" t="s">
-        <v>234</v>
+        <v>132</v>
       </c>
       <c r="I34" s="70" t="s">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="J34" s="72" t="s">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="K34" s="72" t="s">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="L34" s="72" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="M34" s="72" t="s">
-        <v>239</v>
+        <v>137</v>
       </c>
       <c r="N34" s="72" t="s">
-        <v>240</v>
+        <v>138</v>
       </c>
       <c r="O34" s="72" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="P34" s="72" t="s">
-        <v>242</v>
+        <v>140</v>
       </c>
       <c r="Q34" s="72" t="s">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="R34" s="70"/>
       <c r="S34" s="70"/>
@@ -7957,10 +7957,10 @@
     </row>
     <row r="35" ht="45.0" customHeight="true">
       <c r="A35" s="64" t="s">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="C35" s="73" t="n">
         <v>44168.0</v>
@@ -7975,19 +7975,19 @@
         <v>0.0</v>
       </c>
       <c r="G35" s="72" t="s">
-        <v>246</v>
+        <v>144</v>
       </c>
       <c r="H35" s="72" t="s">
-        <v>247</v>
+        <v>145</v>
       </c>
       <c r="I35" s="72" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="J35" s="70" t="s">
-        <v>249</v>
+        <v>147</v>
       </c>
       <c r="K35" s="72" t="s">
-        <v>250</v>
+        <v>148</v>
       </c>
       <c r="L35" s="84"/>
       <c r="M35" s="84"/>
@@ -8007,10 +8007,10 @@
     </row>
     <row r="36" ht="45.0" customHeight="true">
       <c r="A36" s="64" t="s">
-        <v>251</v>
+        <v>149</v>
       </c>
       <c r="B36" s="65" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="C36" s="73" t="n">
         <v>44167.0</v>
@@ -8025,7 +8025,7 @@
         <v>0.0</v>
       </c>
       <c r="G36" s="70" t="s">
-        <v>253</v>
+        <v>151</v>
       </c>
       <c r="H36" s="70"/>
       <c r="I36" s="72"/>
@@ -8049,10 +8049,10 @@
     </row>
     <row r="37" ht="45.0" customHeight="true">
       <c r="A37" s="64" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="B37" s="65" t="s">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="C37" s="73" t="n">
         <v>44155.0</v>
@@ -8067,16 +8067,16 @@
         <v>0.0</v>
       </c>
       <c r="G37" s="72" t="s">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="H37" s="70" t="s">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="I37" s="72" t="s">
-        <v>258</v>
+        <v>156</v>
       </c>
       <c r="J37" s="72" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="K37" s="84"/>
       <c r="L37" s="84"/>
@@ -8097,10 +8097,10 @@
     </row>
     <row r="38" ht="45.0" customHeight="true">
       <c r="A38" s="64" t="s">
-        <v>260</v>
+        <v>158</v>
       </c>
       <c r="B38" s="65" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="C38" s="66" t="n">
         <v>44148.0</v>
@@ -8115,13 +8115,13 @@
         <v>0.0</v>
       </c>
       <c r="G38" s="72" t="s">
-        <v>262</v>
+        <v>160</v>
       </c>
       <c r="H38" s="82" t="s">
-        <v>263</v>
+        <v>161</v>
       </c>
       <c r="I38" s="80" t="s">
-        <v>264</v>
+        <v>162</v>
       </c>
       <c r="J38" s="84"/>
       <c r="K38" s="84"/>
@@ -8143,10 +8143,10 @@
     </row>
     <row r="39" ht="45.0" customHeight="true">
       <c r="A39" s="64" t="s">
-        <v>265</v>
+        <v>163</v>
       </c>
       <c r="B39" s="65" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="C39" s="66" t="n">
         <v>44147.0</v>
@@ -8161,16 +8161,16 @@
         <v>0.0</v>
       </c>
       <c r="G39" s="70" t="s">
-        <v>266</v>
+        <v>164</v>
       </c>
       <c r="H39" s="70" t="s">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="I39" s="70" t="s">
-        <v>268</v>
+        <v>166</v>
       </c>
       <c r="J39" s="72" t="s">
-        <v>269</v>
+        <v>167</v>
       </c>
       <c r="K39" s="84"/>
       <c r="L39" s="84"/>
@@ -8191,10 +8191,10 @@
     </row>
     <row r="40" ht="44.25" customHeight="true">
       <c r="A40" s="64" t="s">
-        <v>270</v>
+        <v>168</v>
       </c>
       <c r="B40" s="65" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="C40" s="66" t="n">
         <v>44147.0</v>
@@ -8209,16 +8209,16 @@
         <v>0.0</v>
       </c>
       <c r="G40" s="72" t="s">
-        <v>272</v>
+        <v>170</v>
       </c>
       <c r="H40" s="85" t="s">
         <v>1319</v>
       </c>
       <c r="I40" s="70" t="s">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c r="J40" s="72" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="K40" s="84"/>
       <c r="L40" s="84"/>
@@ -8239,10 +8239,10 @@
     </row>
     <row r="41" ht="45.0" customHeight="true">
       <c r="A41" s="64" t="s">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="B41" s="65" t="s">
-        <v>276</v>
+        <v>174</v>
       </c>
       <c r="C41" s="66" t="n">
         <v>44147.0</v>
@@ -8255,13 +8255,13 @@
         <v>1.0</v>
       </c>
       <c r="G41" s="80" t="s">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="H41" s="80" t="s">
-        <v>278</v>
+        <v>176</v>
       </c>
       <c r="I41" s="70" t="s">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="J41" s="84"/>
       <c r="K41" s="70"/>
@@ -8283,10 +8283,10 @@
     </row>
     <row r="42" ht="45.0" customHeight="true">
       <c r="A42" s="64" t="s">
-        <v>280</v>
+        <v>178</v>
       </c>
       <c r="B42" s="65" t="s">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="C42" s="66" t="n">
         <v>44146.0</v>
@@ -8301,19 +8301,19 @@
         <v>0.0</v>
       </c>
       <c r="G42" s="70" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="H42" s="70" t="s">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="I42" s="70" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="J42" s="84" t="s">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="K42" s="70" t="s">
-        <v>285</v>
+        <v>183</v>
       </c>
       <c r="L42" s="84"/>
       <c r="M42" s="84"/>
@@ -8333,10 +8333,10 @@
     </row>
     <row r="43" ht="45.0" customHeight="true">
       <c r="A43" s="64" t="s">
-        <v>286</v>
+        <v>184</v>
       </c>
       <c r="B43" s="65" t="s">
-        <v>287</v>
+        <v>185</v>
       </c>
       <c r="C43" s="66" t="n">
         <v>44145.0</v>
@@ -8351,10 +8351,10 @@
         <v>0.0</v>
       </c>
       <c r="G43" s="70" t="s">
-        <v>288</v>
+        <v>186</v>
       </c>
       <c r="H43" s="72" t="s">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="I43" s="84"/>
       <c r="J43" s="84"/>
@@ -8377,10 +8377,10 @@
     </row>
     <row r="44" ht="45.0" customHeight="true">
       <c r="A44" s="64" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="B44" s="65" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C44" s="66" t="n">
         <v>44133.0</v>
@@ -8395,10 +8395,10 @@
         <v>0.0</v>
       </c>
       <c r="G44" s="70" t="s">
-        <v>291</v>
+        <v>189</v>
       </c>
       <c r="H44" s="70" t="s">
-        <v>292</v>
+        <v>190</v>
       </c>
       <c r="I44" s="84"/>
       <c r="J44" s="84"/>
@@ -8421,10 +8421,10 @@
     </row>
     <row r="45" ht="45.0" customHeight="true">
       <c r="A45" s="64" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="C45" s="66" t="n">
         <v>44133.0</v>
@@ -8439,16 +8439,16 @@
         <v>0.0</v>
       </c>
       <c r="G45" s="70" t="s">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="H45" s="70" t="s">
-        <v>295</v>
+        <v>194</v>
       </c>
       <c r="I45" s="70" t="s">
-        <v>296</v>
+        <v>195</v>
       </c>
       <c r="J45" s="82" t="s">
-        <v>297</v>
+        <v>196</v>
       </c>
       <c r="K45" s="84"/>
       <c r="L45" s="84"/>
@@ -8469,10 +8469,10 @@
     </row>
     <row r="46" ht="45.0" customHeight="true">
       <c r="A46" s="64" t="s">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c r="B46" s="65" t="s">
-        <v>299</v>
+        <v>198</v>
       </c>
       <c r="C46" s="66" t="n">
         <v>44133.0</v>
@@ -8487,7 +8487,7 @@
         <v>0.0</v>
       </c>
       <c r="G46" s="72" t="s">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c r="H46" s="72"/>
       <c r="I46" s="72"/>
@@ -8511,10 +8511,10 @@
     </row>
     <row r="47" ht="45.0" customHeight="true">
       <c r="A47" s="64" t="s">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="B47" s="65" t="s">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="C47" s="66" t="n">
         <v>44132.0</v>
@@ -8529,13 +8529,13 @@
         <v>0.0</v>
       </c>
       <c r="G47" s="70" t="s">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="H47" s="72" t="s">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="I47" s="72" t="s">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="J47" s="84"/>
       <c r="K47" s="84"/>
@@ -8557,10 +8557,10 @@
     </row>
     <row r="48" ht="45.0" customHeight="true">
       <c r="A48" s="64" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="B48" s="65" t="s">
-        <v>307</v>
+        <v>206</v>
       </c>
       <c r="C48" s="66" t="n">
         <v>44120.0</v>
@@ -8575,7 +8575,7 @@
         <v>0.0</v>
       </c>
       <c r="G48" s="70" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="H48" s="84"/>
       <c r="I48" s="84"/>
@@ -8599,10 +8599,10 @@
     </row>
     <row r="49" ht="45.0" customHeight="true">
       <c r="A49" s="64" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="B49" s="65" t="s">
-        <v>310</v>
+        <v>209</v>
       </c>
       <c r="C49" s="66" t="n">
         <v>44092.0</v>
@@ -8617,13 +8617,13 @@
         <v>0.0</v>
       </c>
       <c r="G49" s="70" t="s">
-        <v>311</v>
+        <v>210</v>
       </c>
       <c r="H49" s="70" t="s">
-        <v>312</v>
+        <v>211</v>
       </c>
       <c r="I49" s="84" t="s">
-        <v>313</v>
+        <v>212</v>
       </c>
       <c r="J49" s="84"/>
       <c r="K49" s="84"/>
@@ -8645,10 +8645,10 @@
     </row>
     <row r="50" ht="45.0" customHeight="true">
       <c r="A50" s="64" t="s">
-        <v>314</v>
+        <v>213</v>
       </c>
       <c r="B50" s="65" t="s">
-        <v>315</v>
+        <v>214</v>
       </c>
       <c r="C50" s="66" t="n">
         <v>44091.0</v>
@@ -8663,28 +8663,28 @@
         <v>0.0</v>
       </c>
       <c r="G50" s="70" t="s">
-        <v>316</v>
+        <v>215</v>
       </c>
       <c r="H50" s="70" t="s">
-        <v>317</v>
+        <v>216</v>
       </c>
       <c r="I50" s="70" t="s">
-        <v>318</v>
+        <v>217</v>
       </c>
       <c r="J50" s="70" t="s">
-        <v>319</v>
+        <v>218</v>
       </c>
       <c r="K50" s="70" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="L50" s="70" t="s">
-        <v>321</v>
+        <v>220</v>
       </c>
       <c r="M50" s="70" t="s">
-        <v>322</v>
+        <v>221</v>
       </c>
       <c r="N50" s="70" t="s">
-        <v>323</v>
+        <v>222</v>
       </c>
       <c r="O50" s="84"/>
       <c r="P50" s="84"/>
@@ -8701,10 +8701,10 @@
     </row>
     <row r="51" ht="45.0" customHeight="true">
       <c r="A51" s="64" t="s">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="B51" s="65" t="s">
-        <v>325</v>
+        <v>224</v>
       </c>
       <c r="C51" s="66" t="n">
         <v>44070.0</v>
@@ -8719,7 +8719,7 @@
         <v>0.0</v>
       </c>
       <c r="G51" s="70" t="s">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="H51" s="84"/>
       <c r="I51" s="84"/>
@@ -8743,10 +8743,10 @@
     </row>
     <row r="52" ht="45.0" customHeight="true">
       <c r="A52" s="64" t="s">
-        <v>327</v>
+        <v>226</v>
       </c>
       <c r="B52" s="65" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="C52" s="66" t="n">
         <v>44070.0</v>
@@ -8761,16 +8761,16 @@
         <v>0.0</v>
       </c>
       <c r="G52" s="70" t="s">
-        <v>329</v>
+        <v>228</v>
       </c>
       <c r="H52" s="70" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="I52" s="70" t="s">
-        <v>331</v>
+        <v>230</v>
       </c>
       <c r="J52" s="84" t="s">
-        <v>332</v>
+        <v>231</v>
       </c>
       <c r="K52" s="84"/>
       <c r="L52" s="84"/>
@@ -8791,16 +8791,16 @@
     </row>
     <row r="53" ht="45.0" customHeight="true">
       <c r="A53" s="64" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>334</v>
+        <v>233</v>
       </c>
       <c r="C53" s="66" t="n">
         <v>44063.0</v>
       </c>
       <c r="D53" s="67" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="E53" s="68" t="n">
         <f>COUNTA(G53:Z53)</f>
@@ -8811,13 +8811,13 @@
         <v>0.0</v>
       </c>
       <c r="G53" s="70" t="s">
-        <v>335</v>
+        <v>234</v>
       </c>
       <c r="H53" s="70" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="I53" s="70" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="J53" s="84"/>
       <c r="K53" s="84"/>
@@ -8839,10 +8839,10 @@
     </row>
     <row r="54" ht="45.0" customHeight="true">
       <c r="A54" s="64" t="s">
-        <v>338</v>
+        <v>237</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>339</v>
+        <v>238</v>
       </c>
       <c r="C54" s="66" t="n">
         <v>44061.0</v>
@@ -8857,13 +8857,13 @@
         <v>0.0</v>
       </c>
       <c r="G54" s="70" t="s">
-        <v>340</v>
+        <v>239</v>
       </c>
       <c r="H54" s="72" t="s">
-        <v>341</v>
+        <v>240</v>
       </c>
       <c r="I54" s="80" t="s">
-        <v>342</v>
+        <v>241</v>
       </c>
       <c r="J54" s="84"/>
       <c r="K54" s="84"/>
@@ -8885,10 +8885,10 @@
     </row>
     <row r="55" ht="45.0" customHeight="true">
       <c r="A55" s="64" t="s">
-        <v>343</v>
+        <v>242</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>344</v>
+        <v>243</v>
       </c>
       <c r="C55" s="66" t="n">
         <v>44054.0</v>
@@ -8903,16 +8903,16 @@
         <v>0.0</v>
       </c>
       <c r="G55" s="70" t="s">
-        <v>345</v>
+        <v>244</v>
       </c>
       <c r="H55" s="70" t="s">
-        <v>346</v>
+        <v>245</v>
       </c>
       <c r="I55" s="70" t="s">
-        <v>347</v>
+        <v>246</v>
       </c>
       <c r="J55" s="70" t="s">
-        <v>348</v>
+        <v>247</v>
       </c>
       <c r="K55" s="84"/>
       <c r="L55" s="84"/>
@@ -8933,10 +8933,10 @@
     </row>
     <row r="56" ht="45.0" customHeight="true">
       <c r="A56" s="64" t="s">
-        <v>349</v>
+        <v>248</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>350</v>
+        <v>249</v>
       </c>
       <c r="C56" s="66" t="n">
         <v>44049.0</v>
@@ -8951,10 +8951,10 @@
         <v>0.0</v>
       </c>
       <c r="G56" s="70" t="s">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="H56" s="70" t="s">
-        <v>352</v>
+        <v>251</v>
       </c>
       <c r="I56" s="70"/>
       <c r="J56" s="84"/>
@@ -8977,10 +8977,10 @@
     </row>
     <row r="57" ht="45.0" customHeight="true">
       <c r="A57" s="64" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="C57" s="66" t="n">
         <v>44047.0</v>
@@ -8995,19 +8995,19 @@
         <v>0.0</v>
       </c>
       <c r="G57" s="72" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="H57" s="70" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="I57" s="70" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="J57" s="70" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="K57" s="70" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="L57" s="84"/>
       <c r="M57" s="84"/>
@@ -9027,10 +9027,10 @@
     </row>
     <row r="58" ht="45.0" customHeight="true">
       <c r="A58" s="64" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="C58" s="66" t="n">
         <v>44029.0</v>
@@ -9045,34 +9045,34 @@
         <v>0.0</v>
       </c>
       <c r="G58" s="70" t="s">
-        <v>360</v>
+        <v>261</v>
       </c>
       <c r="H58" s="70" t="s">
-        <v>361</v>
+        <v>262</v>
       </c>
       <c r="I58" s="70" t="s">
-        <v>362</v>
+        <v>263</v>
       </c>
       <c r="J58" s="70" t="s">
-        <v>363</v>
+        <v>264</v>
       </c>
       <c r="K58" s="70" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="L58" s="70" t="s">
-        <v>365</v>
+        <v>266</v>
       </c>
       <c r="M58" s="70" t="s">
-        <v>366</v>
+        <v>267</v>
       </c>
       <c r="N58" s="72" t="s">
-        <v>367</v>
+        <v>268</v>
       </c>
       <c r="O58" s="70" t="s">
-        <v>368</v>
+        <v>269</v>
       </c>
       <c r="P58" s="70" t="s">
-        <v>369</v>
+        <v>270</v>
       </c>
       <c r="Q58" s="70"/>
       <c r="R58" s="70"/>
@@ -9087,10 +9087,10 @@
     </row>
     <row r="59" ht="45.0" customHeight="true">
       <c r="A59" s="64" t="s">
-        <v>370</v>
+        <v>271</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>371</v>
+        <v>272</v>
       </c>
       <c r="C59" s="66" t="n">
         <v>44029.0</v>
@@ -9105,13 +9105,13 @@
         <v>0.0</v>
       </c>
       <c r="G59" s="70" t="s">
-        <v>372</v>
+        <v>273</v>
       </c>
       <c r="H59" s="70" t="s">
-        <v>373</v>
+        <v>274</v>
       </c>
       <c r="I59" s="70" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="J59" s="84"/>
       <c r="K59" s="84"/>
@@ -9133,10 +9133,10 @@
     </row>
     <row r="60" ht="45.0" customHeight="true">
       <c r="A60" s="64" t="s">
-        <v>375</v>
+        <v>276</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>376</v>
+        <v>277</v>
       </c>
       <c r="C60" s="66" t="n">
         <v>44021.0</v>
@@ -9151,13 +9151,13 @@
         <v>0.0</v>
       </c>
       <c r="G60" s="72" t="s">
-        <v>377</v>
+        <v>278</v>
       </c>
       <c r="H60" s="72" t="s">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="I60" s="72" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="J60" s="84"/>
       <c r="K60" s="84"/>
@@ -9179,10 +9179,10 @@
     </row>
     <row r="61" ht="45.0" customHeight="true">
       <c r="A61" s="64" t="s">
-        <v>380</v>
+        <v>281</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>381</v>
+        <v>282</v>
       </c>
       <c r="C61" s="66" t="n">
         <v>44007.0</v>
@@ -9197,7 +9197,7 @@
         <v>0.0</v>
       </c>
       <c r="G61" s="70" t="s">
-        <v>382</v>
+        <v>283</v>
       </c>
       <c r="H61" s="72"/>
       <c r="I61" s="72"/>
@@ -9221,10 +9221,10 @@
     </row>
     <row r="62" ht="45.0" customHeight="true">
       <c r="A62" s="64" t="s">
-        <v>383</v>
+        <v>284</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>384</v>
+        <v>285</v>
       </c>
       <c r="C62" s="66" t="n">
         <v>44001.0</v>
@@ -9239,22 +9239,22 @@
         <v>0.0</v>
       </c>
       <c r="G62" s="72" t="s">
-        <v>385</v>
+        <v>286</v>
       </c>
       <c r="H62" s="72" t="s">
-        <v>386</v>
+        <v>287</v>
       </c>
       <c r="I62" s="72" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="J62" s="72" t="s">
-        <v>388</v>
+        <v>289</v>
       </c>
       <c r="K62" s="72" t="s">
-        <v>389</v>
+        <v>290</v>
       </c>
       <c r="L62" s="72" t="s">
-        <v>390</v>
+        <v>291</v>
       </c>
       <c r="M62" s="84"/>
       <c r="N62" s="84"/>
@@ -9273,10 +9273,10 @@
     </row>
     <row r="63" ht="59.25" customHeight="true">
       <c r="A63" s="64" t="s">
-        <v>391</v>
+        <v>292</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>392</v>
+        <v>293</v>
       </c>
       <c r="C63" s="66" t="n">
         <v>44000.0</v>
@@ -9291,34 +9291,34 @@
         <v>0.0</v>
       </c>
       <c r="G63" s="70" t="s">
-        <v>393</v>
+        <v>294</v>
       </c>
       <c r="H63" s="70" t="s">
-        <v>394</v>
+        <v>295</v>
       </c>
       <c r="I63" s="70" t="s">
-        <v>395</v>
+        <v>296</v>
       </c>
       <c r="J63" s="72" t="s">
-        <v>396</v>
+        <v>297</v>
       </c>
       <c r="K63" s="70" t="s">
-        <v>397</v>
+        <v>298</v>
       </c>
       <c r="L63" s="70" t="s">
-        <v>398</v>
+        <v>299</v>
       </c>
       <c r="M63" s="70" t="s">
-        <v>399</v>
+        <v>300</v>
       </c>
       <c r="N63" s="70" t="s">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="O63" s="70" t="s">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="P63" s="80" t="s">
-        <v>402</v>
+        <v>303</v>
       </c>
       <c r="Q63" s="70"/>
       <c r="R63" s="70"/>
@@ -9333,16 +9333,16 @@
     </row>
     <row r="64" ht="46.5" customHeight="true">
       <c r="A64" s="64" t="s">
-        <v>403</v>
+        <v>304</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
       <c r="C64" s="66" t="n">
         <v>43996.0</v>
       </c>
       <c r="D64" s="67" t="s">
-        <v>405</v>
+        <v>306</v>
       </c>
       <c r="E64" s="68" t="n">
         <f>COUNTA(G64:Z64)</f>
@@ -9353,19 +9353,19 @@
         <v>0.0</v>
       </c>
       <c r="G64" s="70" t="s">
-        <v>406</v>
+        <v>307</v>
       </c>
       <c r="H64" s="70" t="s">
-        <v>407</v>
+        <v>308</v>
       </c>
       <c r="I64" s="70" t="s">
-        <v>408</v>
+        <v>309</v>
       </c>
       <c r="J64" s="70" t="s">
-        <v>409</v>
+        <v>310</v>
       </c>
       <c r="K64" s="70" t="s">
-        <v>410</v>
+        <v>311</v>
       </c>
       <c r="L64" s="72"/>
       <c r="M64" s="70"/>
@@ -9385,10 +9385,10 @@
     </row>
     <row r="65" ht="46.5" customHeight="true">
       <c r="A65" s="64" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
       <c r="C65" s="66" t="n">
         <v>43980.0</v>
@@ -9403,31 +9403,31 @@
         <v>0.0</v>
       </c>
       <c r="G65" s="70" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
       <c r="H65" s="70" t="s">
-        <v>413</v>
+        <v>314</v>
       </c>
       <c r="I65" s="70" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
       <c r="J65" s="72" t="s">
-        <v>415</v>
+        <v>316</v>
       </c>
       <c r="K65" s="70" t="s">
-        <v>416</v>
+        <v>317</v>
       </c>
       <c r="L65" s="72" t="s">
-        <v>417</v>
+        <v>318</v>
       </c>
       <c r="M65" s="70" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="N65" s="70" t="s">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="O65" s="70" t="s">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="P65" s="84"/>
       <c r="Q65" s="70"/>
@@ -9443,10 +9443,10 @@
     </row>
     <row r="66" ht="46.5" customHeight="true">
       <c r="A66" s="64" t="s">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="C66" s="66" t="n">
         <v>43979.0</v>
@@ -9461,7 +9461,7 @@
         <v>0.0</v>
       </c>
       <c r="G66" s="70" t="s">
-        <v>422</v>
+        <v>323</v>
       </c>
       <c r="H66" s="70"/>
       <c r="I66" s="70"/>
@@ -9485,10 +9485,10 @@
     </row>
     <row r="67" ht="45.0" customHeight="true">
       <c r="A67" s="64" t="s">
-        <v>423</v>
+        <v>324</v>
       </c>
       <c r="B67" s="65" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
       <c r="C67" s="66" t="n">
         <v>43945.0</v>
@@ -9503,7 +9503,7 @@
         <v>0.0</v>
       </c>
       <c r="G67" s="70" t="s">
-        <v>425</v>
+        <v>326</v>
       </c>
       <c r="H67" s="70"/>
       <c r="I67" s="70"/>
@@ -9527,10 +9527,10 @@
     </row>
     <row r="68" ht="45.0" customHeight="true">
       <c r="A68" s="64" t="s">
-        <v>426</v>
+        <v>327</v>
       </c>
       <c r="B68" s="65" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C68" s="66" t="n">
         <v>43931.0</v>
@@ -9545,46 +9545,46 @@
         <v>0.0</v>
       </c>
       <c r="G68" s="70" t="s">
-        <v>427</v>
+        <v>328</v>
       </c>
       <c r="H68" s="70" t="s">
-        <v>428</v>
+        <v>329</v>
       </c>
       <c r="I68" s="70" t="s">
-        <v>429</v>
+        <v>330</v>
       </c>
       <c r="J68" s="70" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
       <c r="K68" s="70" t="s">
-        <v>431</v>
+        <v>332</v>
       </c>
       <c r="L68" s="72" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
       <c r="M68" s="72" t="s">
-        <v>433</v>
+        <v>334</v>
       </c>
       <c r="N68" s="72" t="s">
-        <v>434</v>
+        <v>335</v>
       </c>
       <c r="O68" s="72" t="s">
-        <v>435</v>
+        <v>336</v>
       </c>
       <c r="P68" s="70" t="s">
-        <v>436</v>
+        <v>337</v>
       </c>
       <c r="Q68" s="70" t="s">
-        <v>437</v>
+        <v>338</v>
       </c>
       <c r="R68" s="70" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
       <c r="S68" s="70" t="s">
-        <v>439</v>
+        <v>340</v>
       </c>
       <c r="T68" s="87" t="s">
-        <v>440</v>
+        <v>341</v>
       </c>
       <c r="U68" s="65"/>
       <c r="V68" s="65"/>
@@ -9595,16 +9595,16 @@
     </row>
     <row r="69" ht="45.0" customHeight="true">
       <c r="A69" s="64" t="s">
-        <v>441</v>
+        <v>342</v>
       </c>
       <c r="B69" s="65" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="C69" s="66" t="n">
         <v>43920.0</v>
       </c>
       <c r="D69" s="67" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="E69" s="68" t="n">
         <f>COUNTA(G69:Z69)</f>
@@ -9615,10 +9615,10 @@
         <v>0.0</v>
       </c>
       <c r="G69" s="72" t="s">
-        <v>442</v>
+        <v>343</v>
       </c>
       <c r="H69" s="72" t="s">
-        <v>443</v>
+        <v>344</v>
       </c>
       <c r="I69" s="84"/>
       <c r="J69" s="84"/>
@@ -9641,10 +9641,10 @@
     </row>
     <row r="70" ht="45.0" customHeight="true">
       <c r="A70" s="64" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
       <c r="B70" s="65" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="C70" s="66" t="n">
         <v>43910.0</v>
@@ -9659,16 +9659,16 @@
         <v>0.0</v>
       </c>
       <c r="G70" s="70" t="s">
-        <v>446</v>
+        <v>347</v>
       </c>
       <c r="H70" s="70" t="s">
-        <v>447</v>
+        <v>348</v>
       </c>
       <c r="I70" s="70" t="s">
-        <v>448</v>
+        <v>349</v>
       </c>
       <c r="J70" s="80" t="s">
-        <v>449</v>
+        <v>350</v>
       </c>
       <c r="K70" s="84"/>
       <c r="L70" s="84"/>
@@ -9689,10 +9689,10 @@
     </row>
     <row r="71" ht="45.0" customHeight="true">
       <c r="A71" s="64" t="s">
-        <v>60</v>
+        <v>351</v>
       </c>
       <c r="B71" s="65" t="s">
-        <v>450</v>
+        <v>352</v>
       </c>
       <c r="C71" s="66" t="n">
         <v>43910.0</v>
@@ -9707,37 +9707,37 @@
         <v>0.0</v>
       </c>
       <c r="G71" s="70" t="s">
-        <v>451</v>
+        <v>353</v>
       </c>
       <c r="H71" s="72" t="s">
-        <v>452</v>
+        <v>354</v>
       </c>
       <c r="I71" s="70" t="s">
-        <v>453</v>
+        <v>355</v>
       </c>
       <c r="J71" s="72" t="s">
-        <v>454</v>
+        <v>356</v>
       </c>
       <c r="K71" s="70" t="s">
-        <v>455</v>
+        <v>357</v>
       </c>
       <c r="L71" s="70" t="s">
-        <v>456</v>
+        <v>358</v>
       </c>
       <c r="M71" s="72" t="s">
-        <v>457</v>
+        <v>359</v>
       </c>
       <c r="N71" s="70" t="s">
-        <v>458</v>
+        <v>360</v>
       </c>
       <c r="O71" s="70" t="s">
-        <v>459</v>
+        <v>361</v>
       </c>
       <c r="P71" s="70" t="s">
-        <v>460</v>
+        <v>362</v>
       </c>
       <c r="Q71" s="72" t="s">
-        <v>461</v>
+        <v>363</v>
       </c>
       <c r="R71" s="70"/>
       <c r="S71" s="70"/>
@@ -9751,16 +9751,16 @@
     </row>
     <row r="72" ht="45.0" customHeight="true">
       <c r="A72" s="64" t="s">
-        <v>41</v>
+        <v>364</v>
       </c>
       <c r="B72" s="65" t="s">
-        <v>462</v>
+        <v>365</v>
       </c>
       <c r="C72" s="66" t="n">
         <v>43909.0</v>
       </c>
       <c r="D72" s="67" t="s">
-        <v>463</v>
+        <v>366</v>
       </c>
       <c r="E72" s="68" t="n">
         <f>COUNTA(G72:Z72)</f>
@@ -9771,55 +9771,55 @@
         <v>0.0</v>
       </c>
       <c r="G72" s="70" t="s">
-        <v>464</v>
+        <v>367</v>
       </c>
       <c r="H72" s="70" t="s">
-        <v>465</v>
+        <v>368</v>
       </c>
       <c r="I72" s="70" t="s">
-        <v>466</v>
+        <v>369</v>
       </c>
       <c r="J72" s="70" t="s">
-        <v>467</v>
+        <v>370</v>
       </c>
       <c r="K72" s="70" t="s">
-        <v>468</v>
+        <v>371</v>
       </c>
       <c r="L72" s="70" t="s">
-        <v>469</v>
+        <v>372</v>
       </c>
       <c r="M72" s="72" t="s">
-        <v>470</v>
+        <v>373</v>
       </c>
       <c r="N72" s="70" t="s">
-        <v>471</v>
+        <v>374</v>
       </c>
       <c r="O72" s="70" t="s">
-        <v>472</v>
+        <v>375</v>
       </c>
       <c r="P72" s="70" t="s">
-        <v>473</v>
+        <v>376</v>
       </c>
       <c r="Q72" s="70" t="s">
-        <v>474</v>
+        <v>377</v>
       </c>
       <c r="R72" s="70" t="s">
-        <v>475</v>
+        <v>378</v>
       </c>
       <c r="S72" s="70" t="s">
-        <v>476</v>
+        <v>379</v>
       </c>
       <c r="T72" s="65" t="s">
-        <v>477</v>
+        <v>380</v>
       </c>
       <c r="U72" s="65" t="s">
-        <v>478</v>
+        <v>381</v>
       </c>
       <c r="V72" s="65" t="s">
-        <v>479</v>
+        <v>382</v>
       </c>
       <c r="W72" s="65" t="s">
-        <v>480</v>
+        <v>383</v>
       </c>
       <c r="X72" s="65"/>
       <c r="Y72" s="65"/>
@@ -9827,10 +9827,10 @@
     </row>
     <row r="73" ht="45.0" customHeight="true">
       <c r="A73" s="64" t="s">
-        <v>18</v>
+        <v>384</v>
       </c>
       <c r="B73" s="65" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="C73" s="73" t="n">
         <v>43902.0</v>
@@ -9845,25 +9845,25 @@
         <v>0.0</v>
       </c>
       <c r="G73" s="70" t="s">
-        <v>481</v>
+        <v>385</v>
       </c>
       <c r="H73" s="70" t="s">
-        <v>482</v>
+        <v>386</v>
       </c>
       <c r="I73" s="70" t="s">
-        <v>483</v>
+        <v>387</v>
       </c>
       <c r="J73" s="70" t="s">
-        <v>484</v>
+        <v>388</v>
       </c>
       <c r="K73" s="70" t="s">
-        <v>485</v>
+        <v>389</v>
       </c>
       <c r="L73" s="80" t="s">
-        <v>486</v>
+        <v>390</v>
       </c>
       <c r="M73" s="80" t="s">
-        <v>487</v>
+        <v>391</v>
       </c>
       <c r="N73" s="84"/>
       <c r="O73" s="84"/>
@@ -9881,10 +9881,10 @@
     </row>
     <row r="74" ht="45.0" customHeight="true">
       <c r="A74" s="64" t="s">
-        <v>488</v>
+        <v>392</v>
       </c>
       <c r="B74" s="65" t="s">
-        <v>489</v>
+        <v>393</v>
       </c>
       <c r="C74" s="66" t="n">
         <v>43901.0</v>
@@ -9899,10 +9899,10 @@
         <v>0.0</v>
       </c>
       <c r="G74" s="70" t="s">
-        <v>490</v>
+        <v>394</v>
       </c>
       <c r="H74" s="70" t="s">
-        <v>491</v>
+        <v>395</v>
       </c>
       <c r="I74" s="84"/>
       <c r="J74" s="84"/>
@@ -9925,10 +9925,10 @@
     </row>
     <row r="75" ht="45.0" customHeight="true">
       <c r="A75" s="64" t="s">
-        <v>31</v>
+        <v>396</v>
       </c>
       <c r="B75" s="65" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
       <c r="C75" s="66" t="n">
         <v>43881.0</v>
@@ -9943,22 +9943,22 @@
         <v>0.0</v>
       </c>
       <c r="G75" s="70" t="s">
-        <v>492</v>
+        <v>397</v>
       </c>
       <c r="H75" s="70" t="s">
-        <v>493</v>
+        <v>398</v>
       </c>
       <c r="I75" s="70" t="s">
-        <v>494</v>
+        <v>399</v>
       </c>
       <c r="J75" s="70" t="s">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="K75" s="72" t="s">
-        <v>496</v>
+        <v>401</v>
       </c>
       <c r="L75" s="72" t="s">
-        <v>497</v>
+        <v>402</v>
       </c>
       <c r="M75" s="84"/>
       <c r="N75" s="84"/>
@@ -9977,10 +9977,10 @@
     </row>
     <row r="76" ht="45.0" customHeight="true">
       <c r="A76" s="64" t="s">
-        <v>498</v>
+        <v>403</v>
       </c>
       <c r="B76" s="65" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C76" s="66" t="n">
         <v>43874.0</v>
@@ -9995,7 +9995,7 @@
         <v>0.0</v>
       </c>
       <c r="G76" s="72" t="s">
-        <v>499</v>
+        <v>404</v>
       </c>
       <c r="H76" s="70"/>
       <c r="I76" s="70"/>
@@ -10019,10 +10019,10 @@
     </row>
     <row r="77" ht="45.0" customHeight="true">
       <c r="A77" s="64" t="s">
-        <v>500</v>
+        <v>405</v>
       </c>
       <c r="B77" s="65" t="s">
-        <v>501</v>
+        <v>406</v>
       </c>
       <c r="C77" s="66" t="n">
         <v>43867.0</v>
@@ -10037,16 +10037,16 @@
         <v>0.0</v>
       </c>
       <c r="G77" s="70" t="s">
-        <v>502</v>
+        <v>407</v>
       </c>
       <c r="H77" s="70" t="s">
-        <v>503</v>
+        <v>408</v>
       </c>
       <c r="I77" s="70" t="s">
-        <v>504</v>
+        <v>409</v>
       </c>
       <c r="J77" s="70" t="s">
-        <v>505</v>
+        <v>410</v>
       </c>
       <c r="K77" s="84"/>
       <c r="L77" s="84"/>
@@ -10067,10 +10067,10 @@
     </row>
     <row r="78" ht="45.0" customHeight="true">
       <c r="A78" s="64" t="s">
-        <v>506</v>
+        <v>411</v>
       </c>
       <c r="B78" s="65" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="C78" s="66" t="n">
         <v>43867.0</v>
@@ -10085,10 +10085,10 @@
         <v>0.0</v>
       </c>
       <c r="G78" s="70" t="s">
-        <v>508</v>
+        <v>413</v>
       </c>
       <c r="H78" s="70" t="s">
-        <v>509</v>
+        <v>414</v>
       </c>
       <c r="I78" s="70"/>
       <c r="J78" s="70"/>
@@ -10111,10 +10111,10 @@
     </row>
     <row r="79" ht="45.0" customHeight="true">
       <c r="A79" s="64" t="s">
-        <v>42</v>
+        <v>415</v>
       </c>
       <c r="B79" s="65" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
       <c r="C79" s="66" t="n">
         <v>43847.0</v>
@@ -10129,10 +10129,10 @@
         <v>0.0</v>
       </c>
       <c r="G79" s="72" t="s">
-        <v>510</v>
+        <v>416</v>
       </c>
       <c r="H79" s="72" t="s">
-        <v>511</v>
+        <v>417</v>
       </c>
       <c r="I79" s="70"/>
       <c r="J79" s="84"/>
@@ -10155,10 +10155,10 @@
     </row>
     <row r="80" ht="45.0" customHeight="true">
       <c r="A80" s="64" t="s">
-        <v>512</v>
+        <v>418</v>
       </c>
       <c r="B80" s="65" t="s">
-        <v>513</v>
+        <v>419</v>
       </c>
       <c r="C80" s="66" t="n">
         <v>43846.0</v>
@@ -10173,16 +10173,16 @@
         <v>0.0</v>
       </c>
       <c r="G80" s="70" t="s">
-        <v>514</v>
+        <v>420</v>
       </c>
       <c r="H80" s="72" t="s">
-        <v>515</v>
+        <v>421</v>
       </c>
       <c r="I80" s="70" t="s">
-        <v>516</v>
+        <v>422</v>
       </c>
       <c r="J80" s="72" t="s">
-        <v>517</v>
+        <v>423</v>
       </c>
       <c r="K80" s="84"/>
       <c r="L80" s="84"/>
@@ -10203,10 +10203,10 @@
     </row>
     <row r="81" ht="45.0" customHeight="true">
       <c r="A81" s="64" t="s">
-        <v>518</v>
+        <v>424</v>
       </c>
       <c r="B81" s="65" t="s">
-        <v>519</v>
+        <v>425</v>
       </c>
       <c r="C81" s="66" t="n">
         <v>43846.0</v>
@@ -10221,13 +10221,13 @@
         <v>0.0</v>
       </c>
       <c r="G81" s="70" t="s">
-        <v>520</v>
+        <v>426</v>
       </c>
       <c r="H81" s="70" t="s">
-        <v>521</v>
+        <v>427</v>
       </c>
       <c r="I81" s="70" t="s">
-        <v>522</v>
+        <v>428</v>
       </c>
       <c r="J81" s="84"/>
       <c r="K81" s="84"/>
@@ -10249,16 +10249,16 @@
     </row>
     <row r="82" ht="45.0" customHeight="true">
       <c r="A82" s="37" t="s">
-        <v>523</v>
+        <v>429</v>
       </c>
       <c r="B82" s="65" t="s">
-        <v>524</v>
+        <v>430</v>
       </c>
       <c r="C82" s="66" t="n">
         <v>43811.0</v>
       </c>
       <c r="D82" s="83" t="s">
-        <v>525</v>
+        <v>431</v>
       </c>
       <c r="E82" s="68" t="n">
         <f>COUNTA(G82:Z82)</f>
@@ -10269,10 +10269,10 @@
         <v>0.0</v>
       </c>
       <c r="G82" s="70" t="s">
-        <v>526</v>
+        <v>432</v>
       </c>
       <c r="H82" s="72" t="s">
-        <v>527</v>
+        <v>433</v>
       </c>
       <c r="I82" s="70"/>
       <c r="J82" s="84"/>
@@ -10295,10 +10295,10 @@
     </row>
     <row r="83" ht="45.0" customHeight="true">
       <c r="A83" s="37" t="s">
-        <v>528</v>
+        <v>434</v>
       </c>
       <c r="B83" s="65" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="C83" s="66" t="n">
         <v>43784.0</v>
@@ -10313,13 +10313,13 @@
         <v>0.0</v>
       </c>
       <c r="G83" s="72" t="s">
-        <v>529</v>
+        <v>435</v>
       </c>
       <c r="H83" s="82" t="s">
-        <v>530</v>
+        <v>436</v>
       </c>
       <c r="I83" s="70" t="s">
-        <v>531</v>
+        <v>437</v>
       </c>
       <c r="J83" s="84"/>
       <c r="K83" s="84"/>
@@ -10341,10 +10341,10 @@
     </row>
     <row r="84" ht="44.25" customHeight="true">
       <c r="A84" s="37" t="s">
-        <v>61</v>
+        <v>438</v>
       </c>
       <c r="B84" s="65" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="C84" s="66" t="n">
         <v>43784.0</v>
@@ -10359,25 +10359,25 @@
         <v>0.0</v>
       </c>
       <c r="G84" s="70" t="s">
-        <v>532</v>
+        <v>439</v>
       </c>
       <c r="H84" s="72" t="s">
-        <v>533</v>
+        <v>440</v>
       </c>
       <c r="I84" s="72" t="s">
-        <v>534</v>
+        <v>441</v>
       </c>
       <c r="J84" s="72" t="s">
-        <v>535</v>
+        <v>442</v>
       </c>
       <c r="K84" s="72" t="s">
-        <v>536</v>
+        <v>443</v>
       </c>
       <c r="L84" s="72" t="s">
-        <v>537</v>
+        <v>444</v>
       </c>
       <c r="M84" s="82" t="s">
-        <v>538</v>
+        <v>445</v>
       </c>
       <c r="N84" s="84"/>
       <c r="O84" s="84"/>
@@ -10395,10 +10395,10 @@
     </row>
     <row r="85" ht="45.0" customHeight="true">
       <c r="A85" s="37" t="s">
-        <v>539</v>
+        <v>446</v>
       </c>
       <c r="B85" s="65" t="s">
-        <v>540</v>
+        <v>447</v>
       </c>
       <c r="C85" s="66" t="n">
         <v>43777.0</v>
@@ -10413,28 +10413,28 @@
         <v>0.0</v>
       </c>
       <c r="G85" s="70" t="s">
-        <v>541</v>
+        <v>448</v>
       </c>
       <c r="H85" s="70" t="s">
-        <v>542</v>
+        <v>449</v>
       </c>
       <c r="I85" s="70" t="s">
-        <v>543</v>
+        <v>450</v>
       </c>
       <c r="J85" s="70" t="s">
-        <v>544</v>
+        <v>451</v>
       </c>
       <c r="K85" s="70" t="s">
-        <v>545</v>
+        <v>452</v>
       </c>
       <c r="L85" s="72" t="s">
-        <v>546</v>
+        <v>453</v>
       </c>
       <c r="M85" s="70" t="s">
-        <v>547</v>
+        <v>454</v>
       </c>
       <c r="N85" s="70" t="s">
-        <v>548</v>
+        <v>455</v>
       </c>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
@@ -10451,10 +10451,10 @@
     </row>
     <row r="86" ht="45.0" customHeight="true">
       <c r="A86" s="37" t="s">
-        <v>549</v>
+        <v>456</v>
       </c>
       <c r="B86" s="65" t="s">
-        <v>550</v>
+        <v>457</v>
       </c>
       <c r="C86" s="66" t="n">
         <v>43763.0</v>
@@ -10469,10 +10469,10 @@
         <v>0.0</v>
       </c>
       <c r="G86" s="70" t="s">
-        <v>551</v>
+        <v>458</v>
       </c>
       <c r="H86" s="70" t="s">
-        <v>552</v>
+        <v>459</v>
       </c>
       <c r="I86" s="84"/>
       <c r="J86" s="84"/>
@@ -10495,16 +10495,16 @@
     </row>
     <row r="87" ht="45.0" customHeight="true">
       <c r="A87" s="37" t="s">
-        <v>553</v>
+        <v>460</v>
       </c>
       <c r="B87" s="65" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="C87" s="66" t="n">
         <v>43763.0</v>
       </c>
       <c r="D87" s="83" t="s">
-        <v>525</v>
+        <v>431</v>
       </c>
       <c r="E87" s="68" t="n">
         <f>COUNTA(G87:Z87)</f>
@@ -10515,16 +10515,16 @@
         <v>0.0</v>
       </c>
       <c r="G87" s="70" t="s">
-        <v>554</v>
+        <v>461</v>
       </c>
       <c r="H87" s="70" t="s">
-        <v>555</v>
+        <v>462</v>
       </c>
       <c r="I87" s="70" t="s">
-        <v>556</v>
+        <v>463</v>
       </c>
       <c r="J87" s="82" t="s">
-        <v>557</v>
+        <v>464</v>
       </c>
       <c r="K87" s="84"/>
       <c r="L87" s="84"/>
@@ -10545,10 +10545,10 @@
     </row>
     <row r="88" ht="45.0" customHeight="true">
       <c r="A88" s="37" t="s">
-        <v>88</v>
+        <v>465</v>
       </c>
       <c r="B88" s="65" t="s">
-        <v>558</v>
+        <v>466</v>
       </c>
       <c r="C88" s="66" t="n">
         <v>43756.0</v>
@@ -10563,19 +10563,19 @@
         <v>0.0</v>
       </c>
       <c r="G88" s="70" t="s">
-        <v>559</v>
+        <v>467</v>
       </c>
       <c r="H88" s="70" t="s">
-        <v>560</v>
+        <v>468</v>
       </c>
       <c r="I88" s="84" t="s">
-        <v>561</v>
+        <v>469</v>
       </c>
       <c r="J88" s="70" t="s">
-        <v>562</v>
+        <v>470</v>
       </c>
       <c r="K88" s="70" t="s">
-        <v>563</v>
+        <v>471</v>
       </c>
       <c r="L88" s="84"/>
       <c r="M88" s="84"/>
@@ -10595,10 +10595,10 @@
     </row>
     <row r="89" ht="45.0" customHeight="true">
       <c r="A89" s="37" t="s">
-        <v>20</v>
+        <v>472</v>
       </c>
       <c r="B89" s="65" t="s">
-        <v>564</v>
+        <v>473</v>
       </c>
       <c r="C89" s="66" t="n">
         <v>43753.0</v>
@@ -10613,16 +10613,16 @@
         <v>0.0</v>
       </c>
       <c r="G89" s="70" t="s">
-        <v>565</v>
+        <v>474</v>
       </c>
       <c r="H89" s="70" t="s">
-        <v>566</v>
+        <v>475</v>
       </c>
       <c r="I89" s="70" t="s">
-        <v>567</v>
+        <v>476</v>
       </c>
       <c r="J89" s="70" t="s">
-        <v>568</v>
+        <v>477</v>
       </c>
       <c r="K89" s="84"/>
       <c r="L89" s="84"/>
@@ -10643,10 +10643,10 @@
     </row>
     <row r="90" ht="45.0" customHeight="true">
       <c r="A90" s="37" t="s">
-        <v>569</v>
+        <v>478</v>
       </c>
       <c r="B90" s="65" t="s">
-        <v>501</v>
+        <v>406</v>
       </c>
       <c r="C90" s="66" t="n">
         <v>43734.0</v>
@@ -10661,16 +10661,16 @@
         <v>0.0</v>
       </c>
       <c r="G90" s="70" t="s">
-        <v>570</v>
+        <v>479</v>
       </c>
       <c r="H90" s="72" t="s">
-        <v>571</v>
+        <v>480</v>
       </c>
       <c r="I90" s="70" t="s">
-        <v>572</v>
+        <v>481</v>
       </c>
       <c r="J90" s="72" t="s">
-        <v>573</v>
+        <v>482</v>
       </c>
       <c r="K90" s="84"/>
       <c r="L90" s="84"/>
@@ -10691,10 +10691,10 @@
     </row>
     <row r="91" ht="45.0" customHeight="true">
       <c r="A91" s="37" t="s">
-        <v>32</v>
+        <v>483</v>
       </c>
       <c r="B91" s="65" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="C91" s="66" t="n">
         <v>43734.0</v>
@@ -10709,16 +10709,16 @@
         <v>0.0</v>
       </c>
       <c r="G91" s="70" t="s">
-        <v>574</v>
+        <v>484</v>
       </c>
       <c r="H91" s="70" t="s">
-        <v>575</v>
+        <v>485</v>
       </c>
       <c r="I91" s="70" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="J91" s="72" t="s">
-        <v>577</v>
+        <v>487</v>
       </c>
       <c r="K91" s="85" t="s">
         <v>1320</v>
@@ -10741,10 +10741,10 @@
     </row>
     <row r="92" ht="45.0" customHeight="true">
       <c r="A92" s="37" t="s">
-        <v>578</v>
+        <v>488</v>
       </c>
       <c r="B92" s="65" t="s">
-        <v>579</v>
+        <v>489</v>
       </c>
       <c r="C92" s="66" t="n">
         <v>43728.0</v>
@@ -10759,16 +10759,16 @@
         <v>0.0</v>
       </c>
       <c r="G92" s="70" t="s">
-        <v>580</v>
+        <v>490</v>
       </c>
       <c r="H92" s="70" t="s">
-        <v>581</v>
+        <v>491</v>
       </c>
       <c r="I92" s="70" t="s">
-        <v>582</v>
+        <v>492</v>
       </c>
       <c r="J92" s="70" t="s">
-        <v>583</v>
+        <v>493</v>
       </c>
       <c r="K92" s="84"/>
       <c r="L92" s="84"/>
@@ -10789,10 +10789,10 @@
     </row>
     <row r="93" ht="45.0" customHeight="true">
       <c r="A93" s="37" t="s">
-        <v>584</v>
+        <v>494</v>
       </c>
       <c r="B93" s="65" t="s">
-        <v>585</v>
+        <v>495</v>
       </c>
       <c r="C93" s="66" t="n">
         <v>43728.0</v>
@@ -10807,7 +10807,7 @@
         <v>0.0</v>
       </c>
       <c r="G93" s="70" t="s">
-        <v>586</v>
+        <v>496</v>
       </c>
       <c r="H93" s="84"/>
       <c r="I93" s="84"/>
@@ -10831,10 +10831,10 @@
     </row>
     <row r="94" ht="45.0" customHeight="true">
       <c r="A94" s="37" t="s">
-        <v>587</v>
+        <v>497</v>
       </c>
       <c r="B94" s="65" t="s">
-        <v>588</v>
+        <v>498</v>
       </c>
       <c r="C94" s="66" t="n">
         <v>43726.0</v>
@@ -10849,19 +10849,19 @@
         <v>0.0</v>
       </c>
       <c r="G94" s="70" t="s">
-        <v>589</v>
+        <v>499</v>
       </c>
       <c r="H94" s="70" t="s">
-        <v>590</v>
+        <v>500</v>
       </c>
       <c r="I94" s="70" t="s">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="J94" s="84" t="s">
-        <v>592</v>
+        <v>502</v>
       </c>
       <c r="K94" s="72" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="L94" s="84"/>
       <c r="M94" s="84"/>
@@ -10881,10 +10881,10 @@
     </row>
     <row r="95" ht="45.0" customHeight="true">
       <c r="A95" s="37" t="s">
-        <v>78</v>
+        <v>504</v>
       </c>
       <c r="B95" s="65" t="s">
-        <v>594</v>
+        <v>505</v>
       </c>
       <c r="C95" s="66" t="n">
         <v>43721.0</v>
@@ -10899,16 +10899,16 @@
         <v>0.0</v>
       </c>
       <c r="G95" s="70" t="s">
-        <v>595</v>
+        <v>506</v>
       </c>
       <c r="H95" s="70" t="s">
-        <v>596</v>
+        <v>507</v>
       </c>
       <c r="I95" s="70" t="s">
-        <v>597</v>
+        <v>508</v>
       </c>
       <c r="J95" s="72" t="s">
-        <v>598</v>
+        <v>509</v>
       </c>
       <c r="K95" s="84"/>
       <c r="L95" s="84"/>
@@ -10929,10 +10929,10 @@
     </row>
     <row r="96" ht="45.0" customHeight="true">
       <c r="A96" s="37" t="s">
-        <v>599</v>
+        <v>510</v>
       </c>
       <c r="B96" s="65" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="C96" s="66" t="n">
         <v>43714.0</v>
@@ -10947,22 +10947,22 @@
         <v>0.0</v>
       </c>
       <c r="G96" s="72" t="s">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="H96" s="70" t="s">
-        <v>601</v>
+        <v>512</v>
       </c>
       <c r="I96" s="70" t="s">
-        <v>602</v>
+        <v>513</v>
       </c>
       <c r="J96" s="70" t="s">
-        <v>603</v>
+        <v>514</v>
       </c>
       <c r="K96" s="70" t="s">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="L96" s="72" t="s">
-        <v>605</v>
+        <v>516</v>
       </c>
       <c r="M96" s="84"/>
       <c r="N96" s="84"/>
@@ -10981,10 +10981,10 @@
     </row>
     <row r="97" ht="45.0" customHeight="true">
       <c r="A97" s="37" t="s">
-        <v>606</v>
+        <v>517</v>
       </c>
       <c r="B97" s="65" t="s">
-        <v>607</v>
+        <v>518</v>
       </c>
       <c r="C97" s="66" t="n">
         <v>43714.0</v>
@@ -10999,7 +10999,7 @@
         <v>0.0</v>
       </c>
       <c r="G97" s="70" t="s">
-        <v>608</v>
+        <v>519</v>
       </c>
       <c r="H97" s="84"/>
       <c r="I97" s="84"/>
@@ -11023,10 +11023,10 @@
     </row>
     <row r="98" ht="45.0" customHeight="true">
       <c r="A98" s="37" t="s">
-        <v>609</v>
+        <v>520</v>
       </c>
       <c r="B98" s="65" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="C98" s="66" t="n">
         <v>43707.0</v>
@@ -11041,16 +11041,16 @@
         <v>0.0</v>
       </c>
       <c r="G98" s="70" t="s">
-        <v>610</v>
+        <v>521</v>
       </c>
       <c r="H98" s="70" t="s">
-        <v>611</v>
+        <v>522</v>
       </c>
       <c r="I98" s="70" t="s">
-        <v>612</v>
+        <v>523</v>
       </c>
       <c r="J98" s="84" t="s">
-        <v>613</v>
+        <v>524</v>
       </c>
       <c r="K98" s="84"/>
       <c r="L98" s="84"/>
@@ -11071,10 +11071,10 @@
     </row>
     <row r="99" ht="45.0" customHeight="true">
       <c r="A99" s="37" t="s">
-        <v>43</v>
+        <v>525</v>
       </c>
       <c r="B99" s="65" t="s">
-        <v>614</v>
+        <v>526</v>
       </c>
       <c r="C99" s="66" t="n">
         <v>43704.0</v>
@@ -11089,10 +11089,10 @@
         <v>0.0</v>
       </c>
       <c r="G99" s="70" t="s">
-        <v>615</v>
+        <v>527</v>
       </c>
       <c r="H99" s="72" t="s">
-        <v>616</v>
+        <v>528</v>
       </c>
       <c r="I99" s="84"/>
       <c r="J99" s="84"/>
@@ -11115,10 +11115,10 @@
     </row>
     <row r="100" ht="45.0" customHeight="true">
       <c r="A100" s="37" t="s">
-        <v>617</v>
+        <v>529</v>
       </c>
       <c r="B100" s="65" t="s">
-        <v>618</v>
+        <v>530</v>
       </c>
       <c r="C100" s="66" t="n">
         <v>43672.0</v>
@@ -11133,40 +11133,40 @@
         <v>0.0</v>
       </c>
       <c r="G100" s="70" t="s">
-        <v>619</v>
+        <v>531</v>
       </c>
       <c r="H100" s="70" t="s">
-        <v>620</v>
+        <v>532</v>
       </c>
       <c r="I100" s="70" t="s">
-        <v>621</v>
+        <v>533</v>
       </c>
       <c r="J100" s="70" t="s">
-        <v>622</v>
+        <v>534</v>
       </c>
       <c r="K100" s="72" t="s">
-        <v>623</v>
+        <v>535</v>
       </c>
       <c r="L100" s="72" t="s">
-        <v>624</v>
+        <v>536</v>
       </c>
       <c r="M100" s="72" t="s">
-        <v>625</v>
+        <v>537</v>
       </c>
       <c r="N100" s="70" t="s">
-        <v>626</v>
+        <v>538</v>
       </c>
       <c r="O100" s="70" t="s">
-        <v>627</v>
+        <v>539</v>
       </c>
       <c r="P100" s="72" t="s">
-        <v>628</v>
+        <v>540</v>
       </c>
       <c r="Q100" s="72" t="s">
-        <v>629</v>
+        <v>541</v>
       </c>
       <c r="R100" s="70" t="s">
-        <v>630</v>
+        <v>542</v>
       </c>
       <c r="S100" s="70"/>
       <c r="T100" s="65"/>
@@ -11179,10 +11179,10 @@
     </row>
     <row r="101" ht="45.0" customHeight="true">
       <c r="A101" s="37" t="s">
-        <v>631</v>
+        <v>543</v>
       </c>
       <c r="B101" s="65" t="s">
-        <v>489</v>
+        <v>393</v>
       </c>
       <c r="C101" s="66" t="n">
         <v>43634.0</v>
@@ -11197,19 +11197,19 @@
         <v>0.0</v>
       </c>
       <c r="G101" s="70" t="s">
-        <v>632</v>
+        <v>544</v>
       </c>
       <c r="H101" s="70" t="s">
-        <v>633</v>
+        <v>545</v>
       </c>
       <c r="I101" s="70" t="s">
-        <v>634</v>
+        <v>546</v>
       </c>
       <c r="J101" s="72" t="s">
-        <v>635</v>
+        <v>547</v>
       </c>
       <c r="K101" s="70" t="s">
-        <v>636</v>
+        <v>548</v>
       </c>
       <c r="L101" s="72"/>
       <c r="M101" s="84"/>
@@ -11229,10 +11229,10 @@
     </row>
     <row r="102" ht="45.0" customHeight="true">
       <c r="A102" s="37" t="s">
-        <v>637</v>
+        <v>549</v>
       </c>
       <c r="B102" s="65" t="s">
-        <v>638</v>
+        <v>550</v>
       </c>
       <c r="C102" s="66" t="n">
         <v>43613.0</v>
@@ -11247,10 +11247,10 @@
         <v>0.0</v>
       </c>
       <c r="G102" s="70" t="s">
-        <v>639</v>
+        <v>551</v>
       </c>
       <c r="H102" s="70" t="s">
-        <v>640</v>
+        <v>552</v>
       </c>
       <c r="I102" s="84"/>
       <c r="J102" s="84"/>
@@ -11273,10 +11273,10 @@
     </row>
     <row r="103" ht="45.0" customHeight="true">
       <c r="A103" s="37" t="s">
-        <v>641</v>
+        <v>553</v>
       </c>
       <c r="B103" s="65" t="s">
-        <v>642</v>
+        <v>554</v>
       </c>
       <c r="C103" s="66" t="n">
         <v>43599.0</v>
@@ -11291,10 +11291,10 @@
         <v>0.0</v>
       </c>
       <c r="G103" s="72" t="s">
-        <v>643</v>
+        <v>555</v>
       </c>
       <c r="H103" s="72" t="s">
-        <v>644</v>
+        <v>556</v>
       </c>
       <c r="I103" s="84"/>
       <c r="J103" s="84"/>
@@ -11317,10 +11317,10 @@
     </row>
     <row r="104" ht="45.0" customHeight="true">
       <c r="A104" s="37" t="s">
-        <v>645</v>
+        <v>557</v>
       </c>
       <c r="B104" s="65" t="s">
-        <v>646</v>
+        <v>558</v>
       </c>
       <c r="C104" s="66" t="n">
         <v>43573.0</v>
@@ -11335,19 +11335,19 @@
         <v>0.0</v>
       </c>
       <c r="G104" s="70" t="s">
-        <v>647</v>
+        <v>559</v>
       </c>
       <c r="H104" s="70" t="s">
-        <v>648</v>
+        <v>560</v>
       </c>
       <c r="I104" s="70" t="s">
-        <v>649</v>
+        <v>561</v>
       </c>
       <c r="J104" s="70" t="s">
-        <v>650</v>
+        <v>562</v>
       </c>
       <c r="K104" s="70" t="s">
-        <v>651</v>
+        <v>563</v>
       </c>
       <c r="L104" s="84"/>
       <c r="M104" s="84"/>
@@ -11367,10 +11367,10 @@
     </row>
     <row r="105" ht="45.0" customHeight="true">
       <c r="A105" s="37" t="s">
-        <v>652</v>
+        <v>564</v>
       </c>
       <c r="B105" s="65" t="s">
-        <v>653</v>
+        <v>565</v>
       </c>
       <c r="C105" s="66" t="n">
         <v>43571.0</v>
@@ -11385,10 +11385,10 @@
         <v>0.0</v>
       </c>
       <c r="G105" s="70" t="s">
-        <v>654</v>
+        <v>566</v>
       </c>
       <c r="H105" s="80" t="s">
-        <v>655</v>
+        <v>567</v>
       </c>
       <c r="I105" s="84"/>
       <c r="J105" s="84"/>
@@ -11411,10 +11411,10 @@
     </row>
     <row r="106" ht="45.0" customHeight="true">
       <c r="A106" s="37" t="s">
-        <v>22</v>
+        <v>568</v>
       </c>
       <c r="B106" s="65" t="s">
-        <v>656</v>
+        <v>569</v>
       </c>
       <c r="C106" s="66" t="n">
         <v>43546.0</v>
@@ -11429,43 +11429,43 @@
         <v>0.0</v>
       </c>
       <c r="G106" s="70" t="s">
-        <v>657</v>
+        <v>570</v>
       </c>
       <c r="H106" s="70" t="s">
-        <v>658</v>
+        <v>571</v>
       </c>
       <c r="I106" s="70" t="s">
-        <v>659</v>
+        <v>572</v>
       </c>
       <c r="J106" s="70" t="s">
-        <v>660</v>
+        <v>573</v>
       </c>
       <c r="K106" s="70" t="s">
-        <v>661</v>
+        <v>574</v>
       </c>
       <c r="L106" s="70" t="s">
-        <v>662</v>
+        <v>575</v>
       </c>
       <c r="M106" s="70" t="s">
-        <v>663</v>
+        <v>576</v>
       </c>
       <c r="N106" s="70" t="s">
-        <v>664</v>
+        <v>577</v>
       </c>
       <c r="O106" s="70" t="s">
-        <v>665</v>
+        <v>578</v>
       </c>
       <c r="P106" s="72" t="s">
-        <v>666</v>
+        <v>579</v>
       </c>
       <c r="Q106" s="70" t="s">
-        <v>667</v>
+        <v>580</v>
       </c>
       <c r="R106" s="70" t="s">
-        <v>668</v>
+        <v>581</v>
       </c>
       <c r="S106" s="70" t="s">
-        <v>669</v>
+        <v>582</v>
       </c>
       <c r="T106" s="65"/>
       <c r="U106" s="65"/>
@@ -11477,10 +11477,10 @@
     </row>
     <row r="107" ht="45.0" customHeight="true">
       <c r="A107" s="37" t="s">
-        <v>670</v>
+        <v>583</v>
       </c>
       <c r="B107" s="65" t="s">
-        <v>671</v>
+        <v>584</v>
       </c>
       <c r="C107" s="66" t="n">
         <v>43539.0</v>
@@ -11495,13 +11495,13 @@
         <v>0.0</v>
       </c>
       <c r="G107" s="70" t="s">
-        <v>672</v>
+        <v>585</v>
       </c>
       <c r="H107" s="72" t="s">
-        <v>673</v>
+        <v>586</v>
       </c>
       <c r="I107" s="70" t="s">
-        <v>674</v>
+        <v>587</v>
       </c>
       <c r="J107" s="84"/>
       <c r="K107" s="84"/>
@@ -11523,10 +11523,10 @@
     </row>
     <row r="108" ht="45.0" customHeight="true">
       <c r="A108" s="37" t="s">
-        <v>675</v>
+        <v>588</v>
       </c>
       <c r="B108" s="65" t="s">
-        <v>676</v>
+        <v>589</v>
       </c>
       <c r="C108" s="66" t="n">
         <v>43537.0</v>
@@ -11541,16 +11541,16 @@
         <v>0.0</v>
       </c>
       <c r="G108" s="70" t="s">
-        <v>677</v>
+        <v>590</v>
       </c>
       <c r="H108" s="70" t="s">
-        <v>678</v>
+        <v>591</v>
       </c>
       <c r="I108" s="70" t="s">
-        <v>679</v>
+        <v>592</v>
       </c>
       <c r="J108" s="70" t="s">
-        <v>680</v>
+        <v>593</v>
       </c>
       <c r="K108" s="84"/>
       <c r="L108" s="84"/>
@@ -11571,10 +11571,10 @@
     </row>
     <row r="109" ht="45.0" customHeight="true">
       <c r="A109" s="37" t="s">
-        <v>681</v>
+        <v>594</v>
       </c>
       <c r="B109" s="65" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="C109" s="66" t="n">
         <v>43532.0</v>
@@ -11588,37 +11588,37 @@
         <v>7.0</v>
       </c>
       <c r="G109" s="70" t="s">
-        <v>682</v>
+        <v>595</v>
       </c>
       <c r="H109" s="70" t="s">
-        <v>683</v>
+        <v>596</v>
       </c>
       <c r="I109" s="84" t="s">
-        <v>684</v>
+        <v>597</v>
       </c>
       <c r="J109" s="72" t="s">
-        <v>685</v>
+        <v>598</v>
       </c>
       <c r="K109" s="72" t="s">
-        <v>686</v>
+        <v>599</v>
       </c>
       <c r="L109" s="70" t="s">
-        <v>687</v>
+        <v>600</v>
       </c>
       <c r="M109" s="72" t="s">
-        <v>688</v>
+        <v>601</v>
       </c>
       <c r="N109" s="70" t="s">
-        <v>689</v>
+        <v>602</v>
       </c>
       <c r="O109" s="70" t="s">
-        <v>690</v>
+        <v>603</v>
       </c>
       <c r="P109" s="70" t="s">
-        <v>691</v>
+        <v>604</v>
       </c>
       <c r="Q109" s="72" t="s">
-        <v>692</v>
+        <v>605</v>
       </c>
       <c r="R109" s="70"/>
       <c r="S109" s="70"/>
@@ -11632,10 +11632,10 @@
     </row>
     <row r="110" ht="45.0" customHeight="true">
       <c r="A110" s="37" t="s">
-        <v>693</v>
+        <v>606</v>
       </c>
       <c r="B110" s="65" t="s">
-        <v>694</v>
+        <v>607</v>
       </c>
       <c r="C110" s="66" t="n">
         <v>43522.0</v>
@@ -11650,7 +11650,7 @@
         <v>0.0</v>
       </c>
       <c r="G110" s="70" t="s">
-        <v>695</v>
+        <v>608</v>
       </c>
       <c r="H110" s="84"/>
       <c r="I110" s="84"/>
@@ -11674,10 +11674,10 @@
     </row>
     <row r="111" ht="45.0" customHeight="true">
       <c r="A111" s="37" t="s">
-        <v>696</v>
+        <v>609</v>
       </c>
       <c r="B111" s="65" t="s">
-        <v>594</v>
+        <v>505</v>
       </c>
       <c r="C111" s="66" t="n">
         <v>43518.0</v>
@@ -11692,19 +11692,19 @@
         <v>0.0</v>
       </c>
       <c r="G111" s="72" t="s">
-        <v>697</v>
+        <v>610</v>
       </c>
       <c r="H111" s="72" t="s">
-        <v>698</v>
+        <v>611</v>
       </c>
       <c r="I111" s="72" t="s">
-        <v>699</v>
+        <v>612</v>
       </c>
       <c r="J111" s="72" t="s">
-        <v>700</v>
+        <v>613</v>
       </c>
       <c r="K111" s="72" t="s">
-        <v>701</v>
+        <v>614</v>
       </c>
       <c r="L111" s="84"/>
       <c r="M111" s="84"/>
@@ -11724,10 +11724,10 @@
     </row>
     <row r="112" ht="45.0" customHeight="true">
       <c r="A112" s="37" t="s">
-        <v>702</v>
+        <v>615</v>
       </c>
       <c r="B112" s="65" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="C112" s="66" t="n">
         <v>43517.0</v>
@@ -11742,19 +11742,19 @@
         <v>0.0</v>
       </c>
       <c r="G112" s="70" t="s">
-        <v>703</v>
+        <v>616</v>
       </c>
       <c r="H112" s="70" t="s">
-        <v>704</v>
+        <v>617</v>
       </c>
       <c r="I112" s="70" t="s">
-        <v>705</v>
+        <v>618</v>
       </c>
       <c r="J112" s="70" t="s">
-        <v>706</v>
+        <v>619</v>
       </c>
       <c r="K112" s="72" t="s">
-        <v>707</v>
+        <v>620</v>
       </c>
       <c r="L112" s="84"/>
       <c r="M112" s="84"/>
@@ -11774,10 +11774,10 @@
     </row>
     <row r="113" ht="45.0" customHeight="true">
       <c r="A113" s="37" t="s">
-        <v>708</v>
+        <v>621</v>
       </c>
       <c r="B113" s="65" t="s">
-        <v>709</v>
+        <v>622</v>
       </c>
       <c r="C113" s="66" t="n">
         <v>43511.0</v>
@@ -11792,13 +11792,13 @@
         <v>0.0</v>
       </c>
       <c r="G113" s="72" t="s">
-        <v>710</v>
+        <v>623</v>
       </c>
       <c r="H113" s="84" t="s">
-        <v>711</v>
+        <v>624</v>
       </c>
       <c r="I113" s="70" t="s">
-        <v>712</v>
+        <v>625</v>
       </c>
       <c r="J113" s="84"/>
       <c r="K113" s="84"/>
@@ -11820,10 +11820,10 @@
     </row>
     <row r="114" ht="45.0" customHeight="true">
       <c r="A114" s="37" t="s">
-        <v>713</v>
+        <v>626</v>
       </c>
       <c r="B114" s="65" t="s">
-        <v>714</v>
+        <v>627</v>
       </c>
       <c r="C114" s="66" t="n">
         <v>43510.0</v>
@@ -11838,37 +11838,37 @@
         <v>0.0</v>
       </c>
       <c r="G114" s="72" t="s">
-        <v>715</v>
+        <v>628</v>
       </c>
       <c r="H114" s="70" t="s">
-        <v>716</v>
+        <v>629</v>
       </c>
       <c r="I114" s="72" t="s">
-        <v>717</v>
+        <v>630</v>
       </c>
       <c r="J114" s="72" t="s">
-        <v>718</v>
+        <v>631</v>
       </c>
       <c r="K114" s="72" t="s">
-        <v>719</v>
+        <v>632</v>
       </c>
       <c r="L114" s="72" t="s">
-        <v>720</v>
+        <v>633</v>
       </c>
       <c r="M114" s="72" t="s">
-        <v>721</v>
+        <v>634</v>
       </c>
       <c r="N114" s="72" t="s">
-        <v>722</v>
+        <v>635</v>
       </c>
       <c r="O114" s="70" t="s">
-        <v>723</v>
+        <v>636</v>
       </c>
       <c r="P114" s="70" t="s">
-        <v>724</v>
+        <v>637</v>
       </c>
       <c r="Q114" s="70" t="s">
-        <v>725</v>
+        <v>638</v>
       </c>
       <c r="R114" s="70"/>
       <c r="S114" s="70"/>
@@ -11882,10 +11882,10 @@
     </row>
     <row r="115" ht="45.0" customHeight="true">
       <c r="A115" s="37" t="s">
-        <v>726</v>
+        <v>639</v>
       </c>
       <c r="B115" s="65" t="s">
-        <v>727</v>
+        <v>640</v>
       </c>
       <c r="C115" s="66" t="n">
         <v>43488.0</v>
@@ -11900,28 +11900,28 @@
         <v>0.0</v>
       </c>
       <c r="G115" s="70" t="s">
-        <v>728</v>
+        <v>641</v>
       </c>
       <c r="H115" s="70" t="s">
-        <v>729</v>
+        <v>642</v>
       </c>
       <c r="I115" s="70" t="s">
-        <v>730</v>
+        <v>643</v>
       </c>
       <c r="J115" s="70" t="s">
-        <v>731</v>
+        <v>644</v>
       </c>
       <c r="K115" s="70" t="s">
-        <v>732</v>
+        <v>645</v>
       </c>
       <c r="L115" s="70" t="s">
-        <v>733</v>
+        <v>646</v>
       </c>
       <c r="M115" s="70" t="s">
-        <v>734</v>
+        <v>647</v>
       </c>
       <c r="N115" s="80" t="s">
-        <v>735</v>
+        <v>648</v>
       </c>
       <c r="O115" s="84"/>
       <c r="P115" s="84"/>
@@ -11938,16 +11938,16 @@
     </row>
     <row r="116" ht="45.0" customHeight="true">
       <c r="A116" s="37" t="s">
-        <v>736</v>
+        <v>649</v>
       </c>
       <c r="B116" s="65" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="C116" s="66" t="n">
         <v>43490.0</v>
       </c>
       <c r="D116" s="67" t="s">
-        <v>737</v>
+        <v>650</v>
       </c>
       <c r="E116" s="68" t="n">
         <f>COUNTA(G116:Z116)</f>
@@ -11958,13 +11958,13 @@
         <v>0.0</v>
       </c>
       <c r="G116" s="70" t="s">
-        <v>738</v>
+        <v>651</v>
       </c>
       <c r="H116" s="70" t="s">
-        <v>739</v>
+        <v>652</v>
       </c>
       <c r="I116" s="70" t="s">
-        <v>740</v>
+        <v>653</v>
       </c>
       <c r="J116" s="84"/>
       <c r="K116" s="84"/>
@@ -11986,16 +11986,16 @@
     </row>
     <row r="117" ht="45.0" customHeight="true">
       <c r="A117" s="37" t="s">
-        <v>741</v>
+        <v>654</v>
       </c>
       <c r="B117" s="65" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C117" s="66" t="n">
         <v>43490.0</v>
       </c>
       <c r="D117" s="67" t="s">
-        <v>742</v>
+        <v>655</v>
       </c>
       <c r="E117" s="68" t="n">
         <f>COUNTA(G117:Z117)</f>
@@ -12006,7 +12006,7 @@
         <v>0.0</v>
       </c>
       <c r="G117" s="70" t="s">
-        <v>743</v>
+        <v>656</v>
       </c>
       <c r="H117" s="84"/>
       <c r="I117" s="84"/>
@@ -12030,10 +12030,10 @@
     </row>
     <row r="118" ht="45.0" customHeight="true">
       <c r="A118" s="37" t="s">
-        <v>34</v>
+        <v>657</v>
       </c>
       <c r="B118" s="65" t="s">
-        <v>744</v>
+        <v>658</v>
       </c>
       <c r="C118" s="66" t="n">
         <v>43482.0</v>
@@ -12048,10 +12048,10 @@
         <v>0.0</v>
       </c>
       <c r="G118" s="70" t="s">
-        <v>745</v>
+        <v>659</v>
       </c>
       <c r="H118" s="70" t="s">
-        <v>746</v>
+        <v>660</v>
       </c>
       <c r="I118" s="84"/>
       <c r="J118" s="84"/>
@@ -12074,10 +12074,10 @@
     </row>
     <row r="119" ht="45.0" customHeight="true">
       <c r="A119" s="64" t="s">
-        <v>747</v>
+        <v>661</v>
       </c>
       <c r="B119" s="65" t="s">
-        <v>748</v>
+        <v>662</v>
       </c>
       <c r="C119" s="66" t="n">
         <v>43454.0</v>
@@ -12092,16 +12092,16 @@
         <v>0.0</v>
       </c>
       <c r="G119" s="70" t="s">
-        <v>749</v>
+        <v>663</v>
       </c>
       <c r="H119" s="70" t="s">
-        <v>750</v>
+        <v>664</v>
       </c>
       <c r="I119" s="70" t="s">
-        <v>751</v>
+        <v>665</v>
       </c>
       <c r="J119" s="70" t="s">
-        <v>752</v>
+        <v>666</v>
       </c>
       <c r="K119" s="84"/>
       <c r="L119" s="84"/>
@@ -12122,10 +12122,10 @@
     </row>
     <row r="120" ht="45.0" customHeight="true">
       <c r="A120" s="64" t="s">
-        <v>753</v>
+        <v>667</v>
       </c>
       <c r="B120" s="65" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="C120" s="66" t="n">
         <v>43441.0</v>
@@ -12140,10 +12140,10 @@
         <v>0.0</v>
       </c>
       <c r="G120" s="70" t="s">
-        <v>754</v>
+        <v>668</v>
       </c>
       <c r="H120" s="70" t="s">
-        <v>755</v>
+        <v>669</v>
       </c>
       <c r="I120" s="84"/>
       <c r="J120" s="84"/>
@@ -12166,10 +12166,10 @@
     </row>
     <row r="121" ht="45.0" customHeight="true">
       <c r="A121" s="64" t="s">
-        <v>756</v>
+        <v>670</v>
       </c>
       <c r="B121" s="65" t="s">
-        <v>757</v>
+        <v>671</v>
       </c>
       <c r="C121" s="66" t="n">
         <v>43427.0</v>
@@ -12184,13 +12184,13 @@
         <v>0.0</v>
       </c>
       <c r="G121" s="70" t="s">
-        <v>758</v>
+        <v>672</v>
       </c>
       <c r="H121" s="72" t="s">
-        <v>759</v>
+        <v>673</v>
       </c>
       <c r="I121" s="70" t="s">
-        <v>760</v>
+        <v>674</v>
       </c>
       <c r="J121" s="84"/>
       <c r="K121" s="84"/>
@@ -12212,10 +12212,10 @@
     </row>
     <row r="122" ht="45.0" customHeight="true">
       <c r="A122" s="64" t="s">
-        <v>761</v>
+        <v>675</v>
       </c>
       <c r="B122" s="65" t="s">
-        <v>762</v>
+        <v>676</v>
       </c>
       <c r="C122" s="66" t="n">
         <v>43419.0</v>
@@ -12230,7 +12230,7 @@
         <v>0.0</v>
       </c>
       <c r="G122" s="70" t="s">
-        <v>763</v>
+        <v>677</v>
       </c>
       <c r="H122" s="72"/>
       <c r="I122" s="70"/>
@@ -12254,10 +12254,10 @@
     </row>
     <row r="123" ht="45.0" customHeight="true">
       <c r="A123" s="64" t="s">
-        <v>764</v>
+        <v>678</v>
       </c>
       <c r="B123" s="65" t="s">
-        <v>765</v>
+        <v>679</v>
       </c>
       <c r="C123" s="66" t="n">
         <v>43399.0</v>
@@ -12272,19 +12272,19 @@
         <v>0.0</v>
       </c>
       <c r="G123" s="70" t="s">
-        <v>766</v>
+        <v>680</v>
       </c>
       <c r="H123" s="70" t="s">
-        <v>767</v>
+        <v>681</v>
       </c>
       <c r="I123" s="70" t="s">
-        <v>768</v>
+        <v>682</v>
       </c>
       <c r="J123" s="70" t="s">
-        <v>769</v>
+        <v>683</v>
       </c>
       <c r="K123" s="70" t="s">
-        <v>770</v>
+        <v>684</v>
       </c>
       <c r="L123" s="84"/>
       <c r="M123" s="84"/>
@@ -12304,10 +12304,10 @@
     </row>
     <row r="124" ht="45.0" customHeight="true">
       <c r="A124" s="64" t="s">
-        <v>771</v>
+        <v>685</v>
       </c>
       <c r="B124" s="65" t="s">
-        <v>772</v>
+        <v>686</v>
       </c>
       <c r="C124" s="66" t="n">
         <v>43391.0</v>
@@ -12322,13 +12322,13 @@
         <v>0.0</v>
       </c>
       <c r="G124" s="70" t="s">
-        <v>773</v>
+        <v>687</v>
       </c>
       <c r="H124" s="72" t="s">
-        <v>774</v>
+        <v>688</v>
       </c>
       <c r="I124" s="70" t="s">
-        <v>775</v>
+        <v>689</v>
       </c>
       <c r="J124" s="84"/>
       <c r="K124" s="84"/>
@@ -12350,10 +12350,10 @@
     </row>
     <row r="125" ht="45.0" customHeight="true">
       <c r="A125" s="64" t="s">
-        <v>776</v>
+        <v>690</v>
       </c>
       <c r="B125" s="65" t="s">
-        <v>287</v>
+        <v>185</v>
       </c>
       <c r="C125" s="66" t="n">
         <v>43378.0</v>
@@ -12368,19 +12368,19 @@
         <v>0.0</v>
       </c>
       <c r="G125" s="70" t="s">
-        <v>777</v>
+        <v>691</v>
       </c>
       <c r="H125" s="70" t="s">
-        <v>778</v>
+        <v>692</v>
       </c>
       <c r="I125" s="70" t="s">
-        <v>779</v>
+        <v>693</v>
       </c>
       <c r="J125" s="70" t="s">
-        <v>780</v>
+        <v>694</v>
       </c>
       <c r="K125" s="80" t="s">
-        <v>781</v>
+        <v>695</v>
       </c>
       <c r="L125" s="84"/>
       <c r="M125" s="84"/>
@@ -12400,10 +12400,10 @@
     </row>
     <row r="126" ht="45.0" customHeight="true">
       <c r="A126" s="64" t="s">
-        <v>782</v>
+        <v>696</v>
       </c>
       <c r="B126" s="65" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="C126" s="66" t="n">
         <v>43371.0</v>
@@ -12418,10 +12418,10 @@
         <v>0.0</v>
       </c>
       <c r="G126" s="72" t="s">
-        <v>783</v>
+        <v>697</v>
       </c>
       <c r="H126" s="70" t="s">
-        <v>784</v>
+        <v>698</v>
       </c>
       <c r="I126" s="84"/>
       <c r="J126" s="84"/>
@@ -12444,16 +12444,16 @@
     </row>
     <row r="127" ht="53.25" customHeight="true">
       <c r="A127" s="64" t="s">
-        <v>785</v>
+        <v>699</v>
       </c>
       <c r="B127" s="65" t="s">
-        <v>786</v>
+        <v>700</v>
       </c>
       <c r="C127" s="66" t="n">
         <v>43370.0</v>
       </c>
       <c r="D127" s="67" t="s">
-        <v>742</v>
+        <v>655</v>
       </c>
       <c r="E127" s="68" t="n">
         <f>COUNTA(G127:Z127)</f>
@@ -12464,10 +12464,10 @@
         <v>0.0</v>
       </c>
       <c r="G127" s="70" t="s">
-        <v>787</v>
+        <v>701</v>
       </c>
       <c r="H127" s="72" t="s">
-        <v>788</v>
+        <v>702</v>
       </c>
       <c r="I127" s="70"/>
       <c r="J127" s="70"/>
@@ -12490,10 +12490,10 @@
     </row>
     <row r="128" ht="45.0" customHeight="true">
       <c r="A128" s="64" t="s">
-        <v>789</v>
+        <v>703</v>
       </c>
       <c r="B128" s="65" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="C128" s="66" t="n">
         <v>43357.0</v>
@@ -12508,25 +12508,25 @@
         <v>0.0</v>
       </c>
       <c r="G128" s="70" t="s">
-        <v>790</v>
+        <v>704</v>
       </c>
       <c r="H128" s="72" t="s">
-        <v>791</v>
+        <v>705</v>
       </c>
       <c r="I128" s="70" t="s">
-        <v>792</v>
+        <v>706</v>
       </c>
       <c r="J128" s="70" t="s">
-        <v>793</v>
+        <v>707</v>
       </c>
       <c r="K128" s="70" t="s">
-        <v>794</v>
+        <v>708</v>
       </c>
       <c r="L128" s="70" t="s">
-        <v>795</v>
+        <v>709</v>
       </c>
       <c r="M128" s="72" t="s">
-        <v>796</v>
+        <v>710</v>
       </c>
       <c r="N128" s="84"/>
       <c r="O128" s="84"/>
@@ -12544,10 +12544,10 @@
     </row>
     <row r="129" ht="45.0" customHeight="true">
       <c r="A129" s="64" t="s">
-        <v>797</v>
+        <v>711</v>
       </c>
       <c r="B129" s="65" t="s">
-        <v>276</v>
+        <v>174</v>
       </c>
       <c r="C129" s="66" t="n">
         <v>43355.0</v>
@@ -12562,10 +12562,10 @@
         <v>0.0</v>
       </c>
       <c r="G129" s="72" t="s">
-        <v>798</v>
+        <v>712</v>
       </c>
       <c r="H129" s="70" t="s">
-        <v>799</v>
+        <v>713</v>
       </c>
       <c r="I129" s="84"/>
       <c r="J129" s="84"/>
@@ -12588,10 +12588,10 @@
     </row>
     <row r="130" ht="45.0" customHeight="true">
       <c r="A130" s="64" t="s">
-        <v>800</v>
+        <v>714</v>
       </c>
       <c r="B130" s="65" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="C130" s="66" t="n">
         <v>43350.0</v>
@@ -12606,22 +12606,22 @@
         <v>0.0</v>
       </c>
       <c r="G130" s="70" t="s">
-        <v>801</v>
+        <v>715</v>
       </c>
       <c r="H130" s="72" t="s">
-        <v>802</v>
+        <v>716</v>
       </c>
       <c r="I130" s="84" t="s">
-        <v>803</v>
+        <v>717</v>
       </c>
       <c r="J130" s="70" t="s">
-        <v>804</v>
+        <v>718</v>
       </c>
       <c r="K130" s="70" t="s">
-        <v>805</v>
+        <v>719</v>
       </c>
       <c r="L130" s="70" t="s">
-        <v>806</v>
+        <v>720</v>
       </c>
       <c r="M130" s="84"/>
       <c r="N130" s="84"/>
@@ -12640,10 +12640,10 @@
     </row>
     <row r="131" ht="45.0" customHeight="true">
       <c r="A131" s="64" t="s">
-        <v>807</v>
+        <v>721</v>
       </c>
       <c r="B131" s="65" t="s">
-        <v>646</v>
+        <v>558</v>
       </c>
       <c r="C131" s="66" t="n">
         <v>43319.0</v>
@@ -12658,10 +12658,10 @@
         <v>0.0</v>
       </c>
       <c r="G131" s="70" t="s">
-        <v>808</v>
+        <v>722</v>
       </c>
       <c r="H131" s="70" t="s">
-        <v>809</v>
+        <v>723</v>
       </c>
       <c r="I131" s="84"/>
       <c r="J131" s="84"/>
@@ -12684,16 +12684,16 @@
     </row>
     <row r="132" ht="45.0" customHeight="true">
       <c r="A132" s="64" t="s">
-        <v>810</v>
+        <v>724</v>
       </c>
       <c r="B132" s="65" t="s">
-        <v>786</v>
+        <v>700</v>
       </c>
       <c r="C132" s="66" t="n">
         <v>43294.0</v>
       </c>
       <c r="D132" s="67" t="s">
-        <v>811</v>
+        <v>725</v>
       </c>
       <c r="E132" s="68" t="n">
         <f>COUNTA(G132:Z132)</f>
@@ -12704,22 +12704,22 @@
         <v>0.0</v>
       </c>
       <c r="G132" s="70" t="s">
-        <v>812</v>
+        <v>726</v>
       </c>
       <c r="H132" s="70" t="s">
-        <v>813</v>
+        <v>727</v>
       </c>
       <c r="I132" s="72" t="s">
-        <v>814</v>
+        <v>728</v>
       </c>
       <c r="J132" s="72" t="s">
-        <v>815</v>
+        <v>729</v>
       </c>
       <c r="K132" s="72" t="s">
-        <v>816</v>
+        <v>730</v>
       </c>
       <c r="L132" s="72" t="s">
-        <v>817</v>
+        <v>731</v>
       </c>
       <c r="M132" s="84"/>
       <c r="N132" s="84"/>
@@ -12738,10 +12738,10 @@
     </row>
     <row r="133" ht="45.0" customHeight="true">
       <c r="A133" s="64" t="s">
-        <v>818</v>
+        <v>732</v>
       </c>
       <c r="B133" s="65" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="C133" s="66" t="n">
         <v>43280.0</v>
@@ -12756,7 +12756,7 @@
         <v>0.0</v>
       </c>
       <c r="G133" s="70" t="s">
-        <v>819</v>
+        <v>733</v>
       </c>
       <c r="H133" s="84"/>
       <c r="I133" s="84"/>
@@ -12780,10 +12780,10 @@
     </row>
     <row r="134" ht="45.0" customHeight="true">
       <c r="A134" s="64" t="s">
-        <v>820</v>
+        <v>734</v>
       </c>
       <c r="B134" s="65" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C134" s="66" t="n">
         <v>43279.0</v>
@@ -12798,7 +12798,7 @@
         <v>0.0</v>
       </c>
       <c r="G134" s="70" t="s">
-        <v>821</v>
+        <v>735</v>
       </c>
       <c r="H134" s="84"/>
       <c r="I134" s="84"/>
@@ -12822,10 +12822,10 @@
     </row>
     <row r="135" ht="45.0" customHeight="true">
       <c r="A135" s="64" t="s">
-        <v>92</v>
+        <v>736</v>
       </c>
       <c r="B135" s="65" t="s">
-        <v>822</v>
+        <v>737</v>
       </c>
       <c r="C135" s="66" t="n">
         <v>43244.0</v>
@@ -12840,13 +12840,13 @@
         <v>0.0</v>
       </c>
       <c r="G135" s="84" t="s">
-        <v>823</v>
+        <v>738</v>
       </c>
       <c r="H135" s="70" t="s">
-        <v>824</v>
+        <v>739</v>
       </c>
       <c r="I135" s="70" t="s">
-        <v>825</v>
+        <v>740</v>
       </c>
       <c r="J135" s="84"/>
       <c r="K135" s="84"/>
@@ -12868,10 +12868,10 @@
     </row>
     <row r="136" ht="45.0" customHeight="true">
       <c r="A136" s="64" t="s">
-        <v>826</v>
+        <v>741</v>
       </c>
       <c r="B136" s="65" t="s">
-        <v>827</v>
+        <v>742</v>
       </c>
       <c r="C136" s="66" t="n">
         <v>43214.0</v>
@@ -12886,31 +12886,31 @@
         <v>0.0</v>
       </c>
       <c r="G136" s="82" t="s">
-        <v>828</v>
+        <v>743</v>
       </c>
       <c r="H136" s="70" t="s">
-        <v>829</v>
+        <v>744</v>
       </c>
       <c r="I136" s="80" t="s">
-        <v>830</v>
+        <v>745</v>
       </c>
       <c r="J136" s="70" t="s">
-        <v>831</v>
+        <v>746</v>
       </c>
       <c r="K136" s="70" t="s">
-        <v>832</v>
+        <v>747</v>
       </c>
       <c r="L136" s="70" t="s">
-        <v>833</v>
+        <v>748</v>
       </c>
       <c r="M136" s="70" t="s">
-        <v>834</v>
+        <v>749</v>
       </c>
       <c r="N136" s="72" t="s">
-        <v>835</v>
+        <v>750</v>
       </c>
       <c r="O136" s="70" t="s">
-        <v>836</v>
+        <v>751</v>
       </c>
       <c r="P136" s="84"/>
       <c r="Q136" s="70"/>
@@ -12926,16 +12926,16 @@
     </row>
     <row r="137" ht="45.0" customHeight="true">
       <c r="A137" s="64" t="s">
-        <v>44</v>
+        <v>752</v>
       </c>
       <c r="B137" s="65" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="C137" s="66" t="n">
         <v>43210.0</v>
       </c>
       <c r="D137" s="83" t="s">
-        <v>525</v>
+        <v>431</v>
       </c>
       <c r="E137" s="68" t="n">
         <f>COUNTA(G137:Z137)</f>
@@ -12946,28 +12946,28 @@
         <v>0.0</v>
       </c>
       <c r="G137" s="84" t="s">
-        <v>837</v>
+        <v>753</v>
       </c>
       <c r="H137" s="70" t="s">
-        <v>838</v>
+        <v>754</v>
       </c>
       <c r="I137" s="70" t="s">
-        <v>839</v>
+        <v>755</v>
       </c>
       <c r="J137" s="70" t="s">
-        <v>840</v>
+        <v>756</v>
       </c>
       <c r="K137" s="72" t="s">
-        <v>841</v>
+        <v>757</v>
       </c>
       <c r="L137" s="70" t="s">
-        <v>842</v>
+        <v>758</v>
       </c>
       <c r="M137" s="70" t="s">
-        <v>843</v>
+        <v>759</v>
       </c>
       <c r="N137" s="80" t="s">
-        <v>844</v>
+        <v>760</v>
       </c>
       <c r="O137" s="84"/>
       <c r="P137" s="84"/>
@@ -12984,10 +12984,10 @@
     </row>
     <row r="138" ht="45.0" customHeight="true">
       <c r="A138" s="64" t="s">
-        <v>845</v>
+        <v>761</v>
       </c>
       <c r="B138" s="65" t="s">
-        <v>846</v>
+        <v>762</v>
       </c>
       <c r="C138" s="66" t="n">
         <v>43210.0</v>
@@ -13002,7 +13002,7 @@
         <v>0.0</v>
       </c>
       <c r="G138" s="70" t="s">
-        <v>847</v>
+        <v>763</v>
       </c>
       <c r="H138" s="84"/>
       <c r="I138" s="84"/>
@@ -13026,10 +13026,10 @@
     </row>
     <row r="139" ht="45.0" customHeight="true">
       <c r="A139" s="64" t="s">
-        <v>848</v>
+        <v>764</v>
       </c>
       <c r="B139" s="65" t="s">
-        <v>849</v>
+        <v>765</v>
       </c>
       <c r="C139" s="66" t="n">
         <v>43209.0</v>
@@ -13044,10 +13044,10 @@
         <v>0.0</v>
       </c>
       <c r="G139" s="70" t="s">
-        <v>850</v>
+        <v>766</v>
       </c>
       <c r="H139" s="70" t="s">
-        <v>851</v>
+        <v>767</v>
       </c>
       <c r="I139" s="72"/>
       <c r="J139" s="84"/>
@@ -13070,10 +13070,10 @@
     </row>
     <row r="140" ht="45.0" customHeight="true">
       <c r="A140" s="64" t="s">
-        <v>852</v>
+        <v>768</v>
       </c>
       <c r="B140" s="65" t="s">
-        <v>853</v>
+        <v>769</v>
       </c>
       <c r="C140" s="66" t="n">
         <v>43186.0</v>
@@ -13088,10 +13088,10 @@
         <v>0.0</v>
       </c>
       <c r="G140" s="72" t="s">
-        <v>854</v>
+        <v>770</v>
       </c>
       <c r="H140" s="72" t="s">
-        <v>855</v>
+        <v>771</v>
       </c>
       <c r="I140" s="72"/>
       <c r="J140" s="70"/>
@@ -13114,10 +13114,10 @@
     </row>
     <row r="141" ht="45.0" customHeight="true">
       <c r="A141" s="64" t="s">
-        <v>24</v>
+        <v>772</v>
       </c>
       <c r="B141" s="65" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C141" s="66" t="n">
         <v>43180.0</v>
@@ -13132,16 +13132,16 @@
         <v>0.0</v>
       </c>
       <c r="G141" s="72" t="s">
-        <v>856</v>
+        <v>773</v>
       </c>
       <c r="H141" s="70" t="s">
-        <v>857</v>
+        <v>774</v>
       </c>
       <c r="I141" s="72" t="s">
-        <v>858</v>
+        <v>775</v>
       </c>
       <c r="J141" s="70" t="s">
-        <v>859</v>
+        <v>776</v>
       </c>
       <c r="K141" s="84"/>
       <c r="L141" s="84"/>
@@ -13162,10 +13162,10 @@
     </row>
     <row r="142" ht="45.0" customHeight="true">
       <c r="A142" s="64" t="s">
-        <v>860</v>
+        <v>777</v>
       </c>
       <c r="B142" s="65" t="s">
-        <v>861</v>
+        <v>778</v>
       </c>
       <c r="C142" s="66" t="n">
         <v>43158.0</v>
@@ -13180,13 +13180,13 @@
         <v>0.0</v>
       </c>
       <c r="G142" s="70" t="s">
-        <v>862</v>
+        <v>779</v>
       </c>
       <c r="H142" s="70" t="s">
-        <v>863</v>
+        <v>780</v>
       </c>
       <c r="I142" s="80" t="s">
-        <v>864</v>
+        <v>781</v>
       </c>
       <c r="J142" s="84"/>
       <c r="K142" s="84"/>
@@ -13208,10 +13208,10 @@
     </row>
     <row r="143" ht="45.0" customHeight="true">
       <c r="A143" s="64" t="s">
-        <v>865</v>
+        <v>782</v>
       </c>
       <c r="B143" s="65" t="s">
-        <v>866</v>
+        <v>783</v>
       </c>
       <c r="C143" s="66" t="n">
         <v>43139.0</v>
@@ -13226,16 +13226,16 @@
         <v>0.0</v>
       </c>
       <c r="G143" s="70" t="s">
-        <v>867</v>
+        <v>784</v>
       </c>
       <c r="H143" s="72" t="s">
-        <v>868</v>
+        <v>785</v>
       </c>
       <c r="I143" s="72" t="s">
-        <v>869</v>
+        <v>786</v>
       </c>
       <c r="J143" s="70" t="s">
-        <v>870</v>
+        <v>787</v>
       </c>
       <c r="K143" s="84"/>
       <c r="L143" s="84"/>
@@ -13256,10 +13256,10 @@
     </row>
     <row r="144" ht="51.75" customHeight="true">
       <c r="A144" s="64" t="s">
-        <v>89</v>
+        <v>788</v>
       </c>
       <c r="B144" s="65" t="s">
-        <v>871</v>
+        <v>789</v>
       </c>
       <c r="C144" s="66" t="n">
         <v>43126.0</v>
@@ -13274,28 +13274,28 @@
         <v>0.0</v>
       </c>
       <c r="G144" s="70" t="s">
-        <v>872</v>
+        <v>790</v>
       </c>
       <c r="H144" s="70" t="s">
-        <v>873</v>
+        <v>791</v>
       </c>
       <c r="I144" s="84" t="s">
-        <v>874</v>
+        <v>792</v>
       </c>
       <c r="J144" s="70" t="s">
-        <v>875</v>
+        <v>793</v>
       </c>
       <c r="K144" s="70" t="s">
-        <v>876</v>
+        <v>794</v>
       </c>
       <c r="L144" s="70" t="s">
-        <v>877</v>
+        <v>795</v>
       </c>
       <c r="M144" s="70" t="s">
-        <v>878</v>
+        <v>796</v>
       </c>
       <c r="N144" s="72" t="s">
-        <v>879</v>
+        <v>797</v>
       </c>
       <c r="O144" s="84"/>
       <c r="P144" s="84"/>
@@ -13312,10 +13312,10 @@
     </row>
     <row r="145" ht="45.0" customHeight="true">
       <c r="A145" s="64" t="s">
-        <v>880</v>
+        <v>798</v>
       </c>
       <c r="B145" s="65" t="s">
-        <v>881</v>
+        <v>799</v>
       </c>
       <c r="C145" s="66" t="n">
         <v>43125.0</v>
@@ -13330,16 +13330,16 @@
         <v>0.0</v>
       </c>
       <c r="G145" s="70" t="s">
-        <v>882</v>
+        <v>800</v>
       </c>
       <c r="H145" s="84" t="s">
-        <v>883</v>
+        <v>801</v>
       </c>
       <c r="I145" s="70" t="s">
-        <v>884</v>
+        <v>802</v>
       </c>
       <c r="J145" s="70" t="s">
-        <v>885</v>
+        <v>803</v>
       </c>
       <c r="K145" s="84"/>
       <c r="L145" s="84"/>
@@ -13360,10 +13360,10 @@
     </row>
     <row r="146" ht="45.0" customHeight="true">
       <c r="A146" s="37" t="s">
-        <v>36</v>
+        <v>804</v>
       </c>
       <c r="B146" s="65" t="s">
-        <v>886</v>
+        <v>805</v>
       </c>
       <c r="C146" s="66" t="n">
         <v>43090.0</v>
@@ -13378,13 +13378,13 @@
         <v>0.0</v>
       </c>
       <c r="G146" s="72" t="s">
-        <v>887</v>
+        <v>806</v>
       </c>
       <c r="H146" s="72" t="s">
-        <v>888</v>
+        <v>807</v>
       </c>
       <c r="I146" s="70" t="s">
-        <v>889</v>
+        <v>808</v>
       </c>
       <c r="J146" s="84"/>
       <c r="K146" s="84"/>
@@ -13406,10 +13406,10 @@
     </row>
     <row r="147" ht="45.0" customHeight="true">
       <c r="A147" s="37" t="s">
-        <v>890</v>
+        <v>809</v>
       </c>
       <c r="B147" s="65" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C147" s="66" t="n">
         <v>43070.0</v>
@@ -13424,34 +13424,34 @@
         <v>0.0</v>
       </c>
       <c r="G147" s="70" t="s">
-        <v>891</v>
+        <v>810</v>
       </c>
       <c r="H147" s="70" t="s">
-        <v>892</v>
+        <v>811</v>
       </c>
       <c r="I147" s="70" t="s">
-        <v>893</v>
+        <v>812</v>
       </c>
       <c r="J147" s="70" t="s">
-        <v>894</v>
+        <v>813</v>
       </c>
       <c r="K147" s="70" t="s">
-        <v>895</v>
+        <v>814</v>
       </c>
       <c r="L147" s="70" t="s">
-        <v>896</v>
+        <v>815</v>
       </c>
       <c r="M147" s="70" t="s">
-        <v>897</v>
+        <v>816</v>
       </c>
       <c r="N147" s="70" t="s">
-        <v>898</v>
+        <v>817</v>
       </c>
       <c r="O147" s="70" t="s">
-        <v>899</v>
+        <v>818</v>
       </c>
       <c r="P147" s="70" t="s">
-        <v>900</v>
+        <v>819</v>
       </c>
       <c r="Q147" s="70"/>
       <c r="R147" s="70"/>
@@ -13466,10 +13466,10 @@
     </row>
     <row r="148" ht="45.0" customHeight="true">
       <c r="A148" s="37" t="s">
-        <v>901</v>
+        <v>820</v>
       </c>
       <c r="B148" s="65" t="s">
-        <v>902</v>
+        <v>821</v>
       </c>
       <c r="C148" s="66" t="n">
         <v>43035.0</v>
@@ -13484,16 +13484,16 @@
         <v>0.0</v>
       </c>
       <c r="G148" s="70" t="s">
-        <v>903</v>
+        <v>822</v>
       </c>
       <c r="H148" s="70" t="s">
-        <v>904</v>
+        <v>823</v>
       </c>
       <c r="I148" s="70" t="s">
-        <v>905</v>
+        <v>824</v>
       </c>
       <c r="J148" s="70" t="s">
-        <v>906</v>
+        <v>825</v>
       </c>
       <c r="K148" s="84"/>
       <c r="L148" s="84"/>
@@ -13514,10 +13514,10 @@
     </row>
     <row r="149" ht="45.0" customHeight="true">
       <c r="A149" s="37" t="s">
-        <v>907</v>
+        <v>826</v>
       </c>
       <c r="B149" s="65" t="s">
-        <v>310</v>
+        <v>209</v>
       </c>
       <c r="C149" s="66" t="n">
         <v>43013.0</v>
@@ -13532,7 +13532,7 @@
         <v>0.0</v>
       </c>
       <c r="G149" s="70" t="s">
-        <v>908</v>
+        <v>827</v>
       </c>
       <c r="H149" s="84"/>
       <c r="I149" s="84"/>
@@ -13556,10 +13556,10 @@
     </row>
     <row r="150" ht="45.0" customHeight="true">
       <c r="A150" s="37" t="s">
-        <v>81</v>
+        <v>828</v>
       </c>
       <c r="B150" s="65" t="s">
-        <v>909</v>
+        <v>829</v>
       </c>
       <c r="C150" s="66" t="n">
         <v>43007.0</v>
@@ -13574,10 +13574,10 @@
         <v>0.0</v>
       </c>
       <c r="G150" s="70" t="s">
-        <v>910</v>
+        <v>830</v>
       </c>
       <c r="H150" s="70" t="s">
-        <v>911</v>
+        <v>831</v>
       </c>
       <c r="I150" s="84"/>
       <c r="J150" s="84"/>
@@ -13600,10 +13600,10 @@
     </row>
     <row r="151" ht="45.0" customHeight="true">
       <c r="A151" s="37" t="s">
-        <v>912</v>
+        <v>832</v>
       </c>
       <c r="B151" s="65" t="s">
-        <v>913</v>
+        <v>833</v>
       </c>
       <c r="C151" s="66" t="n">
         <v>43006.0</v>
@@ -13618,7 +13618,7 @@
         <v>0.0</v>
       </c>
       <c r="G151" s="70" t="s">
-        <v>914</v>
+        <v>834</v>
       </c>
       <c r="H151" s="70"/>
       <c r="I151" s="84"/>
@@ -13642,10 +13642,10 @@
     </row>
     <row r="152" ht="45.0" customHeight="true">
       <c r="A152" s="37" t="s">
-        <v>915</v>
+        <v>835</v>
       </c>
       <c r="B152" s="65" t="s">
-        <v>916</v>
+        <v>836</v>
       </c>
       <c r="C152" s="66" t="n">
         <v>42992.0</v>
@@ -13660,16 +13660,16 @@
         <v>0.0</v>
       </c>
       <c r="G152" s="70" t="s">
-        <v>917</v>
+        <v>837</v>
       </c>
       <c r="H152" s="70" t="s">
-        <v>918</v>
+        <v>838</v>
       </c>
       <c r="I152" s="70" t="s">
-        <v>919</v>
+        <v>839</v>
       </c>
       <c r="J152" s="70" t="s">
-        <v>920</v>
+        <v>840</v>
       </c>
       <c r="K152" s="84"/>
       <c r="L152" s="84"/>
@@ -13690,10 +13690,10 @@
     </row>
     <row r="153" ht="45.0" customHeight="true">
       <c r="A153" s="37" t="s">
-        <v>921</v>
+        <v>841</v>
       </c>
       <c r="B153" s="65" t="s">
-        <v>922</v>
+        <v>842</v>
       </c>
       <c r="C153" s="66" t="n">
         <v>42969.0</v>
@@ -13708,13 +13708,13 @@
         <v>0.0</v>
       </c>
       <c r="G153" s="70" t="s">
-        <v>923</v>
+        <v>843</v>
       </c>
       <c r="H153" s="70" t="s">
-        <v>924</v>
+        <v>844</v>
       </c>
       <c r="I153" s="70" t="s">
-        <v>925</v>
+        <v>845</v>
       </c>
       <c r="J153" s="84"/>
       <c r="K153" s="84"/>
@@ -13736,10 +13736,10 @@
     </row>
     <row r="154" ht="45.0" customHeight="true">
       <c r="A154" s="37" t="s">
-        <v>96</v>
+        <v>846</v>
       </c>
       <c r="B154" s="65" t="s">
-        <v>866</v>
+        <v>783</v>
       </c>
       <c r="C154" s="66" t="n">
         <v>42955.0</v>
@@ -13754,16 +13754,16 @@
         <v>0.0</v>
       </c>
       <c r="G154" s="72" t="s">
-        <v>926</v>
+        <v>847</v>
       </c>
       <c r="H154" s="70" t="s">
-        <v>927</v>
+        <v>848</v>
       </c>
       <c r="I154" s="70" t="s">
-        <v>928</v>
+        <v>849</v>
       </c>
       <c r="J154" s="70" t="s">
-        <v>929</v>
+        <v>850</v>
       </c>
       <c r="K154" s="84"/>
       <c r="L154" s="84"/>
@@ -13784,10 +13784,10 @@
     </row>
     <row r="155" ht="45.0" customHeight="true">
       <c r="A155" s="37" t="s">
-        <v>930</v>
+        <v>851</v>
       </c>
       <c r="B155" s="65" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="C155" s="66" t="n">
         <v>42950.0</v>
@@ -13802,10 +13802,10 @@
         <v>0.0</v>
       </c>
       <c r="G155" s="70" t="s">
-        <v>931</v>
+        <v>852</v>
       </c>
       <c r="H155" s="70" t="s">
-        <v>932</v>
+        <v>853</v>
       </c>
       <c r="I155" s="84"/>
       <c r="J155" s="84"/>
@@ -13828,16 +13828,16 @@
     </row>
     <row r="156" ht="45.0" customHeight="true">
       <c r="A156" s="37" t="s">
-        <v>933</v>
+        <v>854</v>
       </c>
       <c r="B156" s="65" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C156" s="66" t="n">
         <v>42945.0</v>
       </c>
       <c r="D156" s="67" t="s">
-        <v>934</v>
+        <v>855</v>
       </c>
       <c r="E156" s="68" t="n">
         <f>COUNTA(G156:Z156)</f>
@@ -13848,22 +13848,22 @@
         <v>0.0</v>
       </c>
       <c r="G156" s="72" t="s">
-        <v>935</v>
+        <v>856</v>
       </c>
       <c r="H156" s="70" t="s">
-        <v>936</v>
+        <v>857</v>
       </c>
       <c r="I156" s="70" t="s">
-        <v>937</v>
+        <v>858</v>
       </c>
       <c r="J156" s="70" t="s">
-        <v>938</v>
+        <v>859</v>
       </c>
       <c r="K156" s="70" t="s">
-        <v>939</v>
+        <v>860</v>
       </c>
       <c r="L156" s="84" t="s">
-        <v>940</v>
+        <v>861</v>
       </c>
       <c r="M156" s="84"/>
       <c r="N156" s="84"/>
@@ -13882,10 +13882,10 @@
     </row>
     <row r="157" ht="45.0" customHeight="true">
       <c r="A157" s="37" t="s">
-        <v>941</v>
+        <v>862</v>
       </c>
       <c r="B157" s="65" t="s">
-        <v>942</v>
+        <v>863</v>
       </c>
       <c r="C157" s="66" t="n">
         <v>42937.0</v>
@@ -13900,25 +13900,25 @@
         <v>0.0</v>
       </c>
       <c r="G157" s="84" t="s">
-        <v>943</v>
+        <v>864</v>
       </c>
       <c r="H157" s="70" t="s">
-        <v>944</v>
+        <v>865</v>
       </c>
       <c r="I157" s="70" t="s">
-        <v>945</v>
+        <v>866</v>
       </c>
       <c r="J157" s="70" t="s">
-        <v>946</v>
+        <v>867</v>
       </c>
       <c r="K157" s="70" t="s">
-        <v>947</v>
+        <v>868</v>
       </c>
       <c r="L157" s="70" t="s">
-        <v>948</v>
+        <v>869</v>
       </c>
       <c r="M157" s="70" t="s">
-        <v>949</v>
+        <v>870</v>
       </c>
       <c r="N157" s="84"/>
       <c r="O157" s="84"/>
@@ -13936,10 +13936,10 @@
     </row>
     <row r="158" ht="45.0" customHeight="true">
       <c r="A158" s="37" t="s">
-        <v>950</v>
+        <v>871</v>
       </c>
       <c r="B158" s="65" t="s">
-        <v>951</v>
+        <v>872</v>
       </c>
       <c r="C158" s="66" t="n">
         <v>42850.0</v>
@@ -13954,28 +13954,28 @@
         <v>0.0</v>
       </c>
       <c r="G158" s="70" t="s">
-        <v>952</v>
+        <v>873</v>
       </c>
       <c r="H158" s="70" t="s">
-        <v>953</v>
+        <v>874</v>
       </c>
       <c r="I158" s="70" t="s">
-        <v>954</v>
+        <v>875</v>
       </c>
       <c r="J158" s="70" t="s">
-        <v>955</v>
+        <v>876</v>
       </c>
       <c r="K158" s="70" t="s">
-        <v>956</v>
+        <v>877</v>
       </c>
       <c r="L158" s="70" t="s">
-        <v>957</v>
+        <v>878</v>
       </c>
       <c r="M158" s="70" t="s">
-        <v>958</v>
+        <v>879</v>
       </c>
       <c r="N158" s="84" t="s">
-        <v>959</v>
+        <v>880</v>
       </c>
       <c r="O158" s="84"/>
       <c r="P158" s="84"/>
@@ -13992,16 +13992,16 @@
     </row>
     <row r="159" ht="45.0" customHeight="true">
       <c r="A159" s="37" t="s">
-        <v>960</v>
+        <v>881</v>
       </c>
       <c r="B159" s="65" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C159" s="66" t="n">
         <v>42845.0</v>
       </c>
       <c r="D159" s="67" t="s">
-        <v>737</v>
+        <v>650</v>
       </c>
       <c r="E159" s="68" t="n">
         <f>COUNTA(G159:Z159)</f>
@@ -14012,7 +14012,7 @@
         <v>0.0</v>
       </c>
       <c r="G159" s="84" t="s">
-        <v>961</v>
+        <v>882</v>
       </c>
       <c r="H159" s="84"/>
       <c r="I159" s="84"/>
@@ -14036,16 +14036,16 @@
     </row>
     <row r="160" ht="45.0" customHeight="true">
       <c r="A160" s="37" t="s">
-        <v>99</v>
+        <v>883</v>
       </c>
       <c r="B160" s="65" t="s">
-        <v>786</v>
+        <v>700</v>
       </c>
       <c r="C160" s="66" t="n">
         <v>42817.0</v>
       </c>
       <c r="D160" s="67" t="s">
-        <v>962</v>
+        <v>884</v>
       </c>
       <c r="E160" s="68" t="n">
         <f>COUNTA(G160:Z160)</f>
@@ -14056,49 +14056,49 @@
         <v>0.0</v>
       </c>
       <c r="G160" s="70" t="s">
-        <v>963</v>
+        <v>885</v>
       </c>
       <c r="H160" s="84" t="s">
-        <v>964</v>
+        <v>886</v>
       </c>
       <c r="I160" s="84" t="s">
-        <v>965</v>
+        <v>887</v>
       </c>
       <c r="J160" s="84" t="s">
-        <v>966</v>
+        <v>888</v>
       </c>
       <c r="K160" s="70" t="s">
-        <v>967</v>
+        <v>889</v>
       </c>
       <c r="L160" s="70" t="s">
-        <v>968</v>
+        <v>890</v>
       </c>
       <c r="M160" s="70" t="s">
-        <v>969</v>
+        <v>891</v>
       </c>
       <c r="N160" s="70" t="s">
-        <v>970</v>
+        <v>892</v>
       </c>
       <c r="O160" s="70" t="s">
-        <v>971</v>
+        <v>893</v>
       </c>
       <c r="P160" s="84" t="s">
-        <v>972</v>
+        <v>894</v>
       </c>
       <c r="Q160" s="70" t="s">
-        <v>973</v>
+        <v>895</v>
       </c>
       <c r="R160" s="70" t="s">
-        <v>974</v>
+        <v>896</v>
       </c>
       <c r="S160" s="72" t="s">
-        <v>975</v>
+        <v>897</v>
       </c>
       <c r="T160" s="65" t="s">
-        <v>976</v>
+        <v>898</v>
       </c>
       <c r="U160" s="70" t="s">
-        <v>977</v>
+        <v>899</v>
       </c>
       <c r="V160" s="70"/>
       <c r="W160" s="65"/>
@@ -14108,16 +14108,16 @@
     </row>
     <row r="161" ht="45.0" customHeight="true">
       <c r="A161" s="37" t="s">
-        <v>45</v>
+        <v>900</v>
       </c>
       <c r="B161" s="65" t="s">
-        <v>978</v>
+        <v>901</v>
       </c>
       <c r="C161" s="66" t="n">
         <v>42797.0</v>
       </c>
       <c r="D161" s="74" t="s">
-        <v>979</v>
+        <v>902</v>
       </c>
       <c r="E161" s="68" t="n">
         <f>COUNTA(G161:Z161)</f>
@@ -14128,52 +14128,52 @@
         <v>0.0</v>
       </c>
       <c r="G161" s="70" t="s">
-        <v>980</v>
+        <v>903</v>
       </c>
       <c r="H161" s="70" t="s">
-        <v>981</v>
+        <v>904</v>
       </c>
       <c r="I161" s="70" t="s">
-        <v>982</v>
+        <v>905</v>
       </c>
       <c r="J161" s="70" t="s">
-        <v>983</v>
+        <v>906</v>
       </c>
       <c r="K161" s="70" t="s">
-        <v>984</v>
+        <v>907</v>
       </c>
       <c r="L161" s="70" t="s">
-        <v>985</v>
+        <v>908</v>
       </c>
       <c r="M161" s="70" t="s">
-        <v>986</v>
+        <v>909</v>
       </c>
       <c r="N161" s="70" t="s">
-        <v>987</v>
+        <v>910</v>
       </c>
       <c r="O161" s="70" t="s">
-        <v>988</v>
+        <v>911</v>
       </c>
       <c r="P161" s="70" t="s">
-        <v>989</v>
+        <v>912</v>
       </c>
       <c r="Q161" s="72" t="s">
-        <v>990</v>
+        <v>913</v>
       </c>
       <c r="R161" s="70" t="s">
-        <v>991</v>
+        <v>914</v>
       </c>
       <c r="S161" s="70" t="s">
-        <v>992</v>
+        <v>915</v>
       </c>
       <c r="T161" s="87" t="s">
-        <v>993</v>
+        <v>916</v>
       </c>
       <c r="U161" s="70" t="s">
-        <v>994</v>
+        <v>917</v>
       </c>
       <c r="V161" s="72" t="s">
-        <v>995</v>
+        <v>918</v>
       </c>
       <c r="W161" s="65"/>
       <c r="X161" s="65"/>
@@ -14182,10 +14182,10 @@
     </row>
     <row r="162" ht="45.0" customHeight="true">
       <c r="A162" s="37" t="s">
-        <v>996</v>
+        <v>919</v>
       </c>
       <c r="B162" s="65" t="s">
-        <v>997</v>
+        <v>920</v>
       </c>
       <c r="C162" s="66" t="n">
         <v>42794.0</v>
@@ -14200,19 +14200,19 @@
         <v>0.0</v>
       </c>
       <c r="G162" s="70" t="s">
-        <v>998</v>
+        <v>921</v>
       </c>
       <c r="H162" s="70" t="s">
-        <v>999</v>
+        <v>922</v>
       </c>
       <c r="I162" s="70" t="s">
-        <v>1000</v>
+        <v>923</v>
       </c>
       <c r="J162" s="70" t="s">
-        <v>1001</v>
+        <v>924</v>
       </c>
       <c r="K162" s="70" t="s">
-        <v>1002</v>
+        <v>925</v>
       </c>
       <c r="L162" s="84"/>
       <c r="M162" s="84"/>
@@ -14232,10 +14232,10 @@
     </row>
     <row r="163" ht="45.0" customHeight="true">
       <c r="A163" s="37" t="s">
-        <v>1003</v>
+        <v>926</v>
       </c>
       <c r="B163" s="65" t="s">
-        <v>1004</v>
+        <v>927</v>
       </c>
       <c r="C163" s="66" t="n">
         <v>42791.0</v>
@@ -14250,22 +14250,22 @@
         <v>0.0</v>
       </c>
       <c r="G163" s="70" t="s">
-        <v>1005</v>
+        <v>928</v>
       </c>
       <c r="H163" s="70" t="s">
-        <v>1006</v>
+        <v>929</v>
       </c>
       <c r="I163" s="70" t="s">
-        <v>1007</v>
+        <v>930</v>
       </c>
       <c r="J163" s="84" t="s">
-        <v>1008</v>
+        <v>931</v>
       </c>
       <c r="K163" s="70" t="s">
-        <v>1009</v>
+        <v>932</v>
       </c>
       <c r="L163" s="70" t="s">
-        <v>1010</v>
+        <v>933</v>
       </c>
       <c r="M163" s="84"/>
       <c r="N163" s="84"/>
@@ -14284,10 +14284,10 @@
     </row>
     <row r="164" ht="45.0" customHeight="true">
       <c r="A164" s="37" t="s">
-        <v>1011</v>
+        <v>934</v>
       </c>
       <c r="B164" s="65" t="s">
-        <v>1012</v>
+        <v>935</v>
       </c>
       <c r="C164" s="66" t="n">
         <v>42789.0</v>
@@ -14302,31 +14302,31 @@
         <v>0.0</v>
       </c>
       <c r="G164" s="70" t="s">
-        <v>1013</v>
+        <v>936</v>
       </c>
       <c r="H164" s="70" t="s">
-        <v>1014</v>
+        <v>937</v>
       </c>
       <c r="I164" s="70" t="s">
-        <v>1015</v>
+        <v>938</v>
       </c>
       <c r="J164" s="72" t="s">
-        <v>1016</v>
+        <v>939</v>
       </c>
       <c r="K164" s="70" t="s">
-        <v>1017</v>
+        <v>940</v>
       </c>
       <c r="L164" s="70" t="s">
-        <v>1018</v>
+        <v>941</v>
       </c>
       <c r="M164" s="70" t="s">
-        <v>1019</v>
+        <v>942</v>
       </c>
       <c r="N164" s="70" t="s">
-        <v>1020</v>
+        <v>943</v>
       </c>
       <c r="O164" s="70" t="s">
-        <v>1021</v>
+        <v>944</v>
       </c>
       <c r="P164" s="84"/>
       <c r="Q164" s="70"/>
@@ -14342,10 +14342,10 @@
     </row>
     <row r="165" ht="45.0" customHeight="true">
       <c r="A165" s="37" t="s">
-        <v>26</v>
+        <v>945</v>
       </c>
       <c r="B165" s="65" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="C165" s="66" t="n">
         <v>42773.0</v>
@@ -14360,19 +14360,19 @@
         <v>0.0</v>
       </c>
       <c r="G165" s="70" t="s">
-        <v>1022</v>
+        <v>946</v>
       </c>
       <c r="H165" s="70" t="s">
-        <v>1023</v>
+        <v>947</v>
       </c>
       <c r="I165" s="70" t="s">
-        <v>1024</v>
+        <v>948</v>
       </c>
       <c r="J165" s="70" t="s">
-        <v>1025</v>
+        <v>949</v>
       </c>
       <c r="K165" s="72" t="s">
-        <v>1026</v>
+        <v>950</v>
       </c>
       <c r="L165" s="84"/>
       <c r="M165" s="84"/>
@@ -14392,10 +14392,10 @@
     </row>
     <row r="166" ht="45.0" customHeight="true">
       <c r="A166" s="64" t="s">
-        <v>1027</v>
+        <v>951</v>
       </c>
       <c r="B166" s="65" t="s">
-        <v>866</v>
+        <v>783</v>
       </c>
       <c r="C166" s="66" t="n">
         <v>42710.0</v>
@@ -14410,10 +14410,10 @@
         <v>0.0</v>
       </c>
       <c r="G166" s="72" t="s">
-        <v>1028</v>
+        <v>952</v>
       </c>
       <c r="H166" s="72" t="s">
-        <v>1029</v>
+        <v>953</v>
       </c>
       <c r="I166" s="84"/>
       <c r="J166" s="84"/>
@@ -14436,10 +14436,10 @@
     </row>
     <row r="167" ht="45.0" customHeight="true">
       <c r="A167" s="64" t="s">
-        <v>54</v>
+        <v>954</v>
       </c>
       <c r="B167" s="65" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C167" s="66" t="n">
         <v>42703.0</v>
@@ -14454,25 +14454,25 @@
         <v>0.0</v>
       </c>
       <c r="G167" s="72" t="s">
-        <v>1030</v>
+        <v>955</v>
       </c>
       <c r="H167" s="72" t="s">
-        <v>1031</v>
+        <v>956</v>
       </c>
       <c r="I167" s="82" t="s">
-        <v>1032</v>
+        <v>957</v>
       </c>
       <c r="J167" s="82" t="s">
-        <v>1033</v>
+        <v>958</v>
       </c>
       <c r="K167" s="72" t="s">
-        <v>1034</v>
+        <v>959</v>
       </c>
       <c r="L167" s="72" t="s">
-        <v>1035</v>
+        <v>960</v>
       </c>
       <c r="M167" s="88" t="s">
-        <v>1036</v>
+        <v>961</v>
       </c>
       <c r="N167" s="84"/>
       <c r="O167" s="84"/>
@@ -14490,10 +14490,10 @@
     </row>
     <row r="168" ht="45.0" customHeight="true">
       <c r="A168" s="64" t="s">
-        <v>1037</v>
+        <v>962</v>
       </c>
       <c r="B168" s="65" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="C168" s="66" t="n">
         <v>42692.0</v>
@@ -14508,7 +14508,7 @@
         <v>0.0</v>
       </c>
       <c r="G168" s="70" t="s">
-        <v>1038</v>
+        <v>963</v>
       </c>
       <c r="H168" s="84"/>
       <c r="I168" s="84"/>
@@ -14532,10 +14532,10 @@
     </row>
     <row r="169" ht="45.0" customHeight="true">
       <c r="A169" s="64" t="s">
-        <v>1039</v>
+        <v>964</v>
       </c>
       <c r="B169" s="65" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="C169" s="66" t="n">
         <v>42685.0</v>
@@ -14550,10 +14550,10 @@
         <v>0.0</v>
       </c>
       <c r="G169" s="70" t="s">
-        <v>1040</v>
+        <v>965</v>
       </c>
       <c r="H169" s="70" t="s">
-        <v>1041</v>
+        <v>966</v>
       </c>
       <c r="I169" s="84"/>
       <c r="J169" s="84"/>
@@ -14576,10 +14576,10 @@
     </row>
     <row r="170" ht="45.0" customHeight="true">
       <c r="A170" s="64" t="s">
-        <v>1042</v>
+        <v>967</v>
       </c>
       <c r="B170" s="65" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="C170" s="66" t="n">
         <v>42684.0</v>
@@ -14594,13 +14594,13 @@
         <v>0.0</v>
       </c>
       <c r="G170" s="72" t="s">
-        <v>1043</v>
+        <v>968</v>
       </c>
       <c r="H170" s="72" t="s">
-        <v>1044</v>
+        <v>969</v>
       </c>
       <c r="I170" s="70" t="s">
-        <v>1045</v>
+        <v>970</v>
       </c>
       <c r="J170" s="84"/>
       <c r="K170" s="84"/>
@@ -14622,10 +14622,10 @@
     </row>
     <row r="171" ht="45.0" customHeight="true">
       <c r="A171" s="64" t="s">
-        <v>1046</v>
+        <v>971</v>
       </c>
       <c r="B171" s="65" t="s">
-        <v>1047</v>
+        <v>972</v>
       </c>
       <c r="C171" s="66" t="n">
         <v>42664.0</v>
@@ -14640,13 +14640,13 @@
         <v>0.0</v>
       </c>
       <c r="G171" s="70" t="s">
-        <v>1048</v>
+        <v>973</v>
       </c>
       <c r="H171" s="70" t="s">
-        <v>1049</v>
+        <v>974</v>
       </c>
       <c r="I171" s="70" t="s">
-        <v>1050</v>
+        <v>975</v>
       </c>
       <c r="J171" s="84"/>
       <c r="K171" s="84"/>
@@ -14668,10 +14668,10 @@
     </row>
     <row r="172" ht="45.0" customHeight="true">
       <c r="A172" s="64" t="s">
-        <v>1051</v>
+        <v>976</v>
       </c>
       <c r="B172" s="65" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="C172" s="66" t="n">
         <v>42521.0</v>
@@ -14686,19 +14686,19 @@
         <v>0.0</v>
       </c>
       <c r="G172" s="84" t="s">
-        <v>1052</v>
+        <v>977</v>
       </c>
       <c r="H172" s="70" t="s">
-        <v>1053</v>
+        <v>978</v>
       </c>
       <c r="I172" s="70" t="s">
-        <v>1054</v>
+        <v>979</v>
       </c>
       <c r="J172" s="70" t="s">
-        <v>1055</v>
+        <v>980</v>
       </c>
       <c r="K172" s="70" t="s">
-        <v>1056</v>
+        <v>981</v>
       </c>
       <c r="L172" s="84"/>
       <c r="M172" s="84"/>
@@ -14718,10 +14718,10 @@
     </row>
     <row r="173" ht="45.0" customHeight="true">
       <c r="A173" s="64" t="s">
-        <v>37</v>
+        <v>982</v>
       </c>
       <c r="B173" s="65" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="C173" s="66" t="n">
         <v>42671.0</v>
@@ -14736,31 +14736,31 @@
         <v>0.0</v>
       </c>
       <c r="G173" s="70" t="s">
-        <v>1057</v>
+        <v>983</v>
       </c>
       <c r="H173" s="70" t="s">
-        <v>1058</v>
+        <v>984</v>
       </c>
       <c r="I173" s="85" t="s">
         <v>1321</v>
       </c>
       <c r="J173" s="84" t="s">
-        <v>1059</v>
+        <v>985</v>
       </c>
       <c r="K173" s="70" t="s">
-        <v>1060</v>
+        <v>986</v>
       </c>
       <c r="L173" s="84" t="s">
-        <v>1061</v>
+        <v>987</v>
       </c>
       <c r="M173" s="84" t="s">
-        <v>1062</v>
+        <v>988</v>
       </c>
       <c r="N173" s="70" t="s">
-        <v>1063</v>
+        <v>989</v>
       </c>
       <c r="O173" s="80" t="s">
-        <v>1064</v>
+        <v>990</v>
       </c>
       <c r="P173" s="84"/>
       <c r="Q173" s="70"/>
@@ -14776,10 +14776,10 @@
     </row>
     <row r="174" ht="45.0" customHeight="true">
       <c r="A174" s="64" t="s">
-        <v>1065</v>
+        <v>991</v>
       </c>
       <c r="B174" s="65" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="C174" s="66" t="n">
         <v>42640.0</v>
@@ -14794,7 +14794,7 @@
         <v>0.0</v>
       </c>
       <c r="G174" s="70" t="s">
-        <v>1066</v>
+        <v>992</v>
       </c>
       <c r="H174" s="84"/>
       <c r="I174" s="84"/>
@@ -14818,16 +14818,16 @@
     </row>
     <row r="175" ht="45.0" customHeight="true">
       <c r="A175" s="64" t="s">
-        <v>1067</v>
+        <v>993</v>
       </c>
       <c r="B175" s="65" t="s">
-        <v>501</v>
+        <v>406</v>
       </c>
       <c r="C175" s="66" t="n">
         <v>42593.0</v>
       </c>
       <c r="D175" s="67" t="s">
-        <v>1068</v>
+        <v>994</v>
       </c>
       <c r="E175" s="68" t="n">
         <f>COUNTA(G175:Z175)</f>
@@ -14838,19 +14838,19 @@
         <v>0.0</v>
       </c>
       <c r="G175" s="70" t="s">
-        <v>1069</v>
+        <v>995</v>
       </c>
       <c r="H175" s="70" t="s">
-        <v>1070</v>
+        <v>996</v>
       </c>
       <c r="I175" s="70" t="s">
-        <v>1071</v>
+        <v>997</v>
       </c>
       <c r="J175" s="82" t="s">
-        <v>1072</v>
+        <v>998</v>
       </c>
       <c r="K175" s="70" t="s">
-        <v>1073</v>
+        <v>999</v>
       </c>
       <c r="L175" s="84"/>
       <c r="M175" s="84"/>
@@ -14870,10 +14870,10 @@
     </row>
     <row r="176" ht="45.0" customHeight="true">
       <c r="A176" s="64" t="s">
-        <v>1074</v>
+        <v>1000</v>
       </c>
       <c r="B176" s="65" t="s">
-        <v>1075</v>
+        <v>1001</v>
       </c>
       <c r="C176" s="66" t="n">
         <v>42551.0</v>
@@ -14888,7 +14888,7 @@
         <v>0.0</v>
       </c>
       <c r="G176" s="72" t="s">
-        <v>1076</v>
+        <v>1002</v>
       </c>
       <c r="H176" s="84"/>
       <c r="I176" s="84"/>
@@ -14912,16 +14912,16 @@
     </row>
     <row r="177" ht="45.0" customHeight="true">
       <c r="A177" s="64" t="s">
-        <v>98</v>
+        <v>1003</v>
       </c>
       <c r="B177" s="65" t="s">
-        <v>822</v>
+        <v>737</v>
       </c>
       <c r="C177" s="66" t="n">
         <v>42544.0</v>
       </c>
       <c r="D177" s="74" t="s">
-        <v>1077</v>
+        <v>1004</v>
       </c>
       <c r="E177" s="68" t="n">
         <f>COUNTA(G177:Z177)</f>
@@ -14932,25 +14932,25 @@
         <v>0.0</v>
       </c>
       <c r="G177" s="70" t="s">
-        <v>1078</v>
+        <v>1005</v>
       </c>
       <c r="H177" s="70" t="s">
-        <v>1079</v>
+        <v>1006</v>
       </c>
       <c r="I177" s="70" t="s">
-        <v>1080</v>
+        <v>1007</v>
       </c>
       <c r="J177" s="70" t="s">
-        <v>1081</v>
+        <v>1008</v>
       </c>
       <c r="K177" s="70" t="s">
-        <v>1082</v>
+        <v>1009</v>
       </c>
       <c r="L177" s="70" t="s">
-        <v>1083</v>
+        <v>1010</v>
       </c>
       <c r="M177" s="84" t="s">
-        <v>1084</v>
+        <v>1011</v>
       </c>
       <c r="N177" s="84"/>
       <c r="O177" s="84"/>
@@ -14968,10 +14968,10 @@
     </row>
     <row r="178" ht="45.0" customHeight="true">
       <c r="A178" s="64" t="s">
-        <v>1085</v>
+        <v>1012</v>
       </c>
       <c r="B178" s="65" t="s">
-        <v>922</v>
+        <v>842</v>
       </c>
       <c r="C178" s="66" t="n">
         <v>42500.0</v>
@@ -14986,16 +14986,16 @@
         <v>0.0</v>
       </c>
       <c r="G178" s="70" t="s">
-        <v>1086</v>
+        <v>1013</v>
       </c>
       <c r="H178" s="70" t="s">
-        <v>1087</v>
+        <v>1014</v>
       </c>
       <c r="I178" s="70" t="s">
-        <v>1088</v>
+        <v>1015</v>
       </c>
       <c r="J178" s="70" t="s">
-        <v>1089</v>
+        <v>1016</v>
       </c>
       <c r="K178" s="84"/>
       <c r="L178" s="84"/>
@@ -15016,10 +15016,10 @@
     </row>
     <row r="179" ht="45.0" customHeight="true">
       <c r="A179" s="64" t="s">
-        <v>1090</v>
+        <v>1017</v>
       </c>
       <c r="B179" s="65" t="s">
-        <v>1091</v>
+        <v>1018</v>
       </c>
       <c r="C179" s="66" t="n">
         <v>42499.0</v>
@@ -15034,7 +15034,7 @@
         <v>0.0</v>
       </c>
       <c r="G179" s="70" t="s">
-        <v>1092</v>
+        <v>1019</v>
       </c>
       <c r="H179" s="84"/>
       <c r="I179" s="84"/>
@@ -15058,10 +15058,10 @@
     </row>
     <row r="180" ht="45.0" customHeight="true">
       <c r="A180" s="64" t="s">
-        <v>1093</v>
+        <v>1020</v>
       </c>
       <c r="B180" s="65" t="s">
-        <v>1094</v>
+        <v>1021</v>
       </c>
       <c r="C180" s="66" t="n">
         <v>42465.0</v>
@@ -15076,7 +15076,7 @@
         <v>0.0</v>
       </c>
       <c r="G180" s="72" t="s">
-        <v>1095</v>
+        <v>1022</v>
       </c>
       <c r="H180" s="84"/>
       <c r="I180" s="84"/>
@@ -15100,10 +15100,10 @@
     </row>
     <row r="181" ht="45.0" customHeight="true">
       <c r="A181" s="64" t="s">
-        <v>1096</v>
+        <v>1023</v>
       </c>
       <c r="B181" s="65" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="C181" s="66" t="n">
         <v>42453.0</v>
@@ -15118,25 +15118,25 @@
         <v>0.0</v>
       </c>
       <c r="G181" s="84" t="s">
-        <v>1097</v>
+        <v>1024</v>
       </c>
       <c r="H181" s="70" t="s">
-        <v>1098</v>
+        <v>1025</v>
       </c>
       <c r="I181" s="70" t="s">
-        <v>1099</v>
+        <v>1026</v>
       </c>
       <c r="J181" s="72" t="s">
-        <v>1100</v>
+        <v>1027</v>
       </c>
       <c r="K181" s="70" t="s">
-        <v>1101</v>
+        <v>1028</v>
       </c>
       <c r="L181" s="70" t="s">
-        <v>1102</v>
+        <v>1029</v>
       </c>
       <c r="M181" s="70" t="s">
-        <v>1103</v>
+        <v>1030</v>
       </c>
       <c r="N181" s="84"/>
       <c r="O181" s="84"/>
@@ -15154,10 +15154,10 @@
     </row>
     <row r="182" ht="45.0" customHeight="true">
       <c r="A182" s="64" t="s">
-        <v>1104</v>
+        <v>1031</v>
       </c>
       <c r="B182" s="65" t="s">
-        <v>1105</v>
+        <v>1032</v>
       </c>
       <c r="C182" s="66" t="n">
         <v>42425.0</v>
@@ -15172,7 +15172,7 @@
         <v>0.0</v>
       </c>
       <c r="G182" s="70" t="s">
-        <v>1106</v>
+        <v>1033</v>
       </c>
       <c r="H182" s="84"/>
       <c r="I182" s="84"/>
@@ -15196,10 +15196,10 @@
     </row>
     <row r="183" ht="45.0" customHeight="true">
       <c r="A183" s="64" t="s">
-        <v>1107</v>
+        <v>1034</v>
       </c>
       <c r="B183" s="65" t="s">
-        <v>1108</v>
+        <v>1035</v>
       </c>
       <c r="C183" s="66" t="n">
         <v>42542.0</v>
@@ -15214,25 +15214,25 @@
         <v>0.0</v>
       </c>
       <c r="G183" s="70" t="s">
-        <v>1109</v>
+        <v>1036</v>
       </c>
       <c r="H183" s="70" t="s">
-        <v>1110</v>
+        <v>1037</v>
       </c>
       <c r="I183" s="70" t="s">
-        <v>1111</v>
+        <v>1038</v>
       </c>
       <c r="J183" s="70" t="s">
-        <v>1112</v>
+        <v>1039</v>
       </c>
       <c r="K183" s="85" t="s">
         <v>1322</v>
       </c>
       <c r="L183" s="70" t="s">
-        <v>1113</v>
+        <v>1040</v>
       </c>
       <c r="M183" s="80" t="s">
-        <v>1114</v>
+        <v>1041</v>
       </c>
       <c r="N183" s="84"/>
       <c r="O183" s="84"/>
@@ -15250,10 +15250,10 @@
     </row>
     <row r="184" ht="45.0" customHeight="true">
       <c r="A184" s="37" t="s">
-        <v>1115</v>
+        <v>1042</v>
       </c>
       <c r="B184" s="65" t="s">
-        <v>1116</v>
+        <v>1043</v>
       </c>
       <c r="C184" s="66" t="n">
         <v>42318.0</v>
@@ -15268,13 +15268,13 @@
         <v>0.0</v>
       </c>
       <c r="G184" s="72" t="s">
-        <v>1117</v>
+        <v>1044</v>
       </c>
       <c r="H184" s="82" t="s">
-        <v>1118</v>
+        <v>1045</v>
       </c>
       <c r="I184" s="82" t="s">
-        <v>1119</v>
+        <v>1046</v>
       </c>
       <c r="J184" s="84"/>
       <c r="K184" s="84"/>
@@ -15296,10 +15296,10 @@
     </row>
     <row r="185" ht="45.0" customHeight="true">
       <c r="A185" s="37" t="s">
-        <v>1120</v>
+        <v>1047</v>
       </c>
       <c r="B185" s="65" t="s">
-        <v>5</v>
+        <v>1048</v>
       </c>
       <c r="C185" s="66" t="n">
         <v>42318.0</v>
@@ -15314,10 +15314,10 @@
         <v>0.0</v>
       </c>
       <c r="G185" s="70" t="s">
-        <v>1121</v>
+        <v>1049</v>
       </c>
       <c r="H185" s="84" t="s">
-        <v>1122</v>
+        <v>1050</v>
       </c>
       <c r="I185" s="84"/>
       <c r="J185" s="84"/>
@@ -15340,10 +15340,10 @@
     </row>
     <row r="186" ht="45.0" customHeight="true">
       <c r="A186" s="37" t="s">
-        <v>1123</v>
+        <v>1051</v>
       </c>
       <c r="B186" s="65" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="C186" s="66" t="n">
         <v>42304.0</v>
@@ -15358,7 +15358,7 @@
         <v>0.0</v>
       </c>
       <c r="G186" s="72" t="s">
-        <v>1124</v>
+        <v>1052</v>
       </c>
       <c r="H186" s="84"/>
       <c r="I186" s="84"/>
@@ -15382,16 +15382,16 @@
     </row>
     <row r="187" ht="45.0" customHeight="true">
       <c r="A187" s="37" t="s">
-        <v>1125</v>
+        <v>1053</v>
       </c>
       <c r="B187" s="65" t="s">
-        <v>916</v>
+        <v>836</v>
       </c>
       <c r="C187" s="66" t="n">
         <v>42304.0</v>
       </c>
       <c r="D187" s="67" t="s">
-        <v>1126</v>
+        <v>1054</v>
       </c>
       <c r="E187" s="68" t="n">
         <f>COUNTA(G187:Z187)</f>
@@ -15402,7 +15402,7 @@
         <v>0.0</v>
       </c>
       <c r="G187" s="70" t="s">
-        <v>1127</v>
+        <v>1055</v>
       </c>
       <c r="H187" s="84"/>
       <c r="I187" s="84"/>
@@ -15426,16 +15426,16 @@
     </row>
     <row r="188" ht="45.0" customHeight="true">
       <c r="A188" s="37" t="s">
-        <v>1128</v>
+        <v>1056</v>
       </c>
       <c r="B188" s="65" t="s">
-        <v>325</v>
+        <v>224</v>
       </c>
       <c r="C188" s="66" t="n">
         <v>42297.0</v>
       </c>
       <c r="D188" s="67" t="s">
-        <v>1129</v>
+        <v>1057</v>
       </c>
       <c r="E188" s="68" t="n">
         <f>COUNTA(G188:Z188)</f>
@@ -15446,7 +15446,7 @@
         <v>0.0</v>
       </c>
       <c r="G188" s="70" t="s">
-        <v>1130</v>
+        <v>1058</v>
       </c>
       <c r="H188" s="84"/>
       <c r="I188" s="84"/>
@@ -15470,10 +15470,10 @@
     </row>
     <row r="189" ht="45.0" customHeight="true">
       <c r="A189" s="37" t="s">
-        <v>1131</v>
+        <v>1059</v>
       </c>
       <c r="B189" s="65" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="C189" s="66" t="n">
         <v>42290.0</v>
@@ -15488,10 +15488,10 @@
         <v>0.0</v>
       </c>
       <c r="G189" s="70" t="s">
-        <v>1132</v>
+        <v>1060</v>
       </c>
       <c r="H189" s="70" t="s">
-        <v>1133</v>
+        <v>1061</v>
       </c>
       <c r="I189" s="84"/>
       <c r="J189" s="84"/>
@@ -15514,10 +15514,10 @@
     </row>
     <row r="190" ht="45.0" customHeight="true">
       <c r="A190" s="37" t="s">
-        <v>1134</v>
+        <v>1062</v>
       </c>
       <c r="B190" s="65" t="s">
-        <v>1135</v>
+        <v>1063</v>
       </c>
       <c r="C190" s="66" t="n">
         <v>42249.0</v>
@@ -15532,7 +15532,7 @@
         <v>0.0</v>
       </c>
       <c r="G190" s="70" t="s">
-        <v>1136</v>
+        <v>1064</v>
       </c>
       <c r="H190" s="84"/>
       <c r="I190" s="84"/>
@@ -15556,10 +15556,10 @@
     </row>
     <row r="191" ht="45.0" customHeight="true">
       <c r="A191" s="37" t="s">
-        <v>1137</v>
+        <v>1065</v>
       </c>
       <c r="B191" s="65" t="s">
-        <v>1138</v>
+        <v>1066</v>
       </c>
       <c r="C191" s="66" t="n">
         <v>42199.0</v>
@@ -15574,19 +15574,19 @@
         <v>0.0</v>
       </c>
       <c r="G191" s="70" t="s">
-        <v>1139</v>
+        <v>1067</v>
       </c>
       <c r="H191" s="70" t="s">
-        <v>1140</v>
+        <v>1068</v>
       </c>
       <c r="I191" s="70" t="s">
-        <v>1141</v>
+        <v>1069</v>
       </c>
       <c r="J191" s="70" t="s">
-        <v>1142</v>
+        <v>1070</v>
       </c>
       <c r="K191" s="70" t="s">
-        <v>1143</v>
+        <v>1071</v>
       </c>
       <c r="L191" s="84"/>
       <c r="M191" s="84"/>
@@ -15606,10 +15606,10 @@
     </row>
     <row r="192" ht="45.0" customHeight="true">
       <c r="A192" s="37" t="s">
-        <v>1144</v>
+        <v>1072</v>
       </c>
       <c r="B192" s="65" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="C192" s="66" t="n">
         <v>42194.0</v>
@@ -15624,10 +15624,10 @@
         <v>0.0</v>
       </c>
       <c r="G192" s="70" t="s">
-        <v>1145</v>
+        <v>1073</v>
       </c>
       <c r="H192" s="70" t="s">
-        <v>1146</v>
+        <v>1074</v>
       </c>
       <c r="I192" s="70"/>
       <c r="J192" s="84"/>
@@ -15650,10 +15650,10 @@
     </row>
     <row r="193" ht="45.0" customHeight="true">
       <c r="A193" s="37" t="s">
-        <v>105</v>
+        <v>1075</v>
       </c>
       <c r="B193" s="65" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="C193" s="66" t="n">
         <v>42143.0</v>
@@ -15668,28 +15668,28 @@
         <v>0.0</v>
       </c>
       <c r="G193" s="70" t="s">
-        <v>1147</v>
+        <v>1076</v>
       </c>
       <c r="H193" s="84" t="s">
-        <v>1148</v>
+        <v>1077</v>
       </c>
       <c r="I193" s="84" t="s">
-        <v>1149</v>
+        <v>1078</v>
       </c>
       <c r="J193" s="70" t="s">
-        <v>1150</v>
+        <v>1079</v>
       </c>
       <c r="K193" s="70" t="s">
-        <v>1151</v>
+        <v>1080</v>
       </c>
       <c r="L193" s="70" t="s">
-        <v>1152</v>
+        <v>1081</v>
       </c>
       <c r="M193" s="70" t="s">
-        <v>1153</v>
+        <v>1082</v>
       </c>
       <c r="N193" s="70" t="s">
-        <v>1154</v>
+        <v>1083</v>
       </c>
       <c r="O193" s="84"/>
       <c r="P193" s="84"/>
@@ -15706,10 +15706,10 @@
     </row>
     <row r="194" ht="45.0" customHeight="true">
       <c r="A194" s="37" t="s">
-        <v>1155</v>
+        <v>1084</v>
       </c>
       <c r="B194" s="65" t="s">
-        <v>350</v>
+        <v>249</v>
       </c>
       <c r="C194" s="66" t="n">
         <v>42140.0</v>
@@ -15724,10 +15724,10 @@
         <v>0.0</v>
       </c>
       <c r="G194" s="70" t="s">
-        <v>1156</v>
+        <v>1085</v>
       </c>
       <c r="H194" s="70" t="s">
-        <v>1157</v>
+        <v>1086</v>
       </c>
       <c r="I194" s="84"/>
       <c r="J194" s="84"/>
@@ -15750,10 +15750,10 @@
     </row>
     <row r="195" ht="45.0" customHeight="true">
       <c r="A195" s="37" t="s">
-        <v>1158</v>
+        <v>1087</v>
       </c>
       <c r="B195" s="65" t="s">
-        <v>1159</v>
+        <v>1088</v>
       </c>
       <c r="C195" s="66" t="n">
         <v>42122.0</v>
@@ -15768,10 +15768,10 @@
         <v>0.0</v>
       </c>
       <c r="G195" s="70" t="s">
-        <v>1160</v>
+        <v>1089</v>
       </c>
       <c r="H195" s="70" t="s">
-        <v>1161</v>
+        <v>1090</v>
       </c>
       <c r="I195" s="84"/>
       <c r="J195" s="84"/>
@@ -15794,16 +15794,16 @@
     </row>
     <row r="196" ht="45.0" customHeight="true">
       <c r="A196" s="37" t="s">
-        <v>47</v>
+        <v>1091</v>
       </c>
       <c r="B196" s="65" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="C196" s="66" t="n">
         <v>42096.0</v>
       </c>
       <c r="D196" s="67" t="s">
-        <v>1162</v>
+        <v>1092</v>
       </c>
       <c r="E196" s="68" t="n">
         <f>COUNTA(G196:Z196)</f>
@@ -15814,16 +15814,16 @@
         <v>0.0</v>
       </c>
       <c r="G196" s="70" t="s">
-        <v>1163</v>
+        <v>1093</v>
       </c>
       <c r="H196" s="70" t="s">
-        <v>1164</v>
+        <v>1094</v>
       </c>
       <c r="I196" s="70" t="s">
-        <v>1165</v>
+        <v>1095</v>
       </c>
       <c r="J196" s="72" t="s">
-        <v>1166</v>
+        <v>1096</v>
       </c>
       <c r="K196" s="84"/>
       <c r="L196" s="84"/>
@@ -15844,10 +15844,10 @@
     </row>
     <row r="197" ht="45.0" customHeight="true">
       <c r="A197" s="37" t="s">
-        <v>49</v>
+        <v>1097</v>
       </c>
       <c r="B197" s="65" t="s">
-        <v>1167</v>
+        <v>1098</v>
       </c>
       <c r="C197" s="66" t="n">
         <v>42087.0</v>
@@ -15862,28 +15862,28 @@
         <v>0.0</v>
       </c>
       <c r="G197" s="70" t="s">
-        <v>1168</v>
+        <v>1099</v>
       </c>
       <c r="H197" s="70" t="s">
-        <v>1169</v>
+        <v>1100</v>
       </c>
       <c r="I197" s="70" t="s">
-        <v>1170</v>
+        <v>1101</v>
       </c>
       <c r="J197" s="70" t="s">
-        <v>1171</v>
+        <v>1102</v>
       </c>
       <c r="K197" s="70" t="s">
-        <v>1172</v>
+        <v>1103</v>
       </c>
       <c r="L197" s="70" t="s">
-        <v>1173</v>
+        <v>1104</v>
       </c>
       <c r="M197" s="70" t="s">
-        <v>1174</v>
+        <v>1105</v>
       </c>
       <c r="N197" s="70" t="s">
-        <v>1175</v>
+        <v>1106</v>
       </c>
       <c r="O197" s="84"/>
       <c r="P197" s="84"/>
@@ -15900,10 +15900,10 @@
     </row>
     <row r="198" ht="45.0" customHeight="true">
       <c r="A198" s="37" t="s">
-        <v>1176</v>
+        <v>1107</v>
       </c>
       <c r="B198" s="65" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="C198" s="66" t="n">
         <v>42074.0</v>
@@ -15940,10 +15940,10 @@
     </row>
     <row r="199" ht="45.0" customHeight="true">
       <c r="A199" s="37" t="s">
-        <v>1177</v>
+        <v>1108</v>
       </c>
       <c r="B199" s="65" t="s">
-        <v>1178</v>
+        <v>1109</v>
       </c>
       <c r="C199" s="66" t="n">
         <v>42073.0</v>
@@ -15958,7 +15958,7 @@
         <v>0.0</v>
       </c>
       <c r="G199" s="70" t="s">
-        <v>1179</v>
+        <v>1110</v>
       </c>
       <c r="H199" s="84"/>
       <c r="I199" s="84"/>
@@ -15982,10 +15982,10 @@
     </row>
     <row r="200" ht="45.0" customHeight="true">
       <c r="A200" s="37" t="s">
-        <v>1180</v>
+        <v>1111</v>
       </c>
       <c r="B200" s="65" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="C200" s="66" t="n">
         <v>42073.0</v>
@@ -15998,7 +15998,7 @@
         <v>1.0</v>
       </c>
       <c r="G200" s="70" t="s">
-        <v>1181</v>
+        <v>1112</v>
       </c>
       <c r="H200" s="84"/>
       <c r="I200" s="84"/>
@@ -16109,10 +16109,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="G1" s="63"/>
       <c r="H1" s="4"/>
@@ -16137,10 +16137,10 @@
     </row>
     <row r="2" ht="45.0" customHeight="true">
       <c r="A2" s="90" t="s">
-        <v>1182</v>
+        <v>1190</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="C2" s="66" t="n">
         <v>41991.0</v>
@@ -16155,13 +16155,13 @@
         <v>0.0</v>
       </c>
       <c r="G2" s="70" t="s">
-        <v>1183</v>
+        <v>1191</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>1184</v>
+        <v>1192</v>
       </c>
       <c r="I2" s="70" t="s">
-        <v>1185</v>
+        <v>1193</v>
       </c>
       <c r="J2" s="84"/>
       <c r="K2" s="84"/>
@@ -16183,10 +16183,10 @@
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="90" t="s">
-        <v>1186</v>
+        <v>1194</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>916</v>
+        <v>836</v>
       </c>
       <c r="C3" s="66" t="n">
         <v>41961.0</v>
@@ -16201,7 +16201,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="70" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
       <c r="H3" s="84"/>
       <c r="I3" s="84"/>
@@ -16225,10 +16225,10 @@
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="90" t="s">
-        <v>1188</v>
+        <v>1196</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>1189</v>
+        <v>1197</v>
       </c>
       <c r="C4" s="73" t="n">
         <v>41947.0</v>
@@ -16243,7 +16243,7 @@
         <v>0.0</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>1190</v>
+        <v>1198</v>
       </c>
       <c r="H4" s="84"/>
       <c r="I4" s="84"/>
@@ -16267,10 +16267,10 @@
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="90" t="s">
-        <v>1191</v>
+        <v>1199</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="C5" s="66" t="n">
         <v>41927.0</v>
@@ -16307,10 +16307,10 @@
     </row>
     <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="90" t="s">
-        <v>1192</v>
+        <v>1200</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="C6" s="66" t="n">
         <v>41902.0</v>
@@ -16325,7 +16325,7 @@
         <v>0.0</v>
       </c>
       <c r="G6" s="70" t="s">
-        <v>1193</v>
+        <v>1201</v>
       </c>
       <c r="H6" s="84"/>
       <c r="I6" s="84"/>
@@ -16349,16 +16349,16 @@
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="90" t="s">
-        <v>1194</v>
+        <v>1202</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>1195</v>
+        <v>1203</v>
       </c>
       <c r="C7" s="66" t="n">
         <v>41900.0</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>1196</v>
+        <v>1204</v>
       </c>
       <c r="E7" s="68" t="n">
         <f>COUNTA(G7:Z7)</f>
@@ -16369,10 +16369,10 @@
         <v>0.0</v>
       </c>
       <c r="G7" s="70" t="s">
-        <v>1197</v>
+        <v>1205</v>
       </c>
       <c r="H7" s="70" t="s">
-        <v>1198</v>
+        <v>1206</v>
       </c>
       <c r="I7" s="84"/>
       <c r="J7" s="84"/>
@@ -16395,10 +16395,10 @@
     </row>
     <row r="8" ht="45.0" customHeight="true">
       <c r="A8" s="90" t="s">
-        <v>1199</v>
+        <v>1207</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>1200</v>
+        <v>1208</v>
       </c>
       <c r="C8" s="66" t="n">
         <v>41732.0</v>
@@ -16413,10 +16413,10 @@
         <v>0.0</v>
       </c>
       <c r="G8" s="70" t="s">
-        <v>1201</v>
+        <v>1209</v>
       </c>
       <c r="H8" s="70" t="s">
-        <v>1202</v>
+        <v>1210</v>
       </c>
       <c r="I8" s="84"/>
       <c r="J8" s="84"/>
@@ -16439,10 +16439,10 @@
     </row>
     <row r="9" ht="45.0" customHeight="true">
       <c r="A9" s="90" t="s">
-        <v>1203</v>
+        <v>1211</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>765</v>
+        <v>679</v>
       </c>
       <c r="C9" s="66" t="n">
         <v>41534.0</v>
@@ -16457,10 +16457,10 @@
         <v>0.0</v>
       </c>
       <c r="G9" s="70" t="s">
-        <v>1204</v>
+        <v>1212</v>
       </c>
       <c r="H9" s="70" t="s">
-        <v>1205</v>
+        <v>1213</v>
       </c>
       <c r="I9" s="84"/>
       <c r="J9" s="84"/>
@@ -16483,10 +16483,10 @@
     </row>
     <row r="10" ht="45.0" customHeight="true">
       <c r="A10" s="90" t="s">
-        <v>1206</v>
+        <v>1214</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>384</v>
+        <v>285</v>
       </c>
       <c r="C10" s="66" t="n">
         <v>41439.0</v>
@@ -16501,10 +16501,10 @@
         <v>0.0</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>1207</v>
+        <v>1215</v>
       </c>
       <c r="H10" s="70" t="s">
-        <v>1208</v>
+        <v>1216</v>
       </c>
       <c r="I10" s="84"/>
       <c r="J10" s="84"/>
@@ -16527,16 +16527,16 @@
     </row>
     <row r="11" ht="45.0" customHeight="true">
       <c r="A11" s="90" t="s">
-        <v>50</v>
+        <v>1144</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="C11" s="66" t="n">
         <v>41389.0</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>1209</v>
+        <v>1217</v>
       </c>
       <c r="E11" s="68" t="n">
         <f>COUNTA(G11:Z11)</f>
@@ -16547,7 +16547,7 @@
         <v>0.0</v>
       </c>
       <c r="G11" s="70" t="s">
-        <v>1210</v>
+        <v>1218</v>
       </c>
       <c r="H11" s="84"/>
       <c r="I11" s="84"/>
@@ -16571,10 +16571,10 @@
     </row>
     <row r="12" ht="45.0" customHeight="true">
       <c r="A12" s="90" t="s">
-        <v>1211</v>
+        <v>1219</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>1212</v>
+        <v>1220</v>
       </c>
       <c r="C12" s="66" t="n">
         <v>41359.0</v>
@@ -16589,16 +16589,16 @@
         <v>0.0</v>
       </c>
       <c r="G12" s="70" t="s">
-        <v>1213</v>
+        <v>1221</v>
       </c>
       <c r="H12" s="70" t="s">
-        <v>1214</v>
+        <v>1222</v>
       </c>
       <c r="I12" s="70" t="s">
-        <v>1215</v>
+        <v>1223</v>
       </c>
       <c r="J12" s="70" t="s">
-        <v>1216</v>
+        <v>1224</v>
       </c>
       <c r="K12" s="84"/>
       <c r="L12" s="91"/>
@@ -16619,10 +16619,10 @@
     </row>
     <row r="13" ht="45.0" customHeight="true">
       <c r="A13" s="90" t="s">
-        <v>1217</v>
+        <v>1225</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="C13" s="66" t="n">
         <v>41191.0</v>
@@ -16637,7 +16637,7 @@
         <v>0.0</v>
       </c>
       <c r="G13" s="70" t="s">
-        <v>1218</v>
+        <v>1226</v>
       </c>
       <c r="H13" s="85" t="s">
         <v>1323</v>
@@ -16663,16 +16663,16 @@
     </row>
     <row r="14" ht="45.0" customHeight="true">
       <c r="A14" s="90" t="s">
-        <v>1219</v>
+        <v>1227</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>1220</v>
+        <v>1228</v>
       </c>
       <c r="C14" s="66" t="n">
         <v>41094.0</v>
       </c>
       <c r="D14" s="92" t="s">
-        <v>1221</v>
+        <v>1229</v>
       </c>
       <c r="E14" s="68" t="n">
         <f>COUNTA(G14:Z14)</f>
@@ -16683,10 +16683,10 @@
         <v>0.0</v>
       </c>
       <c r="G14" s="70" t="s">
-        <v>1222</v>
+        <v>1230</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>1223</v>
+        <v>1231</v>
       </c>
       <c r="I14" s="84"/>
       <c r="J14" s="84"/>
@@ -16709,16 +16709,16 @@
     </row>
     <row r="15" ht="45.0" customHeight="true">
       <c r="A15" s="90" t="s">
-        <v>1224</v>
+        <v>1232</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>1225</v>
+        <v>1233</v>
       </c>
       <c r="C15" s="66" t="n">
         <v>40974.0</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>1209</v>
+        <v>1217</v>
       </c>
       <c r="E15" s="68" t="n">
         <f>COUNTA(G15:Z15)</f>
@@ -16729,10 +16729,10 @@
         <v>0.0</v>
       </c>
       <c r="G15" s="70" t="s">
-        <v>1226</v>
+        <v>1234</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>1227</v>
+        <v>1235</v>
       </c>
       <c r="I15" s="70"/>
       <c r="J15" s="84"/>
@@ -16755,16 +16755,16 @@
     </row>
     <row r="16" ht="45.0" customHeight="true">
       <c r="A16" s="90" t="s">
-        <v>1228</v>
+        <v>1236</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>1229</v>
+        <v>1237</v>
       </c>
       <c r="C16" s="66" t="n">
         <v>40858.0</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>1209</v>
+        <v>1217</v>
       </c>
       <c r="E16" s="68" t="n">
         <f>COUNTA(G16:Z16)</f>
@@ -16775,13 +16775,13 @@
         <v>0.0</v>
       </c>
       <c r="G16" s="70" t="s">
-        <v>1230</v>
+        <v>1238</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>1231</v>
+        <v>1239</v>
       </c>
       <c r="I16" s="70" t="s">
-        <v>1232</v>
+        <v>1240</v>
       </c>
       <c r="J16" s="70"/>
       <c r="K16" s="84"/>
@@ -16803,10 +16803,10 @@
     </row>
     <row r="17" ht="45.0" customHeight="true">
       <c r="A17" s="90" t="s">
-        <v>1233</v>
+        <v>1241</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>951</v>
+        <v>872</v>
       </c>
       <c r="C17" s="66" t="n">
         <v>40848.0</v>
@@ -16821,13 +16821,13 @@
         <v>0.0</v>
       </c>
       <c r="G17" s="70" t="s">
-        <v>1234</v>
+        <v>1242</v>
       </c>
       <c r="H17" s="70" t="s">
-        <v>1235</v>
+        <v>1243</v>
       </c>
       <c r="I17" s="70" t="s">
-        <v>1236</v>
+        <v>1244</v>
       </c>
       <c r="J17" s="84"/>
       <c r="K17" s="84"/>
@@ -16849,10 +16849,10 @@
     </row>
     <row r="18" ht="45.0" customHeight="true">
       <c r="A18" s="90" t="s">
-        <v>51</v>
+        <v>1145</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="C18" s="66" t="n">
         <v>40808.0</v>
@@ -16867,10 +16867,10 @@
         <v>0.0</v>
       </c>
       <c r="G18" s="70" t="s">
-        <v>1237</v>
+        <v>1245</v>
       </c>
       <c r="H18" s="70" t="s">
-        <v>1238</v>
+        <v>1246</v>
       </c>
       <c r="I18" s="70"/>
       <c r="J18" s="84"/>
@@ -16893,10 +16893,10 @@
     </row>
     <row r="19" ht="45.0" customHeight="true">
       <c r="A19" s="90" t="s">
-        <v>1239</v>
+        <v>1247</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>1240</v>
+        <v>1248</v>
       </c>
       <c r="C19" s="66" t="n">
         <v>40652.0</v>
@@ -16911,16 +16911,16 @@
         <v>0.0</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>1241</v>
+        <v>1249</v>
       </c>
       <c r="H19" s="70" t="s">
-        <v>1242</v>
+        <v>1250</v>
       </c>
       <c r="I19" s="84" t="s">
-        <v>1243</v>
+        <v>1251</v>
       </c>
       <c r="J19" s="70" t="s">
-        <v>1244</v>
+        <v>1252</v>
       </c>
       <c r="K19" s="84"/>
       <c r="L19" s="91"/>
@@ -16941,10 +16941,10 @@
     </row>
     <row r="20" ht="45.0" customHeight="true">
       <c r="A20" s="90" t="s">
-        <v>1245</v>
+        <v>1253</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="C20" s="66" t="n">
         <v>40470.0</v>
@@ -16959,7 +16959,7 @@
         <v>0.0</v>
       </c>
       <c r="G20" s="70" t="s">
-        <v>1246</v>
+        <v>1254</v>
       </c>
       <c r="H20" s="84"/>
       <c r="I20" s="84"/>
@@ -16983,10 +16983,10 @@
     </row>
     <row r="21" ht="45.0" customHeight="true">
       <c r="A21" s="90" t="s">
-        <v>1247</v>
+        <v>1255</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>1248</v>
+        <v>1256</v>
       </c>
       <c r="C21" s="66" t="n">
         <v>40470.0</v>
@@ -17001,7 +17001,7 @@
         <v>0.0</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>1249</v>
+        <v>1257</v>
       </c>
       <c r="H21" s="84"/>
       <c r="I21" s="84"/>
@@ -17025,10 +17025,10 @@
     </row>
     <row r="22" ht="45.0" customHeight="true">
       <c r="A22" s="90" t="s">
-        <v>1250</v>
+        <v>1258</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>1047</v>
+        <v>972</v>
       </c>
       <c r="C22" s="66" t="n">
         <v>40445.0</v>
@@ -17065,10 +17065,10 @@
     </row>
     <row r="23" ht="45.0" customHeight="true">
       <c r="A23" s="90" t="s">
-        <v>1251</v>
+        <v>1259</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>1212</v>
+        <v>1220</v>
       </c>
       <c r="C23" s="66" t="n">
         <v>40435.0</v>
@@ -17083,13 +17083,13 @@
         <v>0.0</v>
       </c>
       <c r="G23" s="70" t="s">
-        <v>1252</v>
+        <v>1260</v>
       </c>
       <c r="H23" s="70" t="s">
-        <v>1253</v>
+        <v>1261</v>
       </c>
       <c r="I23" s="70" t="s">
-        <v>1254</v>
+        <v>1262</v>
       </c>
       <c r="J23" s="84"/>
       <c r="K23" s="84"/>
@@ -17111,10 +17111,10 @@
     </row>
     <row r="24" ht="45.0" customHeight="true">
       <c r="A24" s="90" t="s">
-        <v>1255</v>
+        <v>1263</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="C24" s="66" t="n">
         <v>40353.0</v>
@@ -17129,7 +17129,7 @@
         <v>0.0</v>
       </c>
       <c r="G24" s="70" t="s">
-        <v>1256</v>
+        <v>1264</v>
       </c>
       <c r="H24" s="84"/>
       <c r="I24" s="84"/>
@@ -17153,10 +17153,10 @@
     </row>
     <row r="25" ht="45.0" customHeight="true">
       <c r="A25" s="90" t="s">
-        <v>1257</v>
+        <v>1265</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>1258</v>
+        <v>1266</v>
       </c>
       <c r="C25" s="66" t="n">
         <v>40316.0</v>
@@ -17171,7 +17171,7 @@
         <v>0.0</v>
       </c>
       <c r="G25" s="70" t="s">
-        <v>1259</v>
+        <v>1267</v>
       </c>
       <c r="H25" s="84"/>
       <c r="I25" s="84"/>
@@ -17195,10 +17195,10 @@
     </row>
     <row r="26" ht="45.0" customHeight="true">
       <c r="A26" s="93" t="s">
-        <v>1260</v>
+        <v>1268</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="C26" s="66" t="n">
         <v>40268.0</v>
@@ -17211,7 +17211,7 @@
         <v>1.0</v>
       </c>
       <c r="G26" s="70" t="s">
-        <v>1261</v>
+        <v>1269</v>
       </c>
       <c r="H26" s="70"/>
       <c r="I26" s="84"/>
@@ -17235,10 +17235,10 @@
     </row>
     <row r="27" ht="45.0" customHeight="true">
       <c r="A27" s="90" t="s">
-        <v>1262</v>
+        <v>1270</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="C27" s="66" t="n">
         <v>40115.0</v>
@@ -17253,13 +17253,13 @@
         <v>0.0</v>
       </c>
       <c r="G27" s="70" t="s">
-        <v>1263</v>
+        <v>1271</v>
       </c>
       <c r="H27" s="70" t="s">
-        <v>1264</v>
+        <v>1272</v>
       </c>
       <c r="I27" s="70" t="s">
-        <v>1265</v>
+        <v>1273</v>
       </c>
       <c r="J27" s="84"/>
       <c r="K27" s="84"/>
@@ -17281,10 +17281,10 @@
     </row>
     <row r="28" ht="45.0" customHeight="true">
       <c r="A28" s="90" t="s">
-        <v>1266</v>
+        <v>1274</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>1267</v>
+        <v>1275</v>
       </c>
       <c r="C28" s="73" t="n">
         <v>40101.0</v>
@@ -17299,7 +17299,7 @@
         <v>0.0</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>1268</v>
+        <v>1276</v>
       </c>
       <c r="H28" s="84"/>
       <c r="I28" s="84"/>
@@ -17323,10 +17323,10 @@
     </row>
     <row r="29" ht="45.0" customHeight="true">
       <c r="A29" s="90" t="s">
-        <v>1269</v>
+        <v>1277</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="C29" s="66" t="n">
         <v>39806.0</v>
@@ -17341,10 +17341,10 @@
         <v>0.0</v>
       </c>
       <c r="G29" s="70" t="s">
-        <v>1271</v>
+        <v>1279</v>
       </c>
       <c r="H29" s="70" t="s">
-        <v>1272</v>
+        <v>1280</v>
       </c>
       <c r="I29" s="70"/>
       <c r="J29" s="84"/>
@@ -17367,10 +17367,10 @@
     </row>
     <row r="30" ht="45.0" customHeight="true">
       <c r="A30" s="90" t="s">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="C30" s="66" t="n">
         <v>39749.0</v>
@@ -17385,7 +17385,7 @@
         <v>0.0</v>
       </c>
       <c r="G30" s="70" t="s">
-        <v>1274</v>
+        <v>1282</v>
       </c>
       <c r="H30" s="84"/>
       <c r="I30" s="84"/>
@@ -17409,10 +17409,10 @@
     </row>
     <row r="31" ht="45.0" customHeight="true">
       <c r="A31" s="90" t="s">
-        <v>1275</v>
+        <v>1283</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>276</v>
+        <v>174</v>
       </c>
       <c r="C31" s="66" t="n">
         <v>39399.0</v>
@@ -17427,10 +17427,10 @@
         <v>0.0</v>
       </c>
       <c r="G31" s="72" t="s">
-        <v>1276</v>
+        <v>1284</v>
       </c>
       <c r="H31" s="84" t="s">
-        <v>1277</v>
+        <v>1285</v>
       </c>
       <c r="I31" s="84"/>
       <c r="J31" s="84"/>
@@ -17453,10 +17453,10 @@
     </row>
     <row r="32" ht="45.0" customHeight="true">
       <c r="A32" s="90" t="s">
-        <v>1278</v>
+        <v>1286</v>
       </c>
       <c r="B32" s="65" t="s">
-        <v>1240</v>
+        <v>1248</v>
       </c>
       <c r="C32" s="66" t="n">
         <v>39365.0</v>
@@ -17493,10 +17493,10 @@
     </row>
     <row r="33" ht="45.0" customHeight="true">
       <c r="A33" s="90" t="s">
-        <v>1279</v>
+        <v>1287</v>
       </c>
       <c r="B33" s="65" t="s">
-        <v>1280</v>
+        <v>1288</v>
       </c>
       <c r="C33" s="66" t="n">
         <v>39325.0</v>
@@ -17511,7 +17511,7 @@
         <v>0.0</v>
       </c>
       <c r="G33" s="70" t="s">
-        <v>1281</v>
+        <v>1289</v>
       </c>
       <c r="H33" s="84"/>
       <c r="I33" s="84"/>
@@ -17535,10 +17535,10 @@
     </row>
     <row r="34" ht="45.0" customHeight="true">
       <c r="A34" s="90" t="s">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>579</v>
+        <v>489</v>
       </c>
       <c r="C34" s="66" t="n">
         <v>39040.0</v>
@@ -17553,7 +17553,7 @@
         <v>0.0</v>
       </c>
       <c r="G34" s="70" t="s">
-        <v>1283</v>
+        <v>1291</v>
       </c>
       <c r="H34" s="84"/>
       <c r="I34" s="84"/>
@@ -17577,16 +17577,16 @@
     </row>
     <row r="35" ht="45.0" customHeight="true">
       <c r="A35" s="93" t="s">
-        <v>1284</v>
+        <v>1292</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="C35" s="66" t="n">
         <v>38741.0</v>
       </c>
       <c r="D35" s="74" t="s">
-        <v>1285</v>
+        <v>1293</v>
       </c>
       <c r="E35" s="77" t="n">
         <v>1.0</v>
@@ -17595,7 +17595,7 @@
         <v>1.0</v>
       </c>
       <c r="G35" s="70" t="s">
-        <v>1286</v>
+        <v>1294</v>
       </c>
       <c r="H35" s="70"/>
       <c r="I35" s="84"/>
@@ -17619,10 +17619,10 @@
     </row>
     <row r="36" ht="45.0" customHeight="true">
       <c r="A36" s="90" t="s">
-        <v>1287</v>
+        <v>1295</v>
       </c>
       <c r="B36" s="65" t="s">
-        <v>579</v>
+        <v>489</v>
       </c>
       <c r="C36" s="66" t="n">
         <v>38295.0</v>
@@ -17637,10 +17637,10 @@
         <v>0.0</v>
       </c>
       <c r="G36" s="70" t="s">
-        <v>1288</v>
+        <v>1296</v>
       </c>
       <c r="H36" s="70" t="s">
-        <v>1289</v>
+        <v>1297</v>
       </c>
       <c r="I36" s="84"/>
       <c r="J36" s="84"/>
@@ -17663,16 +17663,16 @@
     </row>
     <row r="37" ht="45.0" customHeight="true">
       <c r="A37" s="93" t="s">
-        <v>1290</v>
+        <v>1298</v>
       </c>
       <c r="B37" s="65" t="s">
-        <v>1212</v>
+        <v>1220</v>
       </c>
       <c r="C37" s="66" t="n">
         <v>37210.0</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>1291</v>
+        <v>1299</v>
       </c>
       <c r="E37" s="68" t="n">
         <f>COUNTA(G37:Z37)</f>
@@ -17683,7 +17683,7 @@
         <v>0.0</v>
       </c>
       <c r="G37" s="70" t="s">
-        <v>1292</v>
+        <v>1300</v>
       </c>
       <c r="H37" s="70"/>
       <c r="I37" s="84"/>
@@ -17752,51 +17752,51 @@
     </row>
     <row r="2" ht="45.0" customHeight="true">
       <c r="A2" s="64" t="s">
-        <v>4</v>
+        <v>1301</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>5</v>
+        <v>1048</v>
       </c>
       <c r="C2" s="94" t="n">
         <v>35369.0</v>
       </c>
       <c r="D2" s="83"/>
       <c r="E2" s="65" t="s">
-        <v>6</v>
+        <v>1302</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="65"/>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="64" t="s">
-        <v>7</v>
+        <v>1303</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="94" t="n">
         <v>34320.0</v>
       </c>
       <c r="D3" s="83"/>
       <c r="E3" s="65" t="s">
-        <v>9</v>
+        <v>1304</v>
       </c>
       <c r="F3" s="91"/>
       <c r="G3" s="91"/>
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="64" t="s">
-        <v>10</v>
+        <v>1305</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C4" s="95" t="n">
         <v>33639.0</v>
       </c>
       <c r="D4" s="83"/>
       <c r="E4" s="65" t="s">
-        <v>12</v>
+        <v>1306</v>
       </c>
       <c r="F4" s="96"/>
       <c r="G4" s="91"/>
